--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F13F5094-A75D-4126-A298-C2B1E3581B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C2BA1D0-1B16-4751-A71E-36EAB89E9D3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A00C852-475B-4495-A5AF-FF6AB2018626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_review" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="565">
   <si>
     <t>family</t>
   </si>
@@ -1615,90 +1615,87 @@
     <t>Hexanycteropsylla Ioff, 1953</t>
   </si>
   <si>
+    <t>Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Curt., [1829]</t>
+  </si>
+  <si>
+    <t>Suteminn, 1969</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Westwood, 1858</t>
+  </si>
+  <si>
+    <t>Alpinus, 1874</t>
+  </si>
+  <si>
+    <t>fossoris</t>
+  </si>
+  <si>
+    <t>sugitanii</t>
+  </si>
+  <si>
+    <t>sterni</t>
+  </si>
+  <si>
+    <t>flavus</t>
+  </si>
+  <si>
+    <t>nepalensis</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>imperator</t>
+  </si>
+  <si>
+    <t>ferox</t>
+  </si>
+  <si>
+    <t>terrestris</t>
+  </si>
+  <si>
     <t>nomina ex phantasia</t>
   </si>
   <si>
+    <t>Amalaraeus fossoris</t>
+  </si>
+  <si>
+    <t>Amalaraeus sugitanii</t>
+  </si>
+  <si>
     <t>cited in Dale, 1878, but no associated valid species</t>
   </si>
   <si>
+    <t>Ceratophyllus sterni</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus flavus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus nepalensis</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>Pulex imperator</t>
+  </si>
+  <si>
+    <t>Pulex terrestris ferox</t>
+  </si>
+  <si>
     <t>likely a species of Hystrichopsylla</t>
   </si>
   <si>
     <t>non-flea</t>
   </si>
   <si>
-    <t>Sutemin, 1969</t>
-  </si>
-  <si>
-    <t>Curt., [1829]</t>
-  </si>
-  <si>
-    <t>Suteminn, 1969</t>
-  </si>
-  <si>
-    <t>Kirby, 1837</t>
-  </si>
-  <si>
-    <t>Westwood, 1858</t>
-  </si>
-  <si>
-    <t>Alpinus, 1874</t>
-  </si>
-  <si>
-    <t>Amalaraeus fossoris</t>
-  </si>
-  <si>
-    <t>Amalaraeus sugitanii</t>
-  </si>
-  <si>
-    <t>Ceratophyllus sterni</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus flavus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus nepalensis</t>
-  </si>
-  <si>
-    <t>Pulex gigas</t>
-  </si>
-  <si>
-    <t>Pulex imperator</t>
-  </si>
-  <si>
-    <t>Pulex terrestris ferox</t>
-  </si>
-  <si>
-    <t>Amalaraeus</t>
-  </si>
-  <si>
-    <t>ferox</t>
-  </si>
-  <si>
-    <t>terrestris</t>
-  </si>
-  <si>
-    <t>imperator</t>
-  </si>
-  <si>
-    <t>gigas</t>
-  </si>
-  <si>
-    <t>nepalensis</t>
-  </si>
-  <si>
-    <t>fossoris</t>
-  </si>
-  <si>
-    <t>sugitanii</t>
-  </si>
-  <si>
-    <t>sterni</t>
-  </si>
-  <si>
-    <t>flavus</t>
-  </si>
-  <si>
     <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
   </si>
   <si>
@@ -1708,10 +1705,10 @@
     <t>Thrassis howelli (Jordan, 1933)</t>
   </si>
   <si>
+    <t>nomen novum</t>
+  </si>
+  <si>
     <t>misapplication</t>
-  </si>
-  <si>
-    <t>nomen novum</t>
   </si>
   <si>
     <t>misspelling</t>
@@ -1723,7 +1720,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2557,14 +2554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="39" max="39" width="26.54296875" customWidth="1"/>
+    <col min="39" max="39" width="100.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
@@ -2691,31 +2688,31 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
       <c r="F2">
-        <v>1953</v>
+        <v>1838</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>520</v>
       </c>
       <c r="H2" t="s">
         <v>42</v>
       </c>
       <c r="I2">
-        <v>2797</v>
+        <v>3289</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -2724,7 +2721,7 @@
         <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
@@ -2742,10 +2739,10 @@
         <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>523</v>
       </c>
       <c r="T2" t="s">
         <v>40</v>
@@ -2778,19 +2775,19 @@
         <v>40</v>
       </c>
       <c r="AD2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="AI2" t="s">
         <v>40</v>
@@ -2799,42 +2796,45 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
         <v>40</v>
       </c>
+      <c r="AM2" t="s">
+        <v>525</v>
+      </c>
       <c r="AN2" t="s">
-        <v>69</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>1906</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>501</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
       </c>
       <c r="I3">
-        <v>3161</v>
+        <v>2736</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -2843,7 +2843,7 @@
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>502</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -2861,10 +2861,10 @@
         <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>503</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>504</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
         <v>40</v>
@@ -2897,19 +2897,19 @@
         <v>40</v>
       </c>
       <c r="AD3" t="s">
-        <v>40</v>
+        <v>539</v>
       </c>
       <c r="AE3" t="s">
         <v>40</v>
       </c>
       <c r="AF3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="s">
         <v>40</v>
       </c>
       <c r="AH3" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="AI3" t="s">
         <v>40</v>
@@ -2918,45 +2918,45 @@
         <v>40</v>
       </c>
       <c r="AK3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="s">
         <v>40</v>
       </c>
       <c r="AM3" t="s">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="AN3" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="F4">
-        <v>1909</v>
+        <v>1972</v>
       </c>
       <c r="G4" t="s">
-        <v>361</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4">
-        <v>3254</v>
+        <v>2857</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -2965,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
@@ -2983,10 +2983,10 @@
         <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
         <v>40</v>
@@ -3019,10 +3019,10 @@
         <v>40</v>
       </c>
       <c r="AD4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE4" t="s">
-        <v>365</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s">
         <v>65</v>
@@ -3031,7 +3031,7 @@
         <v>40</v>
       </c>
       <c r="AH4" t="s">
-        <v>366</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="s">
         <v>40</v>
@@ -3040,45 +3040,45 @@
         <v>40</v>
       </c>
       <c r="AK4" t="s">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="s">
         <v>40</v>
       </c>
       <c r="AM4" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="AN4" t="s">
-        <v>367</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>1955</v>
+        <v>1987</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5">
-        <v>3058</v>
+        <v>2859</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -3087,7 +3087,7 @@
         <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
@@ -3105,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="T5" t="s">
         <v>40</v>
@@ -3141,19 +3141,19 @@
         <v>40</v>
       </c>
       <c r="AD5" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="AE5" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s">
         <v>40</v>
       </c>
       <c r="AH5" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="AI5" t="s">
         <v>40</v>
@@ -3162,42 +3162,45 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s">
         <v>40</v>
       </c>
+      <c r="AM5" t="s">
+        <v>101</v>
+      </c>
       <c r="AN5" t="s">
-        <v>255</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>1826</v>
+        <v>1976</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3176</v>
+        <v>2952</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -3206,7 +3209,7 @@
         <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="M6" t="s">
         <v>40</v>
@@ -3224,10 +3227,10 @@
         <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="T6" t="s">
         <v>40</v>
@@ -3260,7 +3263,7 @@
         <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AE6" t="s">
         <v>40</v>
@@ -3272,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="AH6" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="AI6" t="s">
         <v>40</v>
@@ -3281,42 +3284,45 @@
         <v>40</v>
       </c>
       <c r="AK6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s">
         <v>40</v>
       </c>
+      <c r="AM6" t="s">
+        <v>190</v>
+      </c>
       <c r="AN6" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F7">
-        <v>1878</v>
+        <v>1922</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7">
-        <v>3042</v>
+        <v>2984</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -3325,7 +3331,7 @@
         <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
         <v>40</v>
@@ -3343,10 +3349,10 @@
         <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="T7" t="s">
         <v>40</v>
@@ -3379,7 +3385,7 @@
         <v>40</v>
       </c>
       <c r="AD7" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="AE7" t="s">
         <v>40</v>
@@ -3391,7 +3397,7 @@
         <v>40</v>
       </c>
       <c r="AH7" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="AI7" t="s">
         <v>40</v>
@@ -3400,42 +3406,45 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="s">
         <v>40</v>
       </c>
+      <c r="AM7" t="s">
+        <v>190</v>
+      </c>
       <c r="AN7" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="F8">
-        <v>1955</v>
+        <v>1898</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
       </c>
       <c r="I8">
-        <v>3073</v>
+        <v>3194</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -3444,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M8" t="s">
         <v>40</v>
@@ -3462,10 +3471,10 @@
         <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="S8" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="T8" t="s">
         <v>40</v>
@@ -3498,19 +3507,19 @@
         <v>40</v>
       </c>
       <c r="AD8" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AE8" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG8" t="s">
         <v>40</v>
       </c>
       <c r="AH8" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="AI8" t="s">
         <v>40</v>
@@ -3525,39 +3534,39 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="AN8" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="F9">
-        <v>1896</v>
+        <v>1935</v>
       </c>
       <c r="G9" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
       </c>
       <c r="I9">
-        <v>3330</v>
+        <v>3195</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
@@ -3566,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="M9" t="s">
         <v>40</v>
@@ -3584,10 +3593,10 @@
         <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="S9" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="T9" t="s">
         <v>40</v>
@@ -3620,19 +3629,19 @@
         <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="AE9" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="s">
         <v>40</v>
       </c>
       <c r="AH9" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="AI9" t="s">
         <v>40</v>
@@ -3647,39 +3656,39 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="AN9" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="F10">
-        <v>1955</v>
+        <v>1880</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
       </c>
       <c r="I10">
-        <v>3263</v>
+        <v>3235</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
@@ -3688,7 +3697,7 @@
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="M10" t="s">
         <v>40</v>
@@ -3706,10 +3715,10 @@
         <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="S10" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="T10" t="s">
         <v>40</v>
@@ -3742,19 +3751,19 @@
         <v>40</v>
       </c>
       <c r="AD10" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="AE10" t="s">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG10" t="s">
         <v>40</v>
       </c>
       <c r="AH10" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="AI10" t="s">
         <v>40</v>
@@ -3769,39 +3778,39 @@
         <v>40</v>
       </c>
       <c r="AM10" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="AN10" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="F11">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G11" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
       </c>
       <c r="I11">
-        <v>3357</v>
+        <v>3216</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -3810,7 +3819,7 @@
         <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
@@ -3828,10 +3837,10 @@
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>368</v>
+        <v>558</v>
       </c>
       <c r="S11" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="T11" t="s">
         <v>40</v>
@@ -3864,10 +3873,10 @@
         <v>40</v>
       </c>
       <c r="AD11" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="AE11" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AF11" t="s">
         <v>65</v>
@@ -3875,9 +3884,6 @@
       <c r="AG11" t="s">
         <v>40</v>
       </c>
-      <c r="AH11" t="s">
-        <v>265</v>
-      </c>
       <c r="AI11" t="s">
         <v>40</v>
       </c>
@@ -3890,40 +3896,37 @@
       <c r="AL11" t="s">
         <v>40</v>
       </c>
-      <c r="AM11" t="s">
-        <v>266</v>
-      </c>
       <c r="AN11" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>513</v>
+        <v>323</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>239</v>
       </c>
       <c r="F12">
-        <v>1906</v>
+        <v>1916</v>
       </c>
       <c r="G12" t="s">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
       </c>
       <c r="I12">
-        <v>3287</v>
+        <v>3312</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
@@ -3932,7 +3935,7 @@
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="M12" t="s">
         <v>40</v>
@@ -3950,10 +3953,10 @@
         <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="S12" t="s">
-        <v>504</v>
+        <v>375</v>
       </c>
       <c r="T12" t="s">
         <v>40</v>
@@ -3986,19 +3989,16 @@
         <v>40</v>
       </c>
       <c r="AD12" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="AE12" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="AF12" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AG12" t="s">
         <v>40</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>505</v>
       </c>
       <c r="AI12" t="s">
         <v>40</v>
@@ -4012,40 +4012,37 @@
       <c r="AL12" t="s">
         <v>40</v>
       </c>
-      <c r="AM12" t="s">
-        <v>441</v>
-      </c>
       <c r="AN12" t="s">
-        <v>513</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F13">
-        <v>1972</v>
+        <v>1929</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
       </c>
       <c r="I13">
-        <v>2857</v>
+        <v>2940</v>
       </c>
       <c r="J13" t="s">
         <v>40</v>
@@ -4054,7 +4051,7 @@
         <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s">
         <v>40</v>
@@ -4072,10 +4069,10 @@
         <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="S13" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="T13" t="s">
         <v>40</v>
@@ -4108,10 +4105,10 @@
         <v>40</v>
       </c>
       <c r="AD13" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="AE13" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="AF13" t="s">
         <v>65</v>
@@ -4120,7 +4117,7 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="AI13" t="s">
         <v>40</v>
@@ -4135,39 +4132,39 @@
         <v>40</v>
       </c>
       <c r="AM13" t="s">
-        <v>101</v>
+        <v>559</v>
       </c>
       <c r="AN13" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="F14">
-        <v>1987</v>
+        <v>1905</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
       </c>
       <c r="I14">
-        <v>2859</v>
+        <v>3013</v>
       </c>
       <c r="J14" t="s">
         <v>40</v>
@@ -4176,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="M14" t="s">
         <v>40</v>
@@ -4194,10 +4191,10 @@
         <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="S14" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="T14" t="s">
         <v>40</v>
@@ -4230,19 +4227,16 @@
         <v>40</v>
       </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AE14" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG14" t="s">
         <v>40</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>109</v>
       </c>
       <c r="AI14" t="s">
         <v>40</v>
@@ -4256,11 +4250,8 @@
       <c r="AL14" t="s">
         <v>40</v>
       </c>
-      <c r="AM14" t="s">
-        <v>101</v>
-      </c>
       <c r="AN14" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
@@ -4268,28 +4259,28 @@
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
         <v>111</v>
       </c>
       <c r="F15">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
         <v>42</v>
       </c>
       <c r="I15">
-        <v>2860</v>
+        <v>2975</v>
       </c>
       <c r="J15" t="s">
         <v>40</v>
@@ -4298,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -4316,10 +4307,10 @@
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="T15" t="s">
         <v>40</v>
@@ -4352,10 +4343,10 @@
         <v>40</v>
       </c>
       <c r="AD15" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="AE15" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s">
         <v>65</v>
@@ -4363,9 +4354,6 @@
       <c r="AG15" t="s">
         <v>40</v>
       </c>
-      <c r="AH15" t="s">
-        <v>117</v>
-      </c>
       <c r="AI15" t="s">
         <v>40</v>
       </c>
@@ -4378,11 +4366,8 @@
       <c r="AL15" t="s">
         <v>40</v>
       </c>
-      <c r="AM15" t="s">
-        <v>118</v>
-      </c>
       <c r="AN15" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
@@ -4393,25 +4378,25 @@
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>1981</v>
+        <v>1953</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
         <v>42</v>
       </c>
       <c r="I16">
-        <v>2872</v>
+        <v>2797</v>
       </c>
       <c r="J16" t="s">
         <v>40</v>
@@ -4420,7 +4405,7 @@
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
@@ -4438,10 +4423,10 @@
         <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="S16" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
         <v>40</v>
@@ -4474,19 +4459,19 @@
         <v>40</v>
       </c>
       <c r="AD16" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="AE16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AF16" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG16" t="s">
         <v>40</v>
       </c>
       <c r="AH16" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="AI16" t="s">
         <v>40</v>
@@ -4495,45 +4480,42 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s">
-        <v>562</v>
+        <v>68</v>
       </c>
       <c r="AL16" t="s">
         <v>40</v>
       </c>
-      <c r="AM16" t="s">
-        <v>129</v>
-      </c>
       <c r="AN16" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>1936</v>
+        <v>1826</v>
       </c>
       <c r="G17" t="s">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
         <v>42</v>
       </c>
       <c r="I17">
-        <v>3247</v>
+        <v>2814</v>
       </c>
       <c r="J17" t="s">
         <v>40</v>
@@ -4542,7 +4524,7 @@
         <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
         <v>40</v>
@@ -4560,10 +4542,10 @@
         <v>40</v>
       </c>
       <c r="R17" t="s">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
         <v>40</v>
@@ -4596,19 +4578,19 @@
         <v>40</v>
       </c>
       <c r="AD17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s">
         <v>40</v>
       </c>
       <c r="AF17" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="s">
         <v>40</v>
       </c>
       <c r="AH17" t="s">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s">
         <v>40</v>
@@ -4617,45 +4599,42 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL17" t="s">
-        <v>563</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="AN17" t="s">
-        <v>347</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>1914</v>
+        <v>1926</v>
       </c>
       <c r="G18" t="s">
-        <v>455</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
         <v>42</v>
       </c>
       <c r="I18">
-        <v>2770</v>
+        <v>2841</v>
       </c>
       <c r="J18" t="s">
         <v>40</v>
@@ -4664,7 +4643,7 @@
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>456</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
         <v>40</v>
@@ -4682,10 +4661,10 @@
         <v>40</v>
       </c>
       <c r="R18" t="s">
-        <v>457</v>
+        <v>86</v>
       </c>
       <c r="S18" t="s">
-        <v>458</v>
+        <v>87</v>
       </c>
       <c r="T18" t="s">
         <v>40</v>
@@ -4718,19 +4697,19 @@
         <v>40</v>
       </c>
       <c r="AD18" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AE18" t="s">
         <v>40</v>
       </c>
       <c r="AF18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18" t="s">
         <v>40</v>
       </c>
       <c r="AH18" t="s">
-        <v>459</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s">
         <v>40</v>
@@ -4739,45 +4718,42 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL18" t="s">
         <v>40</v>
       </c>
-      <c r="AM18" t="s">
-        <v>460</v>
-      </c>
       <c r="AN18" t="s">
-        <v>454</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>529</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>229</v>
       </c>
       <c r="F19">
-        <v>1906</v>
+        <v>1878</v>
       </c>
       <c r="G19" t="s">
-        <v>501</v>
+        <v>230</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19">
-        <v>3340</v>
+        <v>3042</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
@@ -4786,7 +4762,7 @@
         <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>502</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s">
         <v>40</v>
@@ -4804,10 +4780,10 @@
         <v>40</v>
       </c>
       <c r="R19" t="s">
-        <v>530</v>
+        <v>232</v>
       </c>
       <c r="S19" t="s">
-        <v>504</v>
+        <v>233</v>
       </c>
       <c r="T19" t="s">
         <v>40</v>
@@ -4840,19 +4816,19 @@
         <v>40</v>
       </c>
       <c r="AD19" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="AE19" t="s">
         <v>40</v>
       </c>
       <c r="AF19" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG19" t="s">
         <v>40</v>
       </c>
       <c r="AH19" t="s">
-        <v>505</v>
+        <v>235</v>
       </c>
       <c r="AI19" t="s">
         <v>40</v>
@@ -4861,45 +4837,42 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL19" t="s">
         <v>40</v>
       </c>
-      <c r="AM19" t="s">
-        <v>441</v>
-      </c>
       <c r="AN19" t="s">
-        <v>529</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>526</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>239</v>
       </c>
       <c r="F20">
-        <v>1833</v>
+        <v>1898</v>
       </c>
       <c r="G20" t="s">
-        <v>492</v>
+        <v>240</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>3339</v>
+        <v>3048</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
@@ -4908,7 +4881,7 @@
         <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>493</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s">
         <v>40</v>
@@ -4926,10 +4899,10 @@
         <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>527</v>
+        <v>242</v>
       </c>
       <c r="S20" t="s">
-        <v>495</v>
+        <v>243</v>
       </c>
       <c r="T20" t="s">
         <v>40</v>
@@ -4962,19 +4935,19 @@
         <v>40</v>
       </c>
       <c r="AD20" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AE20" t="s">
         <v>40</v>
       </c>
       <c r="AF20" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="s">
         <v>40</v>
       </c>
       <c r="AH20" t="s">
-        <v>528</v>
+        <v>245</v>
       </c>
       <c r="AI20" t="s">
         <v>40</v>
@@ -4983,45 +4956,42 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL20" t="s">
         <v>40</v>
       </c>
-      <c r="AM20" t="s">
-        <v>441</v>
-      </c>
       <c r="AN20" t="s">
-        <v>526</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="F21">
-        <v>1880</v>
+        <v>1955</v>
       </c>
       <c r="G21" t="s">
-        <v>436</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
       </c>
       <c r="I21">
-        <v>2760</v>
+        <v>3058</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
@@ -5030,7 +5000,7 @@
         <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s">
         <v>40</v>
@@ -5048,10 +5018,10 @@
         <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>438</v>
+        <v>251</v>
       </c>
       <c r="S21" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="T21" t="s">
         <v>40</v>
@@ -5084,19 +5054,19 @@
         <v>40</v>
       </c>
       <c r="AD21" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AE21" t="s">
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG21" t="s">
         <v>40</v>
       </c>
       <c r="AH21" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="AI21" t="s">
         <v>40</v>
@@ -5105,45 +5075,42 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL21" t="s">
         <v>40</v>
       </c>
-      <c r="AM21" t="s">
-        <v>441</v>
-      </c>
       <c r="AN21" t="s">
-        <v>434</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="F22">
-        <v>1898</v>
+        <v>1826</v>
       </c>
       <c r="G22" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
       </c>
       <c r="I22">
-        <v>3194</v>
+        <v>3176</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
@@ -5152,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s">
         <v>40</v>
@@ -5170,10 +5137,10 @@
         <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="S22" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s">
         <v>40</v>
@@ -5206,7 +5173,7 @@
         <v>40</v>
       </c>
       <c r="AD22" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s">
         <v>40</v>
@@ -5218,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AI22" t="s">
         <v>40</v>
@@ -5227,45 +5194,42 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL22" t="s">
         <v>40</v>
       </c>
-      <c r="AM22" t="s">
-        <v>300</v>
-      </c>
       <c r="AN22" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="F23">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="G23" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
       </c>
       <c r="I23">
-        <v>3328</v>
+        <v>3184</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -5274,7 +5238,7 @@
         <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>387</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
@@ -5292,10 +5256,10 @@
         <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="S23" t="s">
-        <v>388</v>
+        <v>87</v>
       </c>
       <c r="T23" t="s">
         <v>40</v>
@@ -5328,7 +5292,7 @@
         <v>40</v>
       </c>
       <c r="AD23" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="AE23" t="s">
         <v>40</v>
@@ -5340,7 +5304,7 @@
         <v>40</v>
       </c>
       <c r="AH23" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AI23" t="s">
         <v>40</v>
@@ -5349,45 +5313,42 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL23" t="s">
         <v>40</v>
       </c>
-      <c r="AM23" t="s">
-        <v>389</v>
-      </c>
       <c r="AN23" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="F24">
-        <v>1935</v>
+        <v>1800</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
       </c>
       <c r="I24">
-        <v>3195</v>
+        <v>2927</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -5396,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s">
         <v>40</v>
@@ -5414,10 +5375,10 @@
         <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>306</v>
+        <v>135</v>
       </c>
       <c r="S24" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="T24" t="s">
         <v>40</v>
@@ -5450,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="AD24" t="s">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s">
         <v>40</v>
@@ -5462,7 +5423,7 @@
         <v>40</v>
       </c>
       <c r="AH24" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="AI24" t="s">
         <v>40</v>
@@ -5471,45 +5432,45 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="AL24" t="s">
         <v>40</v>
       </c>
       <c r="AM24" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="AN24" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>497</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="E25" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="F25">
-        <v>1944</v>
+        <v>1811</v>
       </c>
       <c r="G25" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
       </c>
       <c r="I25">
-        <v>3159</v>
+        <v>3197</v>
       </c>
       <c r="J25" t="s">
         <v>40</v>
@@ -5518,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="M25" t="s">
         <v>40</v>
@@ -5536,10 +5497,10 @@
         <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>446</v>
+        <v>317</v>
       </c>
       <c r="S25" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="T25" t="s">
         <v>40</v>
@@ -5572,19 +5533,19 @@
         <v>40</v>
       </c>
       <c r="AD25" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AE25" t="s">
         <v>40</v>
       </c>
       <c r="AF25" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG25" t="s">
         <v>40</v>
       </c>
       <c r="AH25" t="s">
-        <v>498</v>
+        <v>320</v>
       </c>
       <c r="AI25" t="s">
         <v>40</v>
@@ -5593,45 +5554,45 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="AL25" t="s">
         <v>40</v>
       </c>
       <c r="AM25" t="s">
-        <v>28</v>
+        <v>321</v>
       </c>
       <c r="AN25" t="s">
-        <v>497</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>1957</v>
+        <v>1936</v>
       </c>
       <c r="G26" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
       </c>
       <c r="I26">
-        <v>2758</v>
+        <v>3153</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -5640,7 +5601,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="M26" t="s">
         <v>40</v>
@@ -5658,10 +5619,10 @@
         <v>40</v>
       </c>
       <c r="R26" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="S26" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="T26" t="s">
         <v>40</v>
@@ -5700,13 +5661,13 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="s">
         <v>40</v>
       </c>
       <c r="AH26" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="AI26" t="s">
         <v>40</v>
@@ -5715,45 +5676,45 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s">
-        <v>67</v>
+        <v>490</v>
       </c>
       <c r="AL26" t="s">
         <v>40</v>
       </c>
       <c r="AM26" t="s">
-        <v>28</v>
+        <v>490</v>
       </c>
       <c r="AN26" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>1915</v>
+        <v>1936</v>
       </c>
       <c r="G27" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
       </c>
       <c r="I27">
-        <v>2776</v>
+        <v>3283</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -5762,7 +5723,7 @@
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="M27" t="s">
         <v>40</v>
@@ -5780,10 +5741,10 @@
         <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="S27" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="T27" t="s">
         <v>40</v>
@@ -5822,13 +5783,13 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AG27" t="s">
         <v>40</v>
       </c>
       <c r="AH27" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="AI27" t="s">
         <v>40</v>
@@ -5837,45 +5798,45 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s">
-        <v>67</v>
+        <v>490</v>
       </c>
       <c r="AL27" t="s">
         <v>40</v>
       </c>
       <c r="AM27" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="AN27" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="C28" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>397</v>
       </c>
       <c r="F28">
-        <v>1911</v>
+        <v>1925</v>
       </c>
       <c r="G28" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
       </c>
       <c r="I28">
-        <v>2768</v>
+        <v>2743</v>
       </c>
       <c r="J28" t="s">
         <v>40</v>
@@ -5884,7 +5845,7 @@
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="M28" t="s">
         <v>40</v>
@@ -5902,10 +5863,10 @@
         <v>40</v>
       </c>
       <c r="R28" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="S28" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="T28" t="s">
         <v>40</v>
@@ -5950,7 +5911,7 @@
         <v>40</v>
       </c>
       <c r="AH28" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="AI28" t="s">
         <v>40</v>
@@ -5965,36 +5926,36 @@
         <v>40</v>
       </c>
       <c r="AN28" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="F29">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="G29" t="s">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
         <v>42</v>
       </c>
       <c r="I29">
-        <v>2779</v>
+        <v>2748</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
@@ -6003,7 +5964,7 @@
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="M29" t="s">
         <v>40</v>
@@ -6021,10 +5982,10 @@
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="S29" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="T29" t="s">
         <v>40</v>
@@ -6069,7 +6030,7 @@
         <v>40</v>
       </c>
       <c r="AH29" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="AI29" t="s">
         <v>40</v>
@@ -6083,40 +6044,37 @@
       <c r="AL29" t="s">
         <v>40</v>
       </c>
-      <c r="AM29" t="s">
-        <v>483</v>
-      </c>
       <c r="AN29" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F30">
-        <v>1903</v>
+        <v>1856</v>
       </c>
       <c r="G30" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
       </c>
       <c r="I30">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
@@ -6125,7 +6083,7 @@
         <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
@@ -6143,10 +6101,10 @@
         <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="S30" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="T30" t="s">
         <v>40</v>
@@ -6191,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="AH30" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="AI30" t="s">
         <v>40</v>
@@ -6206,36 +6164,36 @@
         <v>40</v>
       </c>
       <c r="AN30" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>377</v>
+        <v>183</v>
       </c>
       <c r="F31">
-        <v>1863</v>
+        <v>1911</v>
       </c>
       <c r="G31" t="s">
-        <v>378</v>
+        <v>449</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
       <c r="I31">
-        <v>3318</v>
+        <v>2768</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
@@ -6244,7 +6202,7 @@
         <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>379</v>
+        <v>450</v>
       </c>
       <c r="M31" t="s">
         <v>40</v>
@@ -6262,10 +6220,10 @@
         <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="S31" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="T31" t="s">
         <v>40</v>
@@ -6298,19 +6256,19 @@
         <v>40</v>
       </c>
       <c r="AD31" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s">
         <v>40</v>
       </c>
       <c r="AF31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG31" t="s">
         <v>40</v>
       </c>
       <c r="AH31" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="AI31" t="s">
         <v>40</v>
@@ -6319,45 +6277,42 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="AL31" t="s">
         <v>40</v>
       </c>
-      <c r="AM31" t="s">
-        <v>383</v>
-      </c>
       <c r="AN31" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
       <c r="F32">
-        <v>1929</v>
+        <v>1833</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
       </c>
       <c r="I32">
-        <v>2940</v>
+        <v>3158</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
@@ -6366,7 +6321,7 @@
         <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>493</v>
       </c>
       <c r="M32" t="s">
         <v>40</v>
@@ -6384,10 +6339,10 @@
         <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="S32" t="s">
-        <v>146</v>
+        <v>495</v>
       </c>
       <c r="T32" t="s">
         <v>40</v>
@@ -6420,19 +6375,19 @@
         <v>40</v>
       </c>
       <c r="AD32" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AG32" t="s">
         <v>40</v>
       </c>
       <c r="AH32" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="AI32" t="s">
         <v>40</v>
@@ -6441,16 +6396,13 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="AL32" t="s">
         <v>40</v>
       </c>
-      <c r="AM32" t="s">
-        <v>560</v>
-      </c>
       <c r="AN32" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
@@ -6461,25 +6413,25 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>476</v>
       </c>
       <c r="D33" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="F33">
-        <v>1895</v>
+        <v>1933</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>478</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
       </c>
       <c r="I33">
-        <v>3216</v>
+        <v>2779</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
@@ -6488,7 +6440,7 @@
         <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="M33" t="s">
         <v>40</v>
@@ -6506,10 +6458,10 @@
         <v>40</v>
       </c>
       <c r="R33" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="S33" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="T33" t="s">
         <v>40</v>
@@ -6542,17 +6494,20 @@
         <v>40</v>
       </c>
       <c r="AD33" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AE33" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AF33" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AG33" t="s">
         <v>40</v>
       </c>
+      <c r="AH33" t="s">
+        <v>482</v>
+      </c>
       <c r="AI33" t="s">
         <v>40</v>
       </c>
@@ -6560,13 +6515,16 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s">
-        <v>67</v>
+        <v>483</v>
       </c>
       <c r="AL33" t="s">
         <v>40</v>
       </c>
+      <c r="AM33" t="s">
+        <v>483</v>
+      </c>
       <c r="AN33" t="s">
-        <v>328</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
@@ -6577,25 +6535,25 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="F34">
-        <v>1916</v>
+        <v>1933</v>
       </c>
       <c r="G34" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
       </c>
       <c r="I34">
-        <v>3312</v>
+        <v>3163</v>
       </c>
       <c r="J34" t="s">
         <v>40</v>
@@ -6604,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="M34" t="s">
         <v>40</v>
@@ -6622,10 +6580,10 @@
         <v>40</v>
       </c>
       <c r="R34" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="S34" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="T34" t="s">
         <v>40</v>
@@ -6658,17 +6616,20 @@
         <v>40</v>
       </c>
       <c r="AD34" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AF34" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AG34" t="s">
         <v>40</v>
       </c>
+      <c r="AH34" t="s">
+        <v>482</v>
+      </c>
       <c r="AI34" t="s">
         <v>40</v>
       </c>
@@ -6676,42 +6637,45 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s">
-        <v>67</v>
+        <v>483</v>
       </c>
       <c r="AL34" t="s">
         <v>40</v>
       </c>
+      <c r="AM34" t="s">
+        <v>483</v>
+      </c>
       <c r="AN34" t="s">
-        <v>328</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>515</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>477</v>
       </c>
       <c r="F35">
-        <v>1976</v>
+        <v>1933</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
       </c>
       <c r="I35">
-        <v>2952</v>
+        <v>3288</v>
       </c>
       <c r="J35" t="s">
         <v>40</v>
@@ -6720,7 +6684,7 @@
         <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
       <c r="M35" t="s">
         <v>40</v>
@@ -6738,10 +6702,10 @@
         <v>40</v>
       </c>
       <c r="R35" t="s">
-        <v>156</v>
+        <v>516</v>
       </c>
       <c r="S35" t="s">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="T35" t="s">
         <v>40</v>
@@ -6774,19 +6738,19 @@
         <v>40</v>
       </c>
       <c r="AD35" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s">
         <v>40</v>
       </c>
       <c r="AF35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG35" t="s">
         <v>40</v>
       </c>
       <c r="AH35" t="s">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="AI35" t="s">
         <v>40</v>
@@ -6795,45 +6759,45 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s">
-        <v>67</v>
+        <v>483</v>
       </c>
       <c r="AL35" t="s">
         <v>40</v>
       </c>
       <c r="AM35" t="s">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="AN35" t="s">
-        <v>160</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36">
-        <v>1975</v>
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
       <c r="I36">
-        <v>3134</v>
+        <v>2739</v>
       </c>
       <c r="J36" t="s">
         <v>40</v>
@@ -6842,7 +6806,7 @@
         <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
         <v>40</v>
@@ -6860,10 +6824,10 @@
         <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="S36" t="s">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s">
         <v>40</v>
@@ -6896,7 +6860,7 @@
         <v>40</v>
       </c>
       <c r="AD36" t="s">
-        <v>158</v>
+        <v>542</v>
       </c>
       <c r="AE36" t="s">
         <v>40</v>
@@ -6908,7 +6872,7 @@
         <v>40</v>
       </c>
       <c r="AH36" t="s">
-        <v>159</v>
+        <v>534</v>
       </c>
       <c r="AI36" t="s">
         <v>40</v>
@@ -6917,45 +6881,45 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s">
         <v>40</v>
       </c>
       <c r="AM36" t="s">
-        <v>197</v>
+        <v>556</v>
       </c>
       <c r="AN36" t="s">
-        <v>160</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>193</v>
       </c>
       <c r="F37">
-        <v>1933</v>
+        <v>1904</v>
       </c>
       <c r="G37" t="s">
-        <v>478</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
       </c>
       <c r="I37">
-        <v>3163</v>
+        <v>2985</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -6964,7 +6928,7 @@
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>479</v>
+        <v>195</v>
       </c>
       <c r="M37" t="s">
         <v>40</v>
@@ -6982,10 +6946,10 @@
         <v>40</v>
       </c>
       <c r="R37" t="s">
-        <v>510</v>
+        <v>186</v>
       </c>
       <c r="S37" t="s">
-        <v>481</v>
+        <v>196</v>
       </c>
       <c r="T37" t="s">
         <v>40</v>
@@ -7018,19 +6982,19 @@
         <v>40</v>
       </c>
       <c r="AD37" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="AE37" t="s">
         <v>40</v>
       </c>
       <c r="AF37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG37" t="s">
         <v>40</v>
       </c>
       <c r="AH37" t="s">
-        <v>482</v>
+        <v>189</v>
       </c>
       <c r="AI37" t="s">
         <v>40</v>
@@ -7039,45 +7003,45 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="s">
         <v>40</v>
       </c>
       <c r="AM37" t="s">
-        <v>483</v>
+        <v>197</v>
       </c>
       <c r="AN37" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="F38">
-        <v>1908</v>
+        <v>1975</v>
       </c>
       <c r="G38" t="s">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
       </c>
       <c r="I38">
-        <v>2749</v>
+        <v>3134</v>
       </c>
       <c r="J38" t="s">
         <v>40</v>
@@ -7086,7 +7050,7 @@
         <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>415</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s">
         <v>40</v>
@@ -7104,10 +7068,10 @@
         <v>40</v>
       </c>
       <c r="R38" t="s">
-        <v>416</v>
+        <v>156</v>
       </c>
       <c r="S38" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
       <c r="T38" t="s">
         <v>40</v>
@@ -7140,19 +7104,19 @@
         <v>40</v>
       </c>
       <c r="AD38" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AE38" t="s">
         <v>40</v>
       </c>
       <c r="AF38" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG38" t="s">
         <v>40</v>
       </c>
       <c r="AH38" t="s">
-        <v>418</v>
+        <v>159</v>
       </c>
       <c r="AI38" t="s">
         <v>40</v>
@@ -7167,39 +7131,39 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s">
-        <v>419</v>
+        <v>197</v>
       </c>
       <c r="AN38" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="E39" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F39">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>386</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
       </c>
       <c r="I39">
-        <v>2959</v>
+        <v>3328</v>
       </c>
       <c r="J39" t="s">
         <v>40</v>
@@ -7208,7 +7172,7 @@
         <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="M39" t="s">
         <v>40</v>
@@ -7226,10 +7190,10 @@
         <v>40</v>
       </c>
       <c r="R39" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="S39" t="s">
-        <v>167</v>
+        <v>388</v>
       </c>
       <c r="T39" t="s">
         <v>40</v>
@@ -7262,7 +7226,7 @@
         <v>40</v>
       </c>
       <c r="AD39" t="s">
-        <v>168</v>
+        <v>298</v>
       </c>
       <c r="AE39" t="s">
         <v>40</v>
@@ -7274,7 +7238,7 @@
         <v>40</v>
       </c>
       <c r="AH39" t="s">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="AI39" t="s">
         <v>40</v>
@@ -7283,16 +7247,16 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="s">
         <v>40</v>
       </c>
       <c r="AM39" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="AN39" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
@@ -7303,25 +7267,25 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="E40" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="F40">
-        <v>1944</v>
+        <v>1863</v>
       </c>
       <c r="G40" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
       </c>
       <c r="I40">
-        <v>2762</v>
+        <v>3318</v>
       </c>
       <c r="J40" t="s">
         <v>40</v>
@@ -7330,7 +7294,7 @@
         <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="M40" t="s">
         <v>40</v>
@@ -7348,10 +7312,10 @@
         <v>40</v>
       </c>
       <c r="R40" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="S40" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="T40" t="s">
         <v>40</v>
@@ -7384,19 +7348,19 @@
         <v>40</v>
       </c>
       <c r="AD40" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="AE40" t="s">
         <v>40</v>
       </c>
       <c r="AF40" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AG40" t="s">
         <v>40</v>
       </c>
       <c r="AH40" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="AI40" t="s">
         <v>40</v>
@@ -7411,39 +7375,39 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
       <c r="AN40" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F41">
-        <v>1908</v>
+        <v>1981</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
       </c>
       <c r="I41">
-        <v>2975</v>
+        <v>2872</v>
       </c>
       <c r="J41" t="s">
         <v>40</v>
@@ -7452,7 +7416,7 @@
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="M41" t="s">
         <v>40</v>
@@ -7470,10 +7434,10 @@
         <v>40</v>
       </c>
       <c r="R41" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="S41" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="T41" t="s">
         <v>40</v>
@@ -7506,17 +7470,20 @@
         <v>40</v>
       </c>
       <c r="AD41" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="AE41" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG41" t="s">
         <v>40</v>
       </c>
+      <c r="AH41" t="s">
+        <v>128</v>
+      </c>
       <c r="AI41" t="s">
         <v>40</v>
       </c>
@@ -7524,42 +7491,45 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s">
-        <v>67</v>
+        <v>562</v>
       </c>
       <c r="AL41" t="s">
         <v>40</v>
       </c>
+      <c r="AM41" t="s">
+        <v>129</v>
+      </c>
       <c r="AN41" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>517</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>518</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="E42" t="s">
-        <v>519</v>
+        <v>349</v>
       </c>
       <c r="F42">
-        <v>1838</v>
+        <v>1936</v>
       </c>
       <c r="G42" t="s">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
       </c>
       <c r="I42">
-        <v>3289</v>
+        <v>3247</v>
       </c>
       <c r="J42" t="s">
         <v>40</v>
@@ -7568,7 +7538,7 @@
         <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>521</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s">
         <v>40</v>
@@ -7586,10 +7556,10 @@
         <v>40</v>
       </c>
       <c r="R42" t="s">
-        <v>522</v>
+        <v>352</v>
       </c>
       <c r="S42" t="s">
-        <v>523</v>
+        <v>353</v>
       </c>
       <c r="T42" t="s">
         <v>40</v>
@@ -7628,13 +7598,13 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="AG42" t="s">
         <v>40</v>
       </c>
       <c r="AH42" t="s">
-        <v>524</v>
+        <v>354</v>
       </c>
       <c r="AI42" t="s">
         <v>40</v>
@@ -7646,42 +7616,42 @@
         <v>67</v>
       </c>
       <c r="AL42" t="s">
-        <v>40</v>
+        <v>561</v>
       </c>
       <c r="AM42" t="s">
-        <v>525</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s">
-        <v>518</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43">
-        <v>1926</v>
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
       </c>
       <c r="I43">
-        <v>2841</v>
+        <v>2734</v>
       </c>
       <c r="J43" t="s">
         <v>40</v>
@@ -7690,7 +7660,7 @@
         <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="M43" t="s">
         <v>40</v>
@@ -7708,10 +7678,10 @@
         <v>40</v>
       </c>
       <c r="R43" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s">
         <v>40</v>
@@ -7744,7 +7714,7 @@
         <v>40</v>
       </c>
       <c r="AD43" t="s">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="AE43" t="s">
         <v>40</v>
@@ -7756,7 +7726,7 @@
         <v>40</v>
       </c>
       <c r="AH43" t="s">
-        <v>88</v>
+        <v>531</v>
       </c>
       <c r="AI43" t="s">
         <v>40</v>
@@ -7765,42 +7735,45 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s">
         <v>40</v>
       </c>
+      <c r="AM43" t="s">
+        <v>546</v>
+      </c>
       <c r="AN43" t="s">
-        <v>89</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44">
-        <v>1926</v>
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
       </c>
       <c r="I44">
-        <v>3184</v>
+        <v>2735</v>
       </c>
       <c r="J44" t="s">
         <v>40</v>
@@ -7809,7 +7782,7 @@
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
         <v>40</v>
@@ -7827,10 +7800,10 @@
         <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s">
         <v>40</v>
@@ -7863,7 +7836,7 @@
         <v>40</v>
       </c>
       <c r="AD44" t="s">
-        <v>83</v>
+        <v>538</v>
       </c>
       <c r="AE44" t="s">
         <v>40</v>
@@ -7875,7 +7848,7 @@
         <v>40</v>
       </c>
       <c r="AH44" t="s">
-        <v>289</v>
+        <v>531</v>
       </c>
       <c r="AI44" t="s">
         <v>40</v>
@@ -7884,42 +7857,45 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s">
         <v>40</v>
       </c>
+      <c r="AM44" t="s">
+        <v>546</v>
+      </c>
       <c r="AN44" t="s">
-        <v>89</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45">
-        <v>1826</v>
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
       </c>
       <c r="I45">
-        <v>2814</v>
+        <v>2737</v>
       </c>
       <c r="J45" t="s">
         <v>40</v>
@@ -7928,7 +7904,7 @@
         <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
         <v>40</v>
@@ -7946,10 +7922,10 @@
         <v>40</v>
       </c>
       <c r="R45" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s">
         <v>40</v>
@@ -7982,7 +7958,7 @@
         <v>40</v>
       </c>
       <c r="AD45" t="s">
-        <v>73</v>
+        <v>540</v>
       </c>
       <c r="AE45" t="s">
         <v>40</v>
@@ -7994,7 +7970,7 @@
         <v>40</v>
       </c>
       <c r="AH45" t="s">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="AI45" t="s">
         <v>40</v>
@@ -8003,42 +7979,45 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s">
         <v>40</v>
       </c>
+      <c r="AM45" t="s">
+        <v>546</v>
+      </c>
       <c r="AN45" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
-      </c>
-      <c r="F46">
-        <v>1811</v>
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
       </c>
       <c r="I46">
-        <v>3197</v>
+        <v>2738</v>
       </c>
       <c r="J46" t="s">
         <v>40</v>
@@ -8047,7 +8026,7 @@
         <v>40</v>
       </c>
       <c r="L46" t="s">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="M46" t="s">
         <v>40</v>
@@ -8065,10 +8044,10 @@
         <v>40</v>
       </c>
       <c r="R46" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="S46" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s">
         <v>40</v>
@@ -8101,7 +8080,7 @@
         <v>40</v>
       </c>
       <c r="AD46" t="s">
-        <v>319</v>
+        <v>541</v>
       </c>
       <c r="AE46" t="s">
         <v>40</v>
@@ -8113,7 +8092,7 @@
         <v>40</v>
       </c>
       <c r="AH46" t="s">
-        <v>320</v>
+        <v>531</v>
       </c>
       <c r="AI46" t="s">
         <v>40</v>
@@ -8122,45 +8101,45 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s">
         <v>40</v>
       </c>
       <c r="AM46" t="s">
-        <v>321</v>
+        <v>546</v>
       </c>
       <c r="AN46" t="s">
-        <v>322</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47">
-        <v>1800</v>
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
       </c>
       <c r="I47">
-        <v>2927</v>
+        <v>2741</v>
       </c>
       <c r="J47" t="s">
         <v>40</v>
@@ -8169,7 +8148,7 @@
         <v>40</v>
       </c>
       <c r="L47" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="M47" t="s">
         <v>40</v>
@@ -8187,10 +8166,10 @@
         <v>40</v>
       </c>
       <c r="R47" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s">
         <v>40</v>
@@ -8223,19 +8202,19 @@
         <v>40</v>
       </c>
       <c r="AD47" t="s">
-        <v>137</v>
+        <v>545</v>
       </c>
       <c r="AE47" t="s">
-        <v>40</v>
+        <v>544</v>
       </c>
       <c r="AF47" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG47" t="s">
         <v>40</v>
       </c>
       <c r="AH47" t="s">
-        <v>138</v>
+        <v>536</v>
       </c>
       <c r="AI47" t="s">
         <v>40</v>
@@ -8244,45 +8223,45 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s">
         <v>40</v>
       </c>
       <c r="AM47" t="s">
-        <v>139</v>
+        <v>546</v>
       </c>
       <c r="AN47" t="s">
-        <v>140</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F48">
-        <v>1880</v>
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
       </c>
       <c r="I48">
-        <v>3235</v>
+        <v>2740</v>
       </c>
       <c r="J48" t="s">
         <v>40</v>
@@ -8291,7 +8270,7 @@
         <v>40</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="M48" t="s">
         <v>40</v>
@@ -8309,10 +8288,10 @@
         <v>40</v>
       </c>
       <c r="R48" t="s">
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="S48" t="s">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s">
         <v>40</v>
@@ -8345,7 +8324,7 @@
         <v>40</v>
       </c>
       <c r="AD48" t="s">
-        <v>343</v>
+        <v>543</v>
       </c>
       <c r="AE48" t="s">
         <v>40</v>
@@ -8357,7 +8336,7 @@
         <v>40</v>
       </c>
       <c r="AH48" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="AI48" t="s">
         <v>40</v>
@@ -8366,45 +8345,45 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s">
         <v>40</v>
       </c>
       <c r="AM48" t="s">
-        <v>345</v>
+        <v>557</v>
       </c>
       <c r="AN48" t="s">
-        <v>346</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="F49">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
       </c>
       <c r="I49">
-        <v>2984</v>
+        <v>3032</v>
       </c>
       <c r="J49" t="s">
         <v>40</v>
@@ -8413,7 +8392,7 @@
         <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s">
         <v>40</v>
@@ -8431,10 +8410,10 @@
         <v>40</v>
       </c>
       <c r="R49" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="S49" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="T49" t="s">
         <v>40</v>
@@ -8467,7 +8446,7 @@
         <v>40</v>
       </c>
       <c r="AD49" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AE49" t="s">
         <v>40</v>
@@ -8479,7 +8458,7 @@
         <v>40</v>
       </c>
       <c r="AH49" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AI49" t="s">
         <v>40</v>
@@ -8494,39 +8473,39 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AN49" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="F50">
-        <v>1904</v>
+        <v>1955</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="H50" t="s">
         <v>42</v>
       </c>
       <c r="I50">
-        <v>2985</v>
+        <v>3073</v>
       </c>
       <c r="J50" t="s">
         <v>40</v>
@@ -8535,7 +8514,7 @@
         <v>40</v>
       </c>
       <c r="L50" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s">
         <v>40</v>
@@ -8553,10 +8532,10 @@
         <v>40</v>
       </c>
       <c r="R50" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="S50" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="T50" t="s">
         <v>40</v>
@@ -8589,19 +8568,19 @@
         <v>40</v>
       </c>
       <c r="AD50" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="AE50" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AF50" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG50" t="s">
         <v>40</v>
       </c>
       <c r="AH50" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="AI50" t="s">
         <v>40</v>
@@ -8616,10 +8595,10 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="AN50" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
@@ -8627,28 +8606,28 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="F51">
-        <v>1912</v>
+        <v>1955</v>
       </c>
       <c r="G51" t="s">
-        <v>462</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
       </c>
       <c r="I51">
-        <v>3162</v>
+        <v>3263</v>
       </c>
       <c r="J51" t="s">
         <v>40</v>
@@ -8657,7 +8636,7 @@
         <v>40</v>
       </c>
       <c r="L51" t="s">
-        <v>463</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s">
         <v>40</v>
@@ -8675,10 +8654,10 @@
         <v>40</v>
       </c>
       <c r="R51" t="s">
-        <v>507</v>
+        <v>368</v>
       </c>
       <c r="S51" t="s">
-        <v>465</v>
+        <v>262</v>
       </c>
       <c r="T51" t="s">
         <v>40</v>
@@ -8711,19 +8690,19 @@
         <v>40</v>
       </c>
       <c r="AD51" t="s">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AE51" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AG51" t="s">
         <v>40</v>
       </c>
       <c r="AH51" t="s">
-        <v>508</v>
+        <v>265</v>
       </c>
       <c r="AI51" t="s">
         <v>40</v>
@@ -8738,10 +8717,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="AN51" t="s">
-        <v>506</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
@@ -8749,28 +8728,28 @@
         <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="F52">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
       </c>
       <c r="I52">
-        <v>2774</v>
+        <v>3330</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
@@ -8779,7 +8758,7 @@
         <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s">
         <v>40</v>
@@ -8797,10 +8776,10 @@
         <v>40</v>
       </c>
       <c r="R52" t="s">
-        <v>464</v>
+        <v>261</v>
       </c>
       <c r="S52" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
       <c r="T52" t="s">
         <v>40</v>
@@ -8833,19 +8812,19 @@
         <v>40</v>
       </c>
       <c r="AD52" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AE52" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AF52" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AG52" t="s">
         <v>40</v>
       </c>
       <c r="AH52" t="s">
-        <v>466</v>
+        <v>265</v>
       </c>
       <c r="AI52" t="s">
         <v>40</v>
@@ -8860,10 +8839,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="AN52" t="s">
-        <v>461</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
@@ -8871,28 +8850,28 @@
         <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>390</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c r="F53">
-        <v>1947</v>
+        <v>1896</v>
       </c>
       <c r="G53" t="s">
-        <v>277</v>
+        <v>392</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
       </c>
       <c r="I53">
-        <v>3145</v>
+        <v>3357</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
@@ -8901,7 +8880,7 @@
         <v>40</v>
       </c>
       <c r="L53" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s">
         <v>40</v>
@@ -8919,10 +8898,10 @@
         <v>40</v>
       </c>
       <c r="R53" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="S53" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="T53" t="s">
         <v>40</v>
@@ -8955,19 +8934,19 @@
         <v>40</v>
       </c>
       <c r="AD53" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="AE53" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG53" t="s">
         <v>40</v>
       </c>
       <c r="AH53" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AI53" t="s">
         <v>40</v>
@@ -8982,39 +8961,39 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AN53" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>1907</v>
+        <v>1923</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
       </c>
       <c r="I54">
-        <v>3230</v>
+        <v>2860</v>
       </c>
       <c r="J54" t="s">
         <v>40</v>
@@ -9023,7 +9002,7 @@
         <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
@@ -9041,10 +9020,10 @@
         <v>40</v>
       </c>
       <c r="R54" t="s">
-        <v>565</v>
+        <v>114</v>
       </c>
       <c r="S54" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="T54" t="s">
         <v>40</v>
@@ -9077,16 +9056,19 @@
         <v>40</v>
       </c>
       <c r="AD54" t="s">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="AE54" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF54" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="s">
         <v>40</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>117</v>
       </c>
       <c r="AI54" t="s">
         <v>40</v>
@@ -9100,37 +9082,40 @@
       <c r="AL54" t="s">
         <v>40</v>
       </c>
+      <c r="AM54" t="s">
+        <v>118</v>
+      </c>
       <c r="AN54" t="s">
-        <v>334</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>397</v>
+        <v>183</v>
       </c>
       <c r="F55">
-        <v>1925</v>
+        <v>1914</v>
       </c>
       <c r="G55" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
       </c>
       <c r="I55">
-        <v>2743</v>
+        <v>2770</v>
       </c>
       <c r="J55" t="s">
         <v>40</v>
@@ -9139,7 +9124,7 @@
         <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s">
         <v>40</v>
@@ -9157,10 +9142,10 @@
         <v>40</v>
       </c>
       <c r="R55" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="S55" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="T55" t="s">
         <v>40</v>
@@ -9205,7 +9190,7 @@
         <v>40</v>
       </c>
       <c r="AH55" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="AI55" t="s">
         <v>40</v>
@@ -9214,13 +9199,16 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="AL55" t="s">
         <v>40</v>
       </c>
+      <c r="AM55" t="s">
+        <v>460</v>
+      </c>
       <c r="AN55" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
@@ -9228,28 +9216,28 @@
         <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>396</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="F56">
-        <v>1856</v>
+        <v>1902</v>
       </c>
       <c r="G56" t="s">
-        <v>421</v>
+        <v>202</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
       </c>
       <c r="I56">
-        <v>2752</v>
+        <v>3007</v>
       </c>
       <c r="J56" t="s">
         <v>40</v>
@@ -9258,7 +9246,7 @@
         <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>203</v>
       </c>
       <c r="M56" t="s">
         <v>40</v>
@@ -9276,10 +9264,10 @@
         <v>40</v>
       </c>
       <c r="R56" t="s">
-        <v>423</v>
+        <v>204</v>
       </c>
       <c r="S56" t="s">
-        <v>424</v>
+        <v>205</v>
       </c>
       <c r="T56" t="s">
         <v>40</v>
@@ -9312,19 +9300,19 @@
         <v>40</v>
       </c>
       <c r="AD56" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AE56" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AF56" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AG56" t="s">
         <v>40</v>
       </c>
       <c r="AH56" t="s">
-        <v>425</v>
+        <v>207</v>
       </c>
       <c r="AI56" t="s">
         <v>40</v>
@@ -9333,42 +9321,45 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="AL56" t="s">
         <v>40</v>
       </c>
+      <c r="AM56" t="s">
+        <v>208</v>
+      </c>
       <c r="AN56" t="s">
-        <v>396</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>491</v>
+        <v>163</v>
       </c>
       <c r="F57">
-        <v>1833</v>
+        <v>1909</v>
       </c>
       <c r="G57" t="s">
-        <v>492</v>
+        <v>164</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
       </c>
       <c r="I57">
-        <v>3158</v>
+        <v>2959</v>
       </c>
       <c r="J57" t="s">
         <v>40</v>
@@ -9377,7 +9368,7 @@
         <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s">
         <v>40</v>
@@ -9395,10 +9386,10 @@
         <v>40</v>
       </c>
       <c r="R57" t="s">
-        <v>494</v>
+        <v>166</v>
       </c>
       <c r="S57" t="s">
-        <v>495</v>
+        <v>167</v>
       </c>
       <c r="T57" t="s">
         <v>40</v>
@@ -9431,19 +9422,19 @@
         <v>40</v>
       </c>
       <c r="AD57" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AE57" t="s">
         <v>40</v>
       </c>
       <c r="AF57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG57" t="s">
         <v>40</v>
       </c>
       <c r="AH57" t="s">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="AI57" t="s">
         <v>40</v>
@@ -9452,42 +9443,45 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s">
-        <v>403</v>
+        <v>563</v>
       </c>
       <c r="AL57" t="s">
         <v>40</v>
       </c>
+      <c r="AM57" t="s">
+        <v>170</v>
+      </c>
       <c r="AN57" t="s">
-        <v>396</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="F58">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
       </c>
       <c r="I58">
-        <v>3007</v>
+        <v>3254</v>
       </c>
       <c r="J58" t="s">
         <v>40</v>
@@ -9496,7 +9490,7 @@
         <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="M58" t="s">
         <v>40</v>
@@ -9514,10 +9508,10 @@
         <v>40</v>
       </c>
       <c r="R58" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="S58" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="T58" t="s">
         <v>40</v>
@@ -9550,10 +9544,10 @@
         <v>40</v>
       </c>
       <c r="AD58" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="AF58" t="s">
         <v>65</v>
@@ -9562,7 +9556,7 @@
         <v>40</v>
       </c>
       <c r="AH58" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="AI58" t="s">
         <v>40</v>
@@ -9571,45 +9565,45 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s">
-        <v>67</v>
+        <v>563</v>
       </c>
       <c r="AL58" t="s">
         <v>40</v>
       </c>
       <c r="AM58" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="AN58" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>428</v>
       </c>
       <c r="F59">
-        <v>1905</v>
+        <v>1957</v>
       </c>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>429</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
       </c>
       <c r="I59">
-        <v>3013</v>
+        <v>2758</v>
       </c>
       <c r="J59" t="s">
         <v>40</v>
@@ -9618,7 +9612,7 @@
         <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>213</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s">
         <v>40</v>
@@ -9636,10 +9630,10 @@
         <v>40</v>
       </c>
       <c r="R59" t="s">
-        <v>561</v>
+        <v>431</v>
       </c>
       <c r="S59" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
       <c r="T59" t="s">
         <v>40</v>
@@ -9672,16 +9666,19 @@
         <v>40</v>
       </c>
       <c r="AD59" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s">
         <v>40</v>
       </c>
       <c r="AF59" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG59" t="s">
         <v>40</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>433</v>
       </c>
       <c r="AI59" t="s">
         <v>40</v>
@@ -9695,8 +9692,11 @@
       <c r="AL59" t="s">
         <v>40</v>
       </c>
+      <c r="AM59" t="s">
+        <v>28</v>
+      </c>
       <c r="AN59" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
@@ -9707,25 +9707,25 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="F60">
-        <v>1933</v>
+        <v>1944</v>
       </c>
       <c r="G60" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
       </c>
       <c r="I60">
-        <v>3288</v>
+        <v>2762</v>
       </c>
       <c r="J60" t="s">
         <v>40</v>
@@ -9734,7 +9734,7 @@
         <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s">
         <v>40</v>
@@ -9752,10 +9752,10 @@
         <v>40</v>
       </c>
       <c r="R60" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="S60" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="T60" t="s">
         <v>40</v>
@@ -9794,13 +9794,13 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AG60" t="s">
         <v>40</v>
       </c>
       <c r="AH60" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="AI60" t="s">
         <v>40</v>
@@ -9809,16 +9809,16 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s">
-        <v>403</v>
+        <v>67</v>
       </c>
       <c r="AL60" t="s">
         <v>40</v>
       </c>
       <c r="AM60" t="s">
-        <v>483</v>
+        <v>28</v>
       </c>
       <c r="AN60" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
@@ -9829,25 +9829,25 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>428</v>
       </c>
       <c r="F61">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="G61" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
       </c>
       <c r="I61">
-        <v>3153</v>
+        <v>3159</v>
       </c>
       <c r="J61" t="s">
         <v>40</v>
@@ -9856,7 +9856,7 @@
         <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s">
         <v>40</v>
@@ -9874,10 +9874,10 @@
         <v>40</v>
       </c>
       <c r="R61" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="S61" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="T61" t="s">
         <v>40</v>
@@ -9916,13 +9916,13 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AG61" t="s">
         <v>40</v>
       </c>
       <c r="AH61" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AI61" t="s">
         <v>40</v>
@@ -9931,45 +9931,45 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL61" t="s">
         <v>40</v>
       </c>
       <c r="AM61" t="s">
-        <v>490</v>
+        <v>28</v>
       </c>
       <c r="AN61" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="F62">
-        <v>1936</v>
+        <v>1908</v>
       </c>
       <c r="G62" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
       </c>
       <c r="I62">
-        <v>3283</v>
+        <v>2749</v>
       </c>
       <c r="J62" t="s">
         <v>40</v>
@@ -9978,7 +9978,7 @@
         <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s">
         <v>40</v>
@@ -9996,10 +9996,10 @@
         <v>40</v>
       </c>
       <c r="R62" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="S62" t="s">
-        <v>488</v>
+        <v>417</v>
       </c>
       <c r="T62" t="s">
         <v>40</v>
@@ -10038,13 +10038,13 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AG62" t="s">
         <v>40</v>
       </c>
       <c r="AH62" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="AI62" t="s">
         <v>40</v>
@@ -10053,45 +10053,45 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL62" t="s">
         <v>40</v>
       </c>
       <c r="AM62" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="AN62" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>468</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="F63">
-        <v>1898</v>
+        <v>1915</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
       </c>
       <c r="I63">
-        <v>3048</v>
+        <v>2776</v>
       </c>
       <c r="J63" t="s">
         <v>40</v>
@@ -10100,7 +10100,7 @@
         <v>40</v>
       </c>
       <c r="L63" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s">
         <v>40</v>
@@ -10118,10 +10118,10 @@
         <v>40</v>
       </c>
       <c r="R63" t="s">
-        <v>242</v>
+        <v>472</v>
       </c>
       <c r="S63" t="s">
-        <v>243</v>
+        <v>473</v>
       </c>
       <c r="T63" t="s">
         <v>40</v>
@@ -10154,19 +10154,19 @@
         <v>40</v>
       </c>
       <c r="AD63" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AE63" t="s">
         <v>40</v>
       </c>
       <c r="AF63" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG63" t="s">
         <v>40</v>
       </c>
       <c r="AH63" t="s">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="AI63" t="s">
         <v>40</v>
@@ -10175,42 +10175,45 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL63" t="s">
         <v>40</v>
       </c>
+      <c r="AM63" t="s">
+        <v>475</v>
+      </c>
       <c r="AN63" t="s">
-        <v>246</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="F64">
-        <v>1930</v>
+        <v>1947</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="H64" t="s">
         <v>42</v>
       </c>
       <c r="I64">
-        <v>3032</v>
+        <v>3145</v>
       </c>
       <c r="J64" t="s">
         <v>40</v>
@@ -10219,7 +10222,7 @@
         <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="M64" t="s">
         <v>40</v>
@@ -10237,10 +10240,10 @@
         <v>40</v>
       </c>
       <c r="R64" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="S64" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="T64" t="s">
         <v>40</v>
@@ -10273,7 +10276,7 @@
         <v>40</v>
       </c>
       <c r="AD64" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="AE64" t="s">
         <v>40</v>
@@ -10285,7 +10288,7 @@
         <v>40</v>
       </c>
       <c r="AH64" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="AI64" t="s">
         <v>40</v>
@@ -10300,39 +10303,39 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="AN64" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>461</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="F65">
+        <v>1912</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>462</v>
       </c>
       <c r="H65" t="s">
         <v>42</v>
       </c>
       <c r="I65">
-        <v>2736</v>
+        <v>2774</v>
       </c>
       <c r="J65" t="s">
         <v>40</v>
@@ -10341,7 +10344,7 @@
         <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s">
         <v>40</v>
@@ -10359,10 +10362,10 @@
         <v>40</v>
       </c>
       <c r="R65" t="s">
-        <v>543</v>
+        <v>464</v>
       </c>
       <c r="S65" t="s">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="T65" t="s">
         <v>40</v>
@@ -10395,19 +10398,19 @@
         <v>40</v>
       </c>
       <c r="AD65" t="s">
-        <v>557</v>
+        <v>40</v>
       </c>
       <c r="AE65" t="s">
         <v>40</v>
       </c>
       <c r="AF65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG65" t="s">
         <v>40</v>
       </c>
       <c r="AH65" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="AI65" t="s">
         <v>40</v>
@@ -10416,42 +10419,45 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL65" t="s">
         <v>40</v>
       </c>
       <c r="AM65" t="s">
-        <v>532</v>
+        <v>467</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="D66" t="s">
         <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="F66">
+        <v>1912</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>462</v>
       </c>
       <c r="H66" t="s">
         <v>42</v>
       </c>
       <c r="I66">
-        <v>2739</v>
+        <v>3162</v>
       </c>
       <c r="J66" t="s">
         <v>40</v>
@@ -10460,7 +10466,7 @@
         <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>40</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s">
         <v>40</v>
@@ -10478,10 +10484,10 @@
         <v>40</v>
       </c>
       <c r="R66" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="S66" t="s">
-        <v>40</v>
+        <v>465</v>
       </c>
       <c r="T66" t="s">
         <v>40</v>
@@ -10514,19 +10520,19 @@
         <v>40</v>
       </c>
       <c r="AD66" t="s">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="AE66" t="s">
         <v>40</v>
       </c>
       <c r="AF66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG66" t="s">
         <v>40</v>
       </c>
       <c r="AH66" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="AI66" t="s">
         <v>40</v>
@@ -10535,42 +10541,45 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL66" t="s">
         <v>40</v>
       </c>
       <c r="AM66" t="s">
-        <v>533</v>
+        <v>467</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>549</v>
+        <v>434</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>40</v>
+        <v>435</v>
+      </c>
+      <c r="F67">
+        <v>1880</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="H67" t="s">
         <v>42</v>
       </c>
       <c r="I67">
-        <v>2734</v>
+        <v>2760</v>
       </c>
       <c r="J67" t="s">
         <v>40</v>
@@ -10579,7 +10588,7 @@
         <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>40</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s">
         <v>40</v>
@@ -10597,10 +10606,10 @@
         <v>40</v>
       </c>
       <c r="R67" t="s">
-        <v>541</v>
+        <v>438</v>
       </c>
       <c r="S67" t="s">
-        <v>40</v>
+        <v>439</v>
       </c>
       <c r="T67" t="s">
         <v>40</v>
@@ -10633,19 +10642,19 @@
         <v>40</v>
       </c>
       <c r="AD67" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="s">
         <v>40</v>
       </c>
       <c r="AF67" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG67" t="s">
         <v>40</v>
       </c>
       <c r="AH67" t="s">
-        <v>535</v>
+        <v>440</v>
       </c>
       <c r="AI67" t="s">
         <v>40</v>
@@ -10654,42 +10663,45 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL67" t="s">
         <v>40</v>
       </c>
       <c r="AM67" t="s">
-        <v>531</v>
+        <v>441</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s">
-        <v>40</v>
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>1906</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>501</v>
       </c>
       <c r="H68" t="s">
         <v>42</v>
       </c>
       <c r="I68">
-        <v>2735</v>
+        <v>3161</v>
       </c>
       <c r="J68" t="s">
         <v>40</v>
@@ -10698,7 +10710,7 @@
         <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="M68" t="s">
         <v>40</v>
@@ -10716,10 +10728,10 @@
         <v>40</v>
       </c>
       <c r="R68" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="S68" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="T68" t="s">
         <v>40</v>
@@ -10752,19 +10764,19 @@
         <v>40</v>
       </c>
       <c r="AD68" t="s">
-        <v>556</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="s">
         <v>40</v>
       </c>
       <c r="AF68" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG68" t="s">
         <v>40</v>
       </c>
       <c r="AH68" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="AI68" t="s">
         <v>40</v>
@@ -10773,42 +10785,45 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL68" t="s">
         <v>40</v>
       </c>
       <c r="AM68" t="s">
-        <v>531</v>
+        <v>441</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>499</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s">
-        <v>40</v>
+        <v>500</v>
+      </c>
+      <c r="F69">
+        <v>1906</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>501</v>
       </c>
       <c r="H69" t="s">
         <v>42</v>
       </c>
       <c r="I69">
-        <v>2737</v>
+        <v>3287</v>
       </c>
       <c r="J69" t="s">
         <v>40</v>
@@ -10817,7 +10832,7 @@
         <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
@@ -10835,10 +10850,10 @@
         <v>40</v>
       </c>
       <c r="R69" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="S69" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="T69" t="s">
         <v>40</v>
@@ -10871,19 +10886,19 @@
         <v>40</v>
       </c>
       <c r="AD69" t="s">
-        <v>558</v>
+        <v>40</v>
       </c>
       <c r="AE69" t="s">
         <v>40</v>
       </c>
       <c r="AF69" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG69" t="s">
         <v>40</v>
       </c>
       <c r="AH69" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="AI69" t="s">
         <v>40</v>
@@ -10892,42 +10907,45 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL69" t="s">
         <v>40</v>
       </c>
       <c r="AM69" t="s">
-        <v>531</v>
+        <v>441</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>513</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="D70" t="s">
         <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s">
-        <v>40</v>
+        <v>491</v>
+      </c>
+      <c r="F70">
+        <v>1833</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>492</v>
       </c>
       <c r="H70" t="s">
         <v>42</v>
       </c>
       <c r="I70">
-        <v>2738</v>
+        <v>3339</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
@@ -10936,7 +10954,7 @@
         <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>40</v>
+        <v>493</v>
       </c>
       <c r="M70" t="s">
         <v>40</v>
@@ -10954,10 +10972,10 @@
         <v>40</v>
       </c>
       <c r="R70" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="S70" t="s">
-        <v>40</v>
+        <v>495</v>
       </c>
       <c r="T70" t="s">
         <v>40</v>
@@ -10990,19 +11008,19 @@
         <v>40</v>
       </c>
       <c r="AD70" t="s">
-        <v>554</v>
+        <v>40</v>
       </c>
       <c r="AE70" t="s">
         <v>40</v>
       </c>
       <c r="AF70" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG70" t="s">
         <v>40</v>
       </c>
       <c r="AH70" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AI70" t="s">
         <v>40</v>
@@ -11011,42 +11029,45 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL70" t="s">
         <v>40</v>
       </c>
       <c r="AM70" t="s">
-        <v>531</v>
+        <v>441</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>526</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s">
-        <v>40</v>
+        <v>500</v>
+      </c>
+      <c r="F71">
+        <v>1906</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>501</v>
       </c>
       <c r="H71" t="s">
         <v>42</v>
       </c>
       <c r="I71">
-        <v>2741</v>
+        <v>3340</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
@@ -11055,7 +11076,7 @@
         <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s">
         <v>40</v>
@@ -11073,10 +11094,10 @@
         <v>40</v>
       </c>
       <c r="R71" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="S71" t="s">
-        <v>40</v>
+        <v>504</v>
       </c>
       <c r="T71" t="s">
         <v>40</v>
@@ -11109,19 +11130,19 @@
         <v>40</v>
       </c>
       <c r="AD71" t="s">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="AE71" t="s">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="AF71" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AG71" t="s">
         <v>40</v>
       </c>
       <c r="AH71" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="AI71" t="s">
         <v>40</v>
@@ -11130,42 +11151,45 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL71" t="s">
         <v>40</v>
       </c>
       <c r="AM71" t="s">
-        <v>531</v>
+        <v>441</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s">
-        <v>40</v>
+        <v>193</v>
+      </c>
+      <c r="F72">
+        <v>1907</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="H72" t="s">
         <v>42</v>
       </c>
       <c r="I72">
-        <v>2740</v>
+        <v>3230</v>
       </c>
       <c r="J72" t="s">
         <v>40</v>
@@ -11174,7 +11198,7 @@
         <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="M72" t="s">
         <v>40</v>
@@ -11192,10 +11216,10 @@
         <v>40</v>
       </c>
       <c r="R72" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="S72" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="T72" t="s">
         <v>40</v>
@@ -11228,7 +11252,7 @@
         <v>40</v>
       </c>
       <c r="AD72" t="s">
-        <v>552</v>
+        <v>336</v>
       </c>
       <c r="AE72" t="s">
         <v>40</v>
@@ -11239,9 +11263,6 @@
       <c r="AG72" t="s">
         <v>40</v>
       </c>
-      <c r="AH72" t="s">
-        <v>539</v>
-      </c>
       <c r="AI72" t="s">
         <v>40</v>
       </c>
@@ -11249,16 +11270,19 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL72" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" t="s">
-        <v>534</v>
+      <c r="AN72" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN73">
+    <sortCondition ref="AM2:AM73"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A00C852-475B-4495-A5AF-FF6AB2018626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A5423B-B737-4F73-9E2D-4843CC07FFDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="582">
   <si>
     <t>family</t>
   </si>
@@ -631,7 +631,7 @@
     <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958 (see Beaucournu, 2013)</t>
   </si>
   <si>
-    <t>Lewis2453</t>
+    <t>Lewis2452</t>
   </si>
   <si>
     <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958</t>
@@ -661,7 +661,7 @@
     <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
   </si>
   <si>
-    <t>Lewis2533</t>
+    <t>Lewis2532</t>
   </si>
   <si>
     <t>Thrassis howelli</t>
@@ -685,7 +685,7 @@
     <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
   </si>
   <si>
-    <t>Lewis2710</t>
+    <t>Lewis2709</t>
   </si>
   <si>
     <t>Xenopsylla skrjabini Ioff, 1928</t>
@@ -856,7 +856,7 @@
     <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 (suppressed by ICZN)</t>
   </si>
   <si>
-    <t>Lewis2315</t>
+    <t>Lewis2314</t>
   </si>
   <si>
     <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946</t>
@@ -1021,7 +1021,7 @@
     <t>Rhadinopsylla isacantha continentalis Smit, 1957; Rhadinopsylla pitymydis (Zavattari, 1914)</t>
   </si>
   <si>
-    <t>Lewis2308</t>
+    <t>Lewis2307</t>
   </si>
   <si>
     <t>Rhadinopsylla pitymydis</t>
@@ -1033,6 +1033,24 @@
     <t>pitymydis</t>
   </si>
   <si>
+    <t>sectilis</t>
+  </si>
+  <si>
+    <t>Micropsylla peromyscus Dunn, 1923; Rhadinopsylla sectilis goodi (Hubbard, 1941)</t>
+  </si>
+  <si>
+    <t>Lewis2332</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla sectilis goodi</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla sectilis Jordan &amp; Rothschild, 1923</t>
+  </si>
+  <si>
+    <t>goodi</t>
+  </si>
+  <si>
     <t>pallidus</t>
   </si>
   <si>
@@ -1042,7 +1060,7 @@
     <t>Synosternus pallidus infestus Wagner, 1933; Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
   </si>
   <si>
-    <t>Lewis2511</t>
+    <t>Lewis2510</t>
   </si>
   <si>
     <t>Pulex witherbyi Rothschild</t>
@@ -1159,7 +1177,7 @@
     <t>Ceratophyllus uralensis Wagner, 1898; Ctenonotus octodecimdentata octodecimdentata Kolenati 1863; Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
   </si>
   <si>
-    <t>Lewis2515</t>
+    <t>Lewis2514</t>
   </si>
   <si>
     <t>Opisodasys jellisoni I. Fox, 1941</t>
@@ -1411,7 +1429,7 @@
     <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus); Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
   </si>
   <si>
-    <t>Lewis2345</t>
+    <t>Lewis2344</t>
   </si>
   <si>
     <t>Rectofrontia Wagner, 1930</t>
@@ -1435,7 +1453,7 @@
     <t>Miochaeta Good, 1942 (sunken subgenus)</t>
   </si>
   <si>
-    <t>Lewis2428</t>
+    <t>Lewis2427</t>
   </si>
   <si>
     <t>Miochaeta Good, 1942</t>
@@ -1459,7 +1477,7 @@
     <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis); Pandoropsylla Stark, 1970 (junior synonym of Thrassis); Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
   </si>
   <si>
-    <t>Lewis2544</t>
+    <t>Lewis2543</t>
   </si>
   <si>
     <t>Nomadopsylla Stark, 1970</t>
@@ -1585,7 +1603,7 @@
     <t>Dermatophilus Guérin, 1840; Dermatophylus Lucas, 1839; Psammodes Gistel 1850 (1847?); Rhynchoprion Karsten, 1864; Sarcophaga Westwood, 1840</t>
   </si>
   <si>
-    <t>Lewis2592</t>
+    <t>Lewis2591</t>
   </si>
   <si>
     <t>Psammodes Gistel 1850</t>
@@ -1615,22 +1633,91 @@
     <t>Hexanycteropsylla Ioff, 1953</t>
   </si>
   <si>
-    <t>Sutemin, 1969</t>
-  </si>
-  <si>
-    <t>Curt., [1829]</t>
-  </si>
-  <si>
-    <t>Suteminn, 1969</t>
-  </si>
-  <si>
-    <t>Kirby, 1837</t>
-  </si>
-  <si>
-    <t>Westwood, 1858</t>
-  </si>
-  <si>
-    <t>Alpinus, 1874</t>
+    <t>Amalaraeus fossoris</t>
+  </si>
+  <si>
+    <t>Amalaraeus sugitanii</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus flavus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus nepalensis</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>Pulex imperator</t>
+  </si>
+  <si>
+    <t>Pulex terrestris ferox</t>
+  </si>
+  <si>
+    <t>Amalaraeus fossoris Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Amalaraeus sugitanii Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni Curt., [1829]</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus flavus Suteminn, 1969</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus nepalensis Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Pulex imperator Westwood, 1858</t>
+  </si>
+  <si>
+    <t>Pulex terrestris ferox Alpinus, 1874</t>
+  </si>
+  <si>
+    <t>Lewis2733</t>
+  </si>
+  <si>
+    <t>Lewis2734</t>
+  </si>
+  <si>
+    <t>Lewis2735</t>
+  </si>
+  <si>
+    <t>Lewis2736</t>
+  </si>
+  <si>
+    <t>Lewis2737</t>
+  </si>
+  <si>
+    <t>Lewis2738</t>
+  </si>
+  <si>
+    <t>Lewis2739</t>
+  </si>
+  <si>
+    <t>Lewis2740</t>
+  </si>
+  <si>
+    <t>nomina ex phantasia</t>
+  </si>
+  <si>
+    <t>cited in Dale, 1878, but no associated valid species</t>
+  </si>
+  <si>
+    <t>likely a species of Hystrichopsylla</t>
+  </si>
+  <si>
+    <t>non-flea</t>
+  </si>
+  <si>
+    <t>Amalaraeus</t>
   </si>
   <si>
     <t>fossoris</t>
@@ -1660,40 +1747,7 @@
     <t>terrestris</t>
   </si>
   <si>
-    <t>nomina ex phantasia</t>
-  </si>
-  <si>
-    <t>Amalaraeus fossoris</t>
-  </si>
-  <si>
-    <t>Amalaraeus sugitanii</t>
-  </si>
-  <si>
-    <t>cited in Dale, 1878, but no associated valid species</t>
-  </si>
-  <si>
-    <t>Ceratophyllus sterni</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus flavus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus nepalensis</t>
-  </si>
-  <si>
-    <t>Pulex gigas</t>
-  </si>
-  <si>
-    <t>Pulex imperator</t>
-  </si>
-  <si>
-    <t>Pulex terrestris ferox</t>
-  </si>
-  <si>
-    <t>likely a species of Hystrichopsylla</t>
-  </si>
-  <si>
-    <t>non-flea</t>
+    <t>Rhadinopsylla sectilis goodi (Hubbard, 1941)</t>
   </si>
   <si>
     <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
@@ -1703,9 +1757,6 @@
   </si>
   <si>
     <t>Thrassis howelli (Jordan, 1933)</t>
-  </si>
-  <si>
-    <t>nomen novum</t>
   </si>
   <si>
     <t>misapplication</t>
@@ -2555,13 +2606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN61" sqref="AN61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="39" max="39" width="100.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
@@ -2688,31 +2741,31 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F2">
         <v>1838</v>
       </c>
       <c r="G2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H2" t="s">
         <v>42</v>
       </c>
       <c r="I2">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -2721,7 +2774,7 @@
         <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
@@ -2739,10 +2792,10 @@
         <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="S2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="T2" t="s">
         <v>40</v>
@@ -2787,7 +2840,7 @@
         <v>40</v>
       </c>
       <c r="AH2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AI2" t="s">
         <v>40</v>
@@ -2802,10 +2855,10 @@
         <v>40</v>
       </c>
       <c r="AM2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AN2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
@@ -2816,7 +2869,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -2834,7 +2887,7 @@
         <v>42</v>
       </c>
       <c r="I3">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -2843,7 +2896,7 @@
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>555</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
@@ -2861,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="S3" t="s">
         <v>40</v>
@@ -2897,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="AD3" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="AE3" t="s">
         <v>40</v>
@@ -2909,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="AH3" t="s">
-        <v>532</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s">
         <v>40</v>
@@ -2924,10 +2977,10 @@
         <v>40</v>
       </c>
       <c r="AM3" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="AN3" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
@@ -2956,7 +3009,7 @@
         <v>42</v>
       </c>
       <c r="I4">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -3078,7 +3131,7 @@
         <v>42</v>
       </c>
       <c r="I5">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -3200,7 +3253,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -3322,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="I7">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -3444,7 +3497,7 @@
         <v>42</v>
       </c>
       <c r="I8">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -3542,31 +3595,31 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="F9">
-        <v>1935</v>
+        <v>1923</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
       </c>
       <c r="I9">
-        <v>3195</v>
+        <v>3230</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
@@ -3575,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M9" t="s">
         <v>40</v>
@@ -3593,10 +3646,10 @@
         <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>306</v>
+        <v>575</v>
       </c>
       <c r="S9" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="T9" t="s">
         <v>40</v>
@@ -3629,19 +3682,16 @@
         <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="AE9" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="AF9" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="s">
         <v>40</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>309</v>
       </c>
       <c r="AI9" t="s">
         <v>40</v>
@@ -3655,40 +3705,37 @@
       <c r="AL9" t="s">
         <v>40</v>
       </c>
-      <c r="AM9" t="s">
-        <v>310</v>
-      </c>
       <c r="AN9" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="F10">
-        <v>1880</v>
+        <v>1935</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
       </c>
       <c r="I10">
-        <v>3235</v>
+        <v>3194</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
@@ -3697,7 +3744,7 @@
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="M10" t="s">
         <v>40</v>
@@ -3715,10 +3762,10 @@
         <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="S10" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="T10" t="s">
         <v>40</v>
@@ -3751,7 +3798,7 @@
         <v>40</v>
       </c>
       <c r="AD10" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="AE10" t="s">
         <v>40</v>
@@ -3763,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="AI10" t="s">
         <v>40</v>
@@ -3778,39 +3825,39 @@
         <v>40</v>
       </c>
       <c r="AM10" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AN10" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="F11">
-        <v>1895</v>
+        <v>1880</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
       </c>
       <c r="I11">
-        <v>3216</v>
+        <v>3235</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -3819,7 +3866,7 @@
         <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
@@ -3837,10 +3884,10 @@
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>558</v>
+        <v>347</v>
       </c>
       <c r="S11" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="T11" t="s">
         <v>40</v>
@@ -3873,16 +3920,19 @@
         <v>40</v>
       </c>
       <c r="AD11" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AE11" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="s">
         <v>40</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>350</v>
       </c>
       <c r="AI11" t="s">
         <v>40</v>
@@ -3896,8 +3946,11 @@
       <c r="AL11" t="s">
         <v>40</v>
       </c>
+      <c r="AM11" t="s">
+        <v>351</v>
+      </c>
       <c r="AN11" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
@@ -3911,22 +3964,22 @@
         <v>323</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="F12">
-        <v>1916</v>
+        <v>1895</v>
       </c>
       <c r="G12" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
       </c>
       <c r="I12">
-        <v>3312</v>
+        <v>3215</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
@@ -3935,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="M12" t="s">
         <v>40</v>
@@ -3953,10 +4006,10 @@
         <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="S12" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="T12" t="s">
         <v>40</v>
@@ -4024,25 +4077,25 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F13">
-        <v>1929</v>
+        <v>1916</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
       </c>
       <c r="I13">
-        <v>2940</v>
+        <v>3311</v>
       </c>
       <c r="J13" t="s">
         <v>40</v>
@@ -4051,7 +4104,7 @@
         <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="M13" t="s">
         <v>40</v>
@@ -4069,10 +4122,10 @@
         <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>380</v>
+        <v>576</v>
       </c>
       <c r="S13" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="T13" t="s">
         <v>40</v>
@@ -4105,10 +4158,10 @@
         <v>40</v>
       </c>
       <c r="AD13" t="s">
-        <v>147</v>
+        <v>324</v>
       </c>
       <c r="AE13" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="AF13" t="s">
         <v>65</v>
@@ -4116,9 +4169,6 @@
       <c r="AG13" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" t="s">
-        <v>148</v>
-      </c>
       <c r="AI13" t="s">
         <v>40</v>
       </c>
@@ -4131,11 +4181,8 @@
       <c r="AL13" t="s">
         <v>40</v>
       </c>
-      <c r="AM13" t="s">
-        <v>559</v>
-      </c>
       <c r="AN13" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
@@ -4146,25 +4193,25 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="F14">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
         <v>42</v>
       </c>
       <c r="I14">
-        <v>3013</v>
+        <v>2939</v>
       </c>
       <c r="J14" t="s">
         <v>40</v>
@@ -4173,7 +4220,7 @@
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s">
         <v>40</v>
@@ -4191,10 +4238,10 @@
         <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>560</v>
+        <v>386</v>
       </c>
       <c r="S14" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="T14" t="s">
         <v>40</v>
@@ -4227,16 +4274,19 @@
         <v>40</v>
       </c>
       <c r="AD14" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="AE14" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="s">
         <v>40</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>148</v>
       </c>
       <c r="AI14" t="s">
         <v>40</v>
@@ -4250,37 +4300,40 @@
       <c r="AL14" t="s">
         <v>40</v>
       </c>
+      <c r="AM14" t="s">
+        <v>577</v>
+      </c>
       <c r="AN14" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="F15">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
         <v>42</v>
       </c>
       <c r="I15">
-        <v>2975</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="s">
         <v>40</v>
@@ -4289,7 +4342,7 @@
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -4307,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>578</v>
       </c>
       <c r="S15" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="T15" t="s">
         <v>40</v>
@@ -4343,13 +4396,13 @@
         <v>40</v>
       </c>
       <c r="AD15" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="AE15" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="s">
         <v>40</v>
@@ -4367,36 +4420,36 @@
         <v>40</v>
       </c>
       <c r="AN15" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F16">
-        <v>1953</v>
+        <v>1908</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
         <v>42</v>
       </c>
       <c r="I16">
-        <v>2797</v>
+        <v>2974</v>
       </c>
       <c r="J16" t="s">
         <v>40</v>
@@ -4405,7 +4458,7 @@
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
@@ -4423,10 +4476,10 @@
         <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="T16" t="s">
         <v>40</v>
@@ -4459,10 +4512,10 @@
         <v>40</v>
       </c>
       <c r="AD16" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="AE16" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s">
         <v>65</v>
@@ -4470,9 +4523,6 @@
       <c r="AG16" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" t="s">
-        <v>66</v>
-      </c>
       <c r="AI16" t="s">
         <v>40</v>
       </c>
@@ -4480,42 +4530,42 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="s">
         <v>40</v>
       </c>
       <c r="AN16" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>1826</v>
+        <v>1953</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
         <v>42</v>
       </c>
       <c r="I17">
-        <v>2814</v>
+        <v>2796</v>
       </c>
       <c r="J17" t="s">
         <v>40</v>
@@ -4524,7 +4574,7 @@
         <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M17" t="s">
         <v>40</v>
@@ -4542,10 +4592,10 @@
         <v>40</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="T17" t="s">
         <v>40</v>
@@ -4578,19 +4628,19 @@
         <v>40</v>
       </c>
       <c r="AD17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AE17" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AF17" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG17" t="s">
         <v>40</v>
       </c>
       <c r="AH17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AI17" t="s">
         <v>40</v>
@@ -4605,36 +4655,36 @@
         <v>40</v>
       </c>
       <c r="AN17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
       </c>
       <c r="F18">
-        <v>1926</v>
+        <v>1826</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
         <v>42</v>
       </c>
       <c r="I18">
-        <v>2841</v>
+        <v>2813</v>
       </c>
       <c r="J18" t="s">
         <v>40</v>
@@ -4643,7 +4693,7 @@
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
         <v>40</v>
@@ -4661,10 +4711,10 @@
         <v>40</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s">
         <v>40</v>
@@ -4697,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="AD18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s">
         <v>40</v>
@@ -4709,7 +4759,7 @@
         <v>40</v>
       </c>
       <c r="AH18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s">
         <v>40</v>
@@ -4724,36 +4774,36 @@
         <v>40</v>
       </c>
       <c r="AN18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="F19">
-        <v>1878</v>
+        <v>1926</v>
       </c>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19">
-        <v>3042</v>
+        <v>2840</v>
       </c>
       <c r="J19" t="s">
         <v>40</v>
@@ -4762,7 +4812,7 @@
         <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s">
         <v>40</v>
@@ -4780,10 +4830,10 @@
         <v>40</v>
       </c>
       <c r="R19" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="S19" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
         <v>40</v>
@@ -4816,7 +4866,7 @@
         <v>40</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="AE19" t="s">
         <v>40</v>
@@ -4828,7 +4878,7 @@
         <v>40</v>
       </c>
       <c r="AH19" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s">
         <v>40</v>
@@ -4843,36 +4893,36 @@
         <v>40</v>
       </c>
       <c r="AN19" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F20">
-        <v>1898</v>
+        <v>1878</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
       </c>
       <c r="I20">
-        <v>3048</v>
+        <v>3041</v>
       </c>
       <c r="J20" t="s">
         <v>40</v>
@@ -4881,7 +4931,7 @@
         <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s">
         <v>40</v>
@@ -4899,10 +4949,10 @@
         <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="S20" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="T20" t="s">
         <v>40</v>
@@ -4935,7 +4985,7 @@
         <v>40</v>
       </c>
       <c r="AD20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AE20" t="s">
         <v>40</v>
@@ -4947,7 +4997,7 @@
         <v>40</v>
       </c>
       <c r="AH20" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AI20" t="s">
         <v>40</v>
@@ -4962,36 +5012,36 @@
         <v>40</v>
       </c>
       <c r="AN20" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F21">
-        <v>1955</v>
+        <v>1898</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
       </c>
       <c r="I21">
-        <v>3058</v>
+        <v>3047</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
@@ -5000,7 +5050,7 @@
         <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s">
         <v>40</v>
@@ -5018,10 +5068,10 @@
         <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="S21" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="T21" t="s">
         <v>40</v>
@@ -5054,7 +5104,7 @@
         <v>40</v>
       </c>
       <c r="AD21" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AE21" t="s">
         <v>40</v>
@@ -5066,7 +5116,7 @@
         <v>40</v>
       </c>
       <c r="AH21" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AI21" t="s">
         <v>40</v>
@@ -5081,7 +5131,7 @@
         <v>40</v>
       </c>
       <c r="AN21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
@@ -5095,22 +5145,22 @@
         <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="F22">
-        <v>1826</v>
+        <v>1955</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
       </c>
       <c r="I22">
-        <v>3176</v>
+        <v>3057</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
@@ -5119,7 +5169,7 @@
         <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s">
         <v>40</v>
@@ -5137,10 +5187,10 @@
         <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="S22" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="T22" t="s">
         <v>40</v>
@@ -5173,7 +5223,7 @@
         <v>40</v>
       </c>
       <c r="AD22" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="AE22" t="s">
         <v>40</v>
@@ -5185,7 +5235,7 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AI22" t="s">
         <v>40</v>
@@ -5200,36 +5250,36 @@
         <v>40</v>
       </c>
       <c r="AN22" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
       </c>
       <c r="F23">
-        <v>1926</v>
+        <v>1826</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
       </c>
       <c r="I23">
-        <v>3184</v>
+        <v>3175</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -5238,7 +5288,7 @@
         <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
@@ -5256,10 +5306,10 @@
         <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s">
         <v>40</v>
@@ -5292,7 +5342,7 @@
         <v>40</v>
       </c>
       <c r="AD23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s">
         <v>40</v>
@@ -5304,7 +5354,7 @@
         <v>40</v>
       </c>
       <c r="AH23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AI23" t="s">
         <v>40</v>
@@ -5319,36 +5369,36 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F24">
-        <v>1800</v>
+        <v>1926</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
       </c>
       <c r="I24">
-        <v>2927</v>
+        <v>3183</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -5357,7 +5407,7 @@
         <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
         <v>40</v>
@@ -5375,10 +5425,10 @@
         <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="S24" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
         <v>40</v>
@@ -5411,7 +5461,7 @@
         <v>40</v>
       </c>
       <c r="AD24" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AE24" t="s">
         <v>40</v>
@@ -5423,7 +5473,7 @@
         <v>40</v>
       </c>
       <c r="AH24" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="AI24" t="s">
         <v>40</v>
@@ -5432,45 +5482,42 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="AL24" t="s">
         <v>40</v>
       </c>
-      <c r="AM24" t="s">
-        <v>139</v>
-      </c>
       <c r="AN24" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
       </c>
       <c r="I25">
-        <v>3197</v>
+        <v>2926</v>
       </c>
       <c r="J25" t="s">
         <v>40</v>
@@ -5479,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="M25" t="s">
         <v>40</v>
@@ -5497,10 +5544,10 @@
         <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="S25" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="T25" t="s">
         <v>40</v>
@@ -5533,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="AD25" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s">
         <v>40</v>
@@ -5545,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="AH25" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="AI25" t="s">
         <v>40</v>
@@ -5554,45 +5601,45 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="AL25" t="s">
         <v>40</v>
       </c>
       <c r="AM25" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="AN25" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>484</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
       <c r="F26">
-        <v>1936</v>
+        <v>1811</v>
       </c>
       <c r="G26" t="s">
-        <v>485</v>
+        <v>315</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
       </c>
       <c r="I26">
-        <v>3153</v>
+        <v>3196</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -5601,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="M26" t="s">
         <v>40</v>
@@ -5619,10 +5666,10 @@
         <v>40</v>
       </c>
       <c r="R26" t="s">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="S26" t="s">
-        <v>488</v>
+        <v>318</v>
       </c>
       <c r="T26" t="s">
         <v>40</v>
@@ -5655,19 +5702,19 @@
         <v>40</v>
       </c>
       <c r="AD26" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AE26" t="s">
         <v>40</v>
       </c>
       <c r="AF26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="s">
         <v>40</v>
       </c>
       <c r="AH26" t="s">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="AI26" t="s">
         <v>40</v>
@@ -5676,16 +5723,16 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s">
-        <v>490</v>
+        <v>68</v>
       </c>
       <c r="AL26" t="s">
         <v>40</v>
       </c>
       <c r="AM26" t="s">
-        <v>490</v>
+        <v>321</v>
       </c>
       <c r="AN26" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
@@ -5696,7 +5743,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -5708,13 +5755,13 @@
         <v>1936</v>
       </c>
       <c r="G27" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
       </c>
       <c r="I27">
-        <v>3283</v>
+        <v>3152</v>
       </c>
       <c r="J27" t="s">
         <v>40</v>
@@ -5723,7 +5770,7 @@
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M27" t="s">
         <v>40</v>
@@ -5741,10 +5788,10 @@
         <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="S27" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="T27" t="s">
         <v>40</v>
@@ -5789,7 +5836,7 @@
         <v>40</v>
       </c>
       <c r="AH27" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="AI27" t="s">
         <v>40</v>
@@ -5798,45 +5845,45 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN27" t="s">
         <v>490</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>490</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>397</v>
+        <v>59</v>
       </c>
       <c r="F28">
-        <v>1925</v>
+        <v>1936</v>
       </c>
       <c r="G28" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
       </c>
       <c r="I28">
-        <v>2743</v>
+        <v>3282</v>
       </c>
       <c r="J28" t="s">
         <v>40</v>
@@ -5845,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="M28" t="s">
         <v>40</v>
@@ -5863,10 +5910,10 @@
         <v>40</v>
       </c>
       <c r="R28" t="s">
-        <v>400</v>
+        <v>517</v>
       </c>
       <c r="S28" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="T28" t="s">
         <v>40</v>
@@ -5911,7 +5958,7 @@
         <v>40</v>
       </c>
       <c r="AH28" t="s">
-        <v>402</v>
+        <v>518</v>
       </c>
       <c r="AI28" t="s">
         <v>40</v>
@@ -5920,42 +5967,45 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s">
-        <v>403</v>
+        <v>68</v>
       </c>
       <c r="AL28" t="s">
         <v>40</v>
       </c>
+      <c r="AM28" t="s">
+        <v>496</v>
+      </c>
       <c r="AN28" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29">
+        <v>1925</v>
+      </c>
+      <c r="G29" t="s">
         <v>404</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>406</v>
-      </c>
-      <c r="F29">
-        <v>1903</v>
-      </c>
-      <c r="G29" t="s">
-        <v>407</v>
       </c>
       <c r="H29" t="s">
         <v>42</v>
       </c>
       <c r="I29">
-        <v>2748</v>
+        <v>2742</v>
       </c>
       <c r="J29" t="s">
         <v>40</v>
@@ -5964,7 +6014,7 @@
         <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M29" t="s">
         <v>40</v>
@@ -5982,10 +6032,10 @@
         <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="S29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="T29" t="s">
         <v>40</v>
@@ -6030,7 +6080,7 @@
         <v>40</v>
       </c>
       <c r="AH29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AI29" t="s">
         <v>40</v>
@@ -6039,42 +6089,42 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AL29" t="s">
         <v>40</v>
       </c>
       <c r="AN29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F30">
-        <v>1856</v>
+        <v>1903</v>
       </c>
       <c r="G30" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
       </c>
       <c r="I30">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
@@ -6083,7 +6133,7 @@
         <v>40</v>
       </c>
       <c r="L30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
@@ -6101,10 +6151,10 @@
         <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="S30" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="T30" t="s">
         <v>40</v>
@@ -6149,7 +6199,7 @@
         <v>40</v>
       </c>
       <c r="AH30" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AI30" t="s">
         <v>40</v>
@@ -6158,42 +6208,42 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AL30" t="s">
         <v>40</v>
       </c>
       <c r="AN30" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="F31">
-        <v>1911</v>
+        <v>1856</v>
       </c>
       <c r="G31" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
       <c r="I31">
-        <v>2768</v>
+        <v>2751</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
@@ -6202,7 +6252,7 @@
         <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="M31" t="s">
         <v>40</v>
@@ -6220,10 +6270,10 @@
         <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="S31" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="T31" t="s">
         <v>40</v>
@@ -6268,7 +6318,7 @@
         <v>40</v>
       </c>
       <c r="AH31" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="AI31" t="s">
         <v>40</v>
@@ -6277,13 +6327,13 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AL31" t="s">
         <v>40</v>
       </c>
       <c r="AN31" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
@@ -6294,25 +6344,25 @@
         <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>491</v>
+        <v>183</v>
       </c>
       <c r="F32">
-        <v>1833</v>
+        <v>1911</v>
       </c>
       <c r="G32" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
       </c>
       <c r="I32">
-        <v>3158</v>
+        <v>2767</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
@@ -6321,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="M32" t="s">
         <v>40</v>
@@ -6339,10 +6389,10 @@
         <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="S32" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="T32" t="s">
         <v>40</v>
@@ -6387,7 +6437,7 @@
         <v>40</v>
       </c>
       <c r="AH32" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="AI32" t="s">
         <v>40</v>
@@ -6396,42 +6446,42 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AL32" t="s">
         <v>40</v>
       </c>
       <c r="AN32" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="F33">
-        <v>1933</v>
+        <v>1833</v>
       </c>
       <c r="G33" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
       </c>
       <c r="I33">
-        <v>2779</v>
+        <v>3157</v>
       </c>
       <c r="J33" t="s">
         <v>40</v>
@@ -6440,7 +6490,7 @@
         <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="M33" t="s">
         <v>40</v>
@@ -6458,10 +6508,10 @@
         <v>40</v>
       </c>
       <c r="R33" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="S33" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="T33" t="s">
         <v>40</v>
@@ -6506,7 +6556,7 @@
         <v>40</v>
       </c>
       <c r="AH33" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="AI33" t="s">
         <v>40</v>
@@ -6515,16 +6565,13 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="AL33" t="s">
         <v>40</v>
       </c>
-      <c r="AM33" t="s">
-        <v>483</v>
-      </c>
       <c r="AN33" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
@@ -6535,25 +6582,25 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F34">
         <v>1933</v>
       </c>
       <c r="G34" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
       </c>
       <c r="I34">
-        <v>3163</v>
+        <v>2778</v>
       </c>
       <c r="J34" t="s">
         <v>40</v>
@@ -6562,7 +6609,7 @@
         <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M34" t="s">
         <v>40</v>
@@ -6580,10 +6627,10 @@
         <v>40</v>
       </c>
       <c r="R34" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="S34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="T34" t="s">
         <v>40</v>
@@ -6628,25 +6675,25 @@
         <v>40</v>
       </c>
       <c r="AH34" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>489</v>
+      </c>
+      <c r="AN34" t="s">
         <v>482</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>483</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>483</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
@@ -6663,19 +6710,19 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F35">
         <v>1933</v>
       </c>
       <c r="G35" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
       </c>
       <c r="I35">
-        <v>3288</v>
+        <v>3162</v>
       </c>
       <c r="J35" t="s">
         <v>40</v>
@@ -6684,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M35" t="s">
         <v>40</v>
@@ -6705,7 +6752,7 @@
         <v>516</v>
       </c>
       <c r="S35" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="T35" t="s">
         <v>40</v>
@@ -6750,7 +6797,7 @@
         <v>40</v>
       </c>
       <c r="AH35" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AI35" t="s">
         <v>40</v>
@@ -6759,13 +6806,13 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="AL35" t="s">
         <v>40</v>
       </c>
       <c r="AM35" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AN35" t="s">
         <v>515</v>
@@ -6773,31 +6820,31 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>521</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
+        <v>483</v>
+      </c>
+      <c r="F36">
+        <v>1933</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>484</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
       </c>
       <c r="I36">
-        <v>2739</v>
+        <v>3287</v>
       </c>
       <c r="J36" t="s">
         <v>40</v>
@@ -6806,7 +6853,7 @@
         <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="M36" t="s">
         <v>40</v>
@@ -6824,10 +6871,10 @@
         <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>52</v>
+        <v>522</v>
       </c>
       <c r="S36" t="s">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="T36" t="s">
         <v>40</v>
@@ -6860,19 +6907,19 @@
         <v>40</v>
       </c>
       <c r="AD36" t="s">
-        <v>542</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="s">
         <v>40</v>
       </c>
       <c r="AF36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG36" t="s">
         <v>40</v>
       </c>
       <c r="AH36" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="AI36" t="s">
         <v>40</v>
@@ -6881,45 +6928,45 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s">
-        <v>40</v>
+        <v>409</v>
       </c>
       <c r="AL36" t="s">
         <v>40</v>
       </c>
       <c r="AM36" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="AN36" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37">
-        <v>1904</v>
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
       </c>
       <c r="I37">
-        <v>2985</v>
+        <v>2738</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -6928,7 +6975,7 @@
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>195</v>
+        <v>558</v>
       </c>
       <c r="M37" t="s">
         <v>40</v>
@@ -6946,10 +6993,10 @@
         <v>40</v>
       </c>
       <c r="R37" t="s">
-        <v>186</v>
+        <v>550</v>
       </c>
       <c r="S37" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s">
         <v>40</v>
@@ -6982,7 +7029,7 @@
         <v>40</v>
       </c>
       <c r="AD37" t="s">
-        <v>188</v>
+        <v>571</v>
       </c>
       <c r="AE37" t="s">
         <v>40</v>
@@ -6994,7 +7041,7 @@
         <v>40</v>
       </c>
       <c r="AH37" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s">
         <v>40</v>
@@ -7003,45 +7050,45 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="s">
         <v>40</v>
       </c>
       <c r="AM37" t="s">
-        <v>197</v>
+        <v>563</v>
       </c>
       <c r="AN37" t="s">
-        <v>191</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="F38">
-        <v>1975</v>
+        <v>1904</v>
       </c>
       <c r="G38" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
       </c>
       <c r="I38">
-        <v>3134</v>
+        <v>2984</v>
       </c>
       <c r="J38" t="s">
         <v>40</v>
@@ -7050,7 +7097,7 @@
         <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s">
         <v>40</v>
@@ -7068,10 +7115,10 @@
         <v>40</v>
       </c>
       <c r="R38" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="S38" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="T38" t="s">
         <v>40</v>
@@ -7104,7 +7151,7 @@
         <v>40</v>
       </c>
       <c r="AD38" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="AE38" t="s">
         <v>40</v>
@@ -7116,7 +7163,7 @@
         <v>40</v>
       </c>
       <c r="AH38" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="AI38" t="s">
         <v>40</v>
@@ -7134,36 +7181,36 @@
         <v>197</v>
       </c>
       <c r="AN38" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="F39">
-        <v>1902</v>
+        <v>1975</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
       </c>
       <c r="I39">
-        <v>3328</v>
+        <v>3133</v>
       </c>
       <c r="J39" t="s">
         <v>40</v>
@@ -7172,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>387</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s">
         <v>40</v>
@@ -7190,10 +7237,10 @@
         <v>40</v>
       </c>
       <c r="R39" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="S39" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="T39" t="s">
         <v>40</v>
@@ -7226,7 +7273,7 @@
         <v>40</v>
       </c>
       <c r="AD39" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="AE39" t="s">
         <v>40</v>
@@ -7238,7 +7285,7 @@
         <v>40</v>
       </c>
       <c r="AH39" t="s">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="AI39" t="s">
         <v>40</v>
@@ -7253,10 +7300,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="AN39" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
@@ -7267,25 +7314,25 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>239</v>
       </c>
       <c r="F40">
-        <v>1863</v>
+        <v>1902</v>
       </c>
       <c r="G40" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
       </c>
       <c r="I40">
-        <v>3318</v>
+        <v>3327</v>
       </c>
       <c r="J40" t="s">
         <v>40</v>
@@ -7294,7 +7341,7 @@
         <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="M40" t="s">
         <v>40</v>
@@ -7312,10 +7359,10 @@
         <v>40</v>
       </c>
       <c r="R40" t="s">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="S40" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="T40" t="s">
         <v>40</v>
@@ -7348,7 +7395,7 @@
         <v>40</v>
       </c>
       <c r="AD40" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="AE40" t="s">
         <v>40</v>
@@ -7360,7 +7407,7 @@
         <v>40</v>
       </c>
       <c r="AH40" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="AI40" t="s">
         <v>40</v>
@@ -7375,39 +7422,39 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>383</v>
       </c>
       <c r="F41">
-        <v>1981</v>
+        <v>1863</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
       </c>
       <c r="I41">
-        <v>2872</v>
+        <v>3317</v>
       </c>
       <c r="J41" t="s">
         <v>40</v>
@@ -7416,7 +7463,7 @@
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>124</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s">
         <v>40</v>
@@ -7434,10 +7481,10 @@
         <v>40</v>
       </c>
       <c r="R41" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="S41" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="T41" t="s">
         <v>40</v>
@@ -7470,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="AD41" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AE41" t="s">
         <v>40</v>
@@ -7482,7 +7529,7 @@
         <v>40</v>
       </c>
       <c r="AH41" t="s">
-        <v>128</v>
+        <v>388</v>
       </c>
       <c r="AI41" t="s">
         <v>40</v>
@@ -7491,45 +7538,45 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s">
-        <v>562</v>
+        <v>67</v>
       </c>
       <c r="AL41" t="s">
         <v>40</v>
       </c>
       <c r="AM41" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="AN41" t="s">
-        <v>130</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="F42">
-        <v>1936</v>
+        <v>1981</v>
       </c>
       <c r="G42" t="s">
-        <v>350</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
       </c>
       <c r="I42">
-        <v>3247</v>
+        <v>2871</v>
       </c>
       <c r="J42" t="s">
         <v>40</v>
@@ -7538,7 +7585,7 @@
         <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="M42" t="s">
         <v>40</v>
@@ -7556,10 +7603,10 @@
         <v>40</v>
       </c>
       <c r="R42" t="s">
-        <v>352</v>
+        <v>125</v>
       </c>
       <c r="S42" t="s">
-        <v>353</v>
+        <v>126</v>
       </c>
       <c r="T42" t="s">
         <v>40</v>
@@ -7592,19 +7639,19 @@
         <v>40</v>
       </c>
       <c r="AD42" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AE42" t="s">
         <v>40</v>
       </c>
       <c r="AF42" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AG42" t="s">
         <v>40</v>
       </c>
       <c r="AH42" t="s">
-        <v>354</v>
+        <v>128</v>
       </c>
       <c r="AI42" t="s">
         <v>40</v>
@@ -7613,45 +7660,45 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s">
-        <v>67</v>
+        <v>579</v>
       </c>
       <c r="AL42" t="s">
-        <v>561</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="AN42" t="s">
-        <v>347</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>40</v>
+        <v>355</v>
+      </c>
+      <c r="F43">
+        <v>1936</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
       </c>
       <c r="I43">
-        <v>2734</v>
+        <v>3247</v>
       </c>
       <c r="J43" t="s">
         <v>40</v>
@@ -7660,7 +7707,7 @@
         <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s">
         <v>40</v>
@@ -7678,10 +7725,10 @@
         <v>40</v>
       </c>
       <c r="R43" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="S43" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="T43" t="s">
         <v>40</v>
@@ -7714,19 +7761,19 @@
         <v>40</v>
       </c>
       <c r="AD43" t="s">
-        <v>537</v>
+        <v>40</v>
       </c>
       <c r="AE43" t="s">
         <v>40</v>
       </c>
       <c r="AF43" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="AG43" t="s">
         <v>40</v>
       </c>
       <c r="AH43" t="s">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="AI43" t="s">
         <v>40</v>
@@ -7735,16 +7782,13 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL43" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>546</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s">
-        <v>547</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.35">
@@ -7755,7 +7799,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>565</v>
       </c>
       <c r="D44" t="s">
         <v>40</v>
@@ -7767,13 +7811,13 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
       </c>
       <c r="I44">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="J44" t="s">
         <v>40</v>
@@ -7782,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>40</v>
+        <v>553</v>
       </c>
       <c r="M44" t="s">
         <v>40</v>
@@ -7800,7 +7844,7 @@
         <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>545</v>
       </c>
       <c r="S44" t="s">
         <v>40</v>
@@ -7836,7 +7880,7 @@
         <v>40</v>
       </c>
       <c r="AD44" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="AE44" t="s">
         <v>40</v>
@@ -7848,7 +7892,7 @@
         <v>40</v>
       </c>
       <c r="AH44" t="s">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s">
         <v>40</v>
@@ -7863,10 +7907,10 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="AN44" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.35">
@@ -7877,7 +7921,7 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>565</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -7889,13 +7933,13 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
       </c>
       <c r="I45">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="J45" t="s">
         <v>40</v>
@@ -7904,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>554</v>
       </c>
       <c r="M45" t="s">
         <v>40</v>
@@ -7922,7 +7966,7 @@
         <v>40</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>546</v>
       </c>
       <c r="S45" t="s">
         <v>40</v>
@@ -7958,7 +8002,7 @@
         <v>40</v>
       </c>
       <c r="AD45" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="AE45" t="s">
         <v>40</v>
@@ -7970,7 +8014,7 @@
         <v>40</v>
       </c>
       <c r="AH45" t="s">
-        <v>533</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s">
         <v>40</v>
@@ -7985,10 +8029,10 @@
         <v>40</v>
       </c>
       <c r="AM45" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="AN45" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
@@ -7999,7 +8043,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -8011,13 +8055,13 @@
         <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
       </c>
       <c r="I46">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="J46" t="s">
         <v>40</v>
@@ -8026,7 +8070,7 @@
         <v>40</v>
       </c>
       <c r="L46" t="s">
-        <v>40</v>
+        <v>556</v>
       </c>
       <c r="M46" t="s">
         <v>40</v>
@@ -8044,7 +8088,7 @@
         <v>40</v>
       </c>
       <c r="R46" t="s">
-        <v>51</v>
+        <v>548</v>
       </c>
       <c r="S46" t="s">
         <v>40</v>
@@ -8080,7 +8124,7 @@
         <v>40</v>
       </c>
       <c r="AD46" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="AE46" t="s">
         <v>40</v>
@@ -8092,7 +8136,7 @@
         <v>40</v>
       </c>
       <c r="AH46" t="s">
-        <v>531</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s">
         <v>40</v>
@@ -8107,10 +8151,10 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="AN46" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
@@ -8121,7 +8165,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -8133,13 +8177,13 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
       </c>
       <c r="I47">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="J47" t="s">
         <v>40</v>
@@ -8148,7 +8192,7 @@
         <v>40</v>
       </c>
       <c r="L47" t="s">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="M47" t="s">
         <v>40</v>
@@ -8166,7 +8210,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s">
-        <v>54</v>
+        <v>549</v>
       </c>
       <c r="S47" t="s">
         <v>40</v>
@@ -8202,19 +8246,19 @@
         <v>40</v>
       </c>
       <c r="AD47" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="AE47" t="s">
-        <v>544</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG47" t="s">
         <v>40</v>
       </c>
       <c r="AH47" t="s">
-        <v>536</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s">
         <v>40</v>
@@ -8229,10 +8273,10 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="AN47" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
@@ -8243,7 +8287,7 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -8255,7 +8299,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s">
         <v>42</v>
@@ -8270,7 +8314,7 @@
         <v>40</v>
       </c>
       <c r="L48" t="s">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="M48" t="s">
         <v>40</v>
@@ -8288,7 +8332,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s">
-        <v>53</v>
+        <v>552</v>
       </c>
       <c r="S48" t="s">
         <v>40</v>
@@ -8324,19 +8368,19 @@
         <v>40</v>
       </c>
       <c r="AD48" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="AE48" t="s">
-        <v>40</v>
+        <v>573</v>
       </c>
       <c r="AF48" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG48" t="s">
         <v>40</v>
       </c>
       <c r="AH48" t="s">
-        <v>535</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s">
         <v>40</v>
@@ -8351,39 +8395,39 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AN48" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49">
-        <v>1930</v>
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
         <v>42</v>
       </c>
       <c r="I49">
-        <v>3032</v>
+        <v>2739</v>
       </c>
       <c r="J49" t="s">
         <v>40</v>
@@ -8392,7 +8436,7 @@
         <v>40</v>
       </c>
       <c r="L49" t="s">
-        <v>221</v>
+        <v>559</v>
       </c>
       <c r="M49" t="s">
         <v>40</v>
@@ -8410,10 +8454,10 @@
         <v>40</v>
       </c>
       <c r="R49" t="s">
-        <v>222</v>
+        <v>551</v>
       </c>
       <c r="S49" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s">
         <v>40</v>
@@ -8446,7 +8490,7 @@
         <v>40</v>
       </c>
       <c r="AD49" t="s">
-        <v>219</v>
+        <v>572</v>
       </c>
       <c r="AE49" t="s">
         <v>40</v>
@@ -8458,7 +8502,7 @@
         <v>40</v>
       </c>
       <c r="AH49" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s">
         <v>40</v>
@@ -8467,45 +8511,45 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s">
         <v>40</v>
       </c>
       <c r="AM49" t="s">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="AN49" t="s">
-        <v>226</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="F50">
-        <v>1955</v>
+        <v>1930</v>
       </c>
       <c r="G50" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="H50" t="s">
         <v>42</v>
       </c>
       <c r="I50">
-        <v>3073</v>
+        <v>3031</v>
       </c>
       <c r="J50" t="s">
         <v>40</v>
@@ -8514,7 +8558,7 @@
         <v>40</v>
       </c>
       <c r="L50" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="M50" t="s">
         <v>40</v>
@@ -8532,10 +8576,10 @@
         <v>40</v>
       </c>
       <c r="R50" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="S50" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="T50" t="s">
         <v>40</v>
@@ -8568,19 +8612,19 @@
         <v>40</v>
       </c>
       <c r="AD50" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="AE50" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AF50" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG50" t="s">
         <v>40</v>
       </c>
       <c r="AH50" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="AI50" t="s">
         <v>40</v>
@@ -8595,10 +8639,10 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AN50" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
@@ -8627,7 +8671,7 @@
         <v>42</v>
       </c>
       <c r="I51">
-        <v>3263</v>
+        <v>3072</v>
       </c>
       <c r="J51" t="s">
         <v>40</v>
@@ -8654,7 +8698,7 @@
         <v>40</v>
       </c>
       <c r="R51" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="S51" t="s">
         <v>262</v>
@@ -8690,10 +8734,10 @@
         <v>40</v>
       </c>
       <c r="AD51" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="AE51" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="AF51" t="s">
         <v>65</v>
@@ -8720,7 +8764,7 @@
         <v>266</v>
       </c>
       <c r="AN51" t="s">
-        <v>371</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
@@ -8734,22 +8778,22 @@
         <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="F52">
-        <v>1896</v>
+        <v>1955</v>
       </c>
       <c r="G52" t="s">
-        <v>392</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
         <v>42</v>
       </c>
       <c r="I52">
-        <v>3330</v>
+        <v>3263</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
@@ -8758,7 +8802,7 @@
         <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
       <c r="M52" t="s">
         <v>40</v>
@@ -8776,10 +8820,10 @@
         <v>40</v>
       </c>
       <c r="R52" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="S52" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="T52" t="s">
         <v>40</v>
@@ -8812,10 +8856,10 @@
         <v>40</v>
       </c>
       <c r="AD52" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="AE52" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s">
         <v>65</v>
@@ -8842,7 +8886,7 @@
         <v>266</v>
       </c>
       <c r="AN52" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
@@ -8856,22 +8900,22 @@
         <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F53">
         <v>1896</v>
       </c>
       <c r="G53" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H53" t="s">
         <v>42</v>
       </c>
       <c r="I53">
-        <v>3357</v>
+        <v>3329</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
@@ -8880,7 +8924,7 @@
         <v>40</v>
       </c>
       <c r="L53" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s">
         <v>40</v>
@@ -8898,10 +8942,10 @@
         <v>40</v>
       </c>
       <c r="R53" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="S53" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="T53" t="s">
         <v>40</v>
@@ -8934,10 +8978,10 @@
         <v>40</v>
       </c>
       <c r="AD53" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="AE53" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="AF53" t="s">
         <v>65</v>
@@ -8964,36 +9008,36 @@
         <v>266</v>
       </c>
       <c r="AN53" t="s">
-        <v>371</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="F54">
-        <v>1923</v>
+        <v>1896</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>398</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
       </c>
       <c r="I54">
-        <v>2860</v>
+        <v>3356</v>
       </c>
       <c r="J54" t="s">
         <v>40</v>
@@ -9002,7 +9046,7 @@
         <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
@@ -9020,10 +9064,10 @@
         <v>40</v>
       </c>
       <c r="R54" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="S54" t="s">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="T54" t="s">
         <v>40</v>
@@ -9056,10 +9100,10 @@
         <v>40</v>
       </c>
       <c r="AD54" t="s">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="AE54" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s">
         <v>65</v>
@@ -9068,7 +9112,7 @@
         <v>40</v>
       </c>
       <c r="AH54" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="AI54" t="s">
         <v>40</v>
@@ -9083,39 +9127,39 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="AN54" t="s">
-        <v>119</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>1914</v>
+        <v>1923</v>
       </c>
       <c r="G55" t="s">
-        <v>455</v>
+        <v>112</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
       </c>
       <c r="I55">
-        <v>2770</v>
+        <v>2859</v>
       </c>
       <c r="J55" t="s">
         <v>40</v>
@@ -9124,7 +9168,7 @@
         <v>40</v>
       </c>
       <c r="L55" t="s">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="M55" t="s">
         <v>40</v>
@@ -9142,10 +9186,10 @@
         <v>40</v>
       </c>
       <c r="R55" t="s">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="S55" t="s">
-        <v>458</v>
+        <v>115</v>
       </c>
       <c r="T55" t="s">
         <v>40</v>
@@ -9178,19 +9222,19 @@
         <v>40</v>
       </c>
       <c r="AD55" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE55" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AF55" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AG55" t="s">
         <v>40</v>
       </c>
       <c r="AH55" t="s">
-        <v>459</v>
+        <v>117</v>
       </c>
       <c r="AI55" t="s">
         <v>40</v>
@@ -9205,39 +9249,39 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s">
-        <v>460</v>
+        <v>118</v>
       </c>
       <c r="AN55" t="s">
-        <v>454</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>460</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F56">
-        <v>1902</v>
+        <v>1914</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
       </c>
       <c r="I56">
-        <v>3007</v>
+        <v>2769</v>
       </c>
       <c r="J56" t="s">
         <v>40</v>
@@ -9246,7 +9290,7 @@
         <v>40</v>
       </c>
       <c r="L56" t="s">
-        <v>203</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s">
         <v>40</v>
@@ -9264,10 +9308,10 @@
         <v>40</v>
       </c>
       <c r="R56" t="s">
-        <v>204</v>
+        <v>463</v>
       </c>
       <c r="S56" t="s">
-        <v>205</v>
+        <v>464</v>
       </c>
       <c r="T56" t="s">
         <v>40</v>
@@ -9300,19 +9344,19 @@
         <v>40</v>
       </c>
       <c r="AD56" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AE56" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AF56" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AG56" t="s">
         <v>40</v>
       </c>
       <c r="AH56" t="s">
-        <v>207</v>
+        <v>465</v>
       </c>
       <c r="AI56" t="s">
         <v>40</v>
@@ -9327,39 +9371,39 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s">
-        <v>208</v>
+        <v>466</v>
       </c>
       <c r="AN56" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="F57">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
       </c>
       <c r="I57">
-        <v>2959</v>
+        <v>3006</v>
       </c>
       <c r="J57" t="s">
         <v>40</v>
@@ -9368,7 +9412,7 @@
         <v>40</v>
       </c>
       <c r="L57" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="M57" t="s">
         <v>40</v>
@@ -9386,10 +9430,10 @@
         <v>40</v>
       </c>
       <c r="R57" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="S57" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="T57" t="s">
         <v>40</v>
@@ -9422,19 +9466,19 @@
         <v>40</v>
       </c>
       <c r="AD57" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AE57" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="AF57" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AG57" t="s">
         <v>40</v>
       </c>
       <c r="AH57" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AI57" t="s">
         <v>40</v>
@@ -9443,45 +9487,45 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s">
-        <v>563</v>
+        <v>67</v>
       </c>
       <c r="AL57" t="s">
         <v>40</v>
       </c>
       <c r="AM57" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="AN57" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="D58" t="s">
-        <v>359</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="F58">
         <v>1909</v>
       </c>
       <c r="G58" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="H58" t="s">
         <v>42</v>
       </c>
       <c r="I58">
-        <v>3254</v>
+        <v>2958</v>
       </c>
       <c r="J58" t="s">
         <v>40</v>
@@ -9490,7 +9534,7 @@
         <v>40</v>
       </c>
       <c r="L58" t="s">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="M58" t="s">
         <v>40</v>
@@ -9508,10 +9552,10 @@
         <v>40</v>
       </c>
       <c r="R58" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="S58" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="T58" t="s">
         <v>40</v>
@@ -9544,19 +9588,19 @@
         <v>40</v>
       </c>
       <c r="AD58" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AE58" t="s">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="AF58" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="AG58" t="s">
         <v>40</v>
       </c>
       <c r="AH58" t="s">
-        <v>366</v>
+        <v>169</v>
       </c>
       <c r="AI58" t="s">
         <v>40</v>
@@ -9565,7 +9609,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="AL58" t="s">
         <v>40</v>
@@ -9574,36 +9618,36 @@
         <v>170</v>
       </c>
       <c r="AN58" t="s">
-        <v>367</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="F59">
-        <v>1957</v>
+        <v>1909</v>
       </c>
       <c r="G59" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
       </c>
       <c r="I59">
-        <v>2758</v>
+        <v>3254</v>
       </c>
       <c r="J59" t="s">
         <v>40</v>
@@ -9612,7 +9656,7 @@
         <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s">
         <v>40</v>
@@ -9630,10 +9674,10 @@
         <v>40</v>
       </c>
       <c r="R59" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="S59" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="T59" t="s">
         <v>40</v>
@@ -9669,16 +9713,16 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="AF59" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AG59" t="s">
         <v>40</v>
       </c>
       <c r="AH59" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="AI59" t="s">
         <v>40</v>
@@ -9687,45 +9731,45 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s">
-        <v>67</v>
+        <v>580</v>
       </c>
       <c r="AL59" t="s">
         <v>40</v>
       </c>
       <c r="AM59" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="AN59" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D60" t="s">
         <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F60">
-        <v>1944</v>
+        <v>1957</v>
       </c>
       <c r="G60" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H60" t="s">
         <v>42</v>
       </c>
       <c r="I60">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="J60" t="s">
         <v>40</v>
@@ -9734,7 +9778,7 @@
         <v>40</v>
       </c>
       <c r="L60" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s">
         <v>40</v>
@@ -9752,10 +9796,10 @@
         <v>40</v>
       </c>
       <c r="R60" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="S60" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="T60" t="s">
         <v>40</v>
@@ -9800,7 +9844,7 @@
         <v>40</v>
       </c>
       <c r="AH60" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AI60" t="s">
         <v>40</v>
@@ -9818,7 +9862,7 @@
         <v>28</v>
       </c>
       <c r="AN60" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
@@ -9829,25 +9873,25 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F61">
         <v>1944</v>
       </c>
       <c r="G61" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H61" t="s">
         <v>42</v>
       </c>
       <c r="I61">
-        <v>3159</v>
+        <v>2761</v>
       </c>
       <c r="J61" t="s">
         <v>40</v>
@@ -9856,7 +9900,7 @@
         <v>40</v>
       </c>
       <c r="L61" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s">
         <v>40</v>
@@ -9874,10 +9918,10 @@
         <v>40</v>
       </c>
       <c r="R61" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="S61" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="T61" t="s">
         <v>40</v>
@@ -9922,7 +9966,7 @@
         <v>40</v>
       </c>
       <c r="AH61" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="AI61" t="s">
         <v>40</v>
@@ -9940,36 +9984,36 @@
         <v>28</v>
       </c>
       <c r="AN61" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>412</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>434</v>
       </c>
       <c r="F62">
-        <v>1908</v>
+        <v>1944</v>
       </c>
       <c r="G62" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="H62" t="s">
         <v>42</v>
       </c>
       <c r="I62">
-        <v>2749</v>
+        <v>3158</v>
       </c>
       <c r="J62" t="s">
         <v>40</v>
@@ -9978,7 +10022,7 @@
         <v>40</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s">
         <v>40</v>
@@ -9996,10 +10040,10 @@
         <v>40</v>
       </c>
       <c r="R62" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="S62" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="T62" t="s">
         <v>40</v>
@@ -10044,7 +10088,7 @@
         <v>40</v>
       </c>
       <c r="AH62" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="AI62" t="s">
         <v>40</v>
@@ -10059,39 +10103,39 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s">
-        <v>419</v>
+        <v>28</v>
       </c>
       <c r="AN62" t="s">
-        <v>413</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s">
-        <v>468</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="F63">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="G63" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
       </c>
       <c r="I63">
-        <v>2776</v>
+        <v>2748</v>
       </c>
       <c r="J63" t="s">
         <v>40</v>
@@ -10100,7 +10144,7 @@
         <v>40</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s">
         <v>40</v>
@@ -10118,10 +10162,10 @@
         <v>40</v>
       </c>
       <c r="R63" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="S63" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="T63" t="s">
         <v>40</v>
@@ -10166,7 +10210,7 @@
         <v>40</v>
       </c>
       <c r="AH63" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="AI63" t="s">
         <v>40</v>
@@ -10181,10 +10225,10 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="AN63" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
@@ -10192,28 +10236,28 @@
         <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>474</v>
       </c>
       <c r="C64" t="s">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="F64">
-        <v>1947</v>
+        <v>1915</v>
       </c>
       <c r="G64" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="H64" t="s">
         <v>42</v>
       </c>
       <c r="I64">
-        <v>3145</v>
+        <v>2775</v>
       </c>
       <c r="J64" t="s">
         <v>40</v>
@@ -10222,7 +10266,7 @@
         <v>40</v>
       </c>
       <c r="L64" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s">
         <v>40</v>
@@ -10240,10 +10284,10 @@
         <v>40</v>
       </c>
       <c r="R64" t="s">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="S64" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="T64" t="s">
         <v>40</v>
@@ -10276,19 +10320,19 @@
         <v>40</v>
       </c>
       <c r="AD64" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AE64" t="s">
         <v>40</v>
       </c>
       <c r="AF64" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG64" t="s">
         <v>40</v>
       </c>
       <c r="AH64" t="s">
-        <v>282</v>
+        <v>480</v>
       </c>
       <c r="AI64" t="s">
         <v>40</v>
@@ -10303,10 +10347,10 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s">
-        <v>283</v>
+        <v>481</v>
       </c>
       <c r="AN64" t="s">
-        <v>284</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
@@ -10317,25 +10361,25 @@
         <v>273</v>
       </c>
       <c r="C65" t="s">
-        <v>461</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="F65">
-        <v>1912</v>
+        <v>1947</v>
       </c>
       <c r="G65" t="s">
-        <v>462</v>
+        <v>277</v>
       </c>
       <c r="H65" t="s">
         <v>42</v>
       </c>
       <c r="I65">
-        <v>2774</v>
+        <v>3144</v>
       </c>
       <c r="J65" t="s">
         <v>40</v>
@@ -10344,7 +10388,7 @@
         <v>40</v>
       </c>
       <c r="L65" t="s">
-        <v>463</v>
+        <v>278</v>
       </c>
       <c r="M65" t="s">
         <v>40</v>
@@ -10362,10 +10406,10 @@
         <v>40</v>
       </c>
       <c r="R65" t="s">
-        <v>464</v>
+        <v>279</v>
       </c>
       <c r="S65" t="s">
-        <v>465</v>
+        <v>280</v>
       </c>
       <c r="T65" t="s">
         <v>40</v>
@@ -10398,19 +10442,19 @@
         <v>40</v>
       </c>
       <c r="AD65" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AE65" t="s">
         <v>40</v>
       </c>
       <c r="AF65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG65" t="s">
         <v>40</v>
       </c>
       <c r="AH65" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
       <c r="AI65" t="s">
         <v>40</v>
@@ -10425,10 +10469,10 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="AN65" t="s">
-        <v>461</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.35">
@@ -10439,7 +10483,7 @@
         <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="D66" t="s">
         <v>40</v>
@@ -10451,13 +10495,13 @@
         <v>1912</v>
       </c>
       <c r="G66" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H66" t="s">
         <v>42</v>
       </c>
       <c r="I66">
-        <v>3162</v>
+        <v>2773</v>
       </c>
       <c r="J66" t="s">
         <v>40</v>
@@ -10466,7 +10510,7 @@
         <v>40</v>
       </c>
       <c r="L66" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s">
         <v>40</v>
@@ -10484,10 +10528,10 @@
         <v>40</v>
       </c>
       <c r="R66" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="S66" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="T66" t="s">
         <v>40</v>
@@ -10532,7 +10576,7 @@
         <v>40</v>
       </c>
       <c r="AH66" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="AI66" t="s">
         <v>40</v>
@@ -10547,39 +10591,39 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN66" t="s">
         <v>467</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>435</v>
+        <v>183</v>
       </c>
       <c r="F67">
-        <v>1880</v>
+        <v>1912</v>
       </c>
       <c r="G67" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="H67" t="s">
         <v>42</v>
       </c>
       <c r="I67">
-        <v>2760</v>
+        <v>3161</v>
       </c>
       <c r="J67" t="s">
         <v>40</v>
@@ -10588,7 +10632,7 @@
         <v>40</v>
       </c>
       <c r="L67" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s">
         <v>40</v>
@@ -10606,10 +10650,10 @@
         <v>40</v>
       </c>
       <c r="R67" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="S67" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="T67" t="s">
         <v>40</v>
@@ -10648,13 +10692,13 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AG67" t="s">
         <v>40</v>
       </c>
       <c r="AH67" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="AI67" t="s">
         <v>40</v>
@@ -10669,39 +10713,39 @@
         <v>40</v>
       </c>
       <c r="AM67" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="AN67" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="F68">
-        <v>1906</v>
+        <v>1880</v>
       </c>
       <c r="G68" t="s">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="H68" t="s">
         <v>42</v>
       </c>
       <c r="I68">
-        <v>3161</v>
+        <v>2759</v>
       </c>
       <c r="J68" t="s">
         <v>40</v>
@@ -10710,7 +10754,7 @@
         <v>40</v>
       </c>
       <c r="L68" t="s">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s">
         <v>40</v>
@@ -10728,10 +10772,10 @@
         <v>40</v>
       </c>
       <c r="R68" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="S68" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="T68" t="s">
         <v>40</v>
@@ -10776,7 +10820,7 @@
         <v>40</v>
       </c>
       <c r="AH68" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="AI68" t="s">
         <v>40</v>
@@ -10791,10 +10835,10 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AN68" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
@@ -10805,25 +10849,25 @@
         <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F69">
         <v>1906</v>
       </c>
       <c r="G69" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H69" t="s">
         <v>42</v>
       </c>
       <c r="I69">
-        <v>3287</v>
+        <v>3160</v>
       </c>
       <c r="J69" t="s">
         <v>40</v>
@@ -10832,7 +10876,7 @@
         <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
@@ -10850,10 +10894,10 @@
         <v>40</v>
       </c>
       <c r="R69" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="S69" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="T69" t="s">
         <v>40</v>
@@ -10898,7 +10942,7 @@
         <v>40</v>
       </c>
       <c r="AH69" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AI69" t="s">
         <v>40</v>
@@ -10913,10 +10957,10 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AN69" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
@@ -10927,25 +10971,25 @@
         <v>291</v>
       </c>
       <c r="C70" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D70" t="s">
         <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F70">
-        <v>1833</v>
+        <v>1906</v>
       </c>
       <c r="G70" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H70" t="s">
         <v>42</v>
       </c>
       <c r="I70">
-        <v>3339</v>
+        <v>3286</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
@@ -10954,7 +10998,7 @@
         <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="M70" t="s">
         <v>40</v>
@@ -10972,10 +11016,10 @@
         <v>40</v>
       </c>
       <c r="R70" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="S70" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="T70" t="s">
         <v>40</v>
@@ -11020,7 +11064,7 @@
         <v>40</v>
       </c>
       <c r="AH70" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="AI70" t="s">
         <v>40</v>
@@ -11035,10 +11079,10 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AN70" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
@@ -11049,25 +11093,25 @@
         <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F71">
-        <v>1906</v>
+        <v>1833</v>
       </c>
       <c r="G71" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H71" t="s">
         <v>42</v>
       </c>
       <c r="I71">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
@@ -11076,7 +11120,7 @@
         <v>40</v>
       </c>
       <c r="L71" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s">
         <v>40</v>
@@ -11094,10 +11138,10 @@
         <v>40</v>
       </c>
       <c r="R71" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="S71" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T71" t="s">
         <v>40</v>
@@ -11142,7 +11186,7 @@
         <v>40</v>
       </c>
       <c r="AH71" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="AI71" t="s">
         <v>40</v>
@@ -11157,39 +11201,39 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AN71" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>535</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="F72">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>507</v>
       </c>
       <c r="H72" t="s">
         <v>42</v>
       </c>
       <c r="I72">
-        <v>3230</v>
+        <v>3339</v>
       </c>
       <c r="J72" t="s">
         <v>40</v>
@@ -11198,7 +11242,7 @@
         <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>333</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s">
         <v>40</v>
@@ -11216,10 +11260,10 @@
         <v>40</v>
       </c>
       <c r="R72" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="S72" t="s">
-        <v>335</v>
+        <v>510</v>
       </c>
       <c r="T72" t="s">
         <v>40</v>
@@ -11252,16 +11296,19 @@
         <v>40</v>
       </c>
       <c r="AD72" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="AE72" t="s">
         <v>40</v>
       </c>
       <c r="AF72" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AG72" t="s">
         <v>40</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>511</v>
       </c>
       <c r="AI72" t="s">
         <v>40</v>
@@ -11275,7 +11322,126 @@
       <c r="AL72" t="s">
         <v>40</v>
       </c>
+      <c r="AM72" t="s">
+        <v>447</v>
+      </c>
       <c r="AN72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73">
+        <v>1907</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73">
+        <v>3229</v>
+      </c>
+      <c r="J73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" t="s">
+        <v>333</v>
+      </c>
+      <c r="M73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N73" t="s">
+        <v>40</v>
+      </c>
+      <c r="O73" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s">
+        <v>581</v>
+      </c>
+      <c r="S73" t="s">
+        <v>335</v>
+      </c>
+      <c r="T73" t="s">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN73" t="s">
         <v>334</v>
       </c>
     </row>

--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48EB4410-4165-4FC9-BD62-A42197064C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14C180A-C9EC-495D-A950-9D0E4F3C7748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>Lewis</t>
   </si>
   <si>
-    <t>Lewis2783</t>
+    <t>Lewis2775</t>
   </si>
   <si>
     <t>Amalaraeus fossoris Sutemin, 1969</t>
@@ -190,7 +190,7 @@
     <t>Amalaraeus sugitanii Sutemin, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Lewis2784</t>
+    <t>Lewis2776</t>
   </si>
   <si>
     <t>Amalaraeus sugitanii Sutemin, 1969</t>
@@ -208,7 +208,7 @@
     <t>Ceratophyllus sterni Curt., [1829] (cited in Dale, 1878, but no associated valid species)</t>
   </si>
   <si>
-    <t>Lewis2785</t>
+    <t>Lewis2777</t>
   </si>
   <si>
     <t>Ceratophyllus sterni Curt., [1829]</t>
@@ -232,7 +232,7 @@
     <t>Ctenophthalmus flavus Suteminn, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Lewis2786</t>
+    <t>Lewis2778</t>
   </si>
   <si>
     <t>Ctenophthalmus flavus Suteminn, 1969</t>
@@ -250,7 +250,7 @@
     <t>Ctenophthalmus nepalensis Sutemin, 1969 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Lewis2787</t>
+    <t>Lewis2779</t>
   </si>
   <si>
     <t>Ctenophthalmus nepalensis Sutemin, 1969</t>
@@ -268,7 +268,7 @@
     <t>Pulex gigas Kirby, 1837 (likely a species of Hystrichopsylla)</t>
   </si>
   <si>
-    <t>Lewis2788</t>
+    <t>Lewis2780</t>
   </si>
   <si>
     <t>Pulex gigas Kirby, 1837</t>
@@ -289,7 +289,7 @@
     <t>Pulex imperator Westwood, 1858 (non-flea)</t>
   </si>
   <si>
-    <t>Lewis2789</t>
+    <t>Lewis2781</t>
   </si>
   <si>
     <t>Pulex imperator Westwood, 1858</t>
@@ -310,7 +310,7 @@
     <t>Pulex terrestris ferox Alpinus, 1874 (nomina ex phantasia)</t>
   </si>
   <si>
-    <t>Lewis2790</t>
+    <t>Lewis2782</t>
   </si>
   <si>
     <t>Pulex terrestris ferox Alpinus, 1874</t>
@@ -349,7 +349,7 @@
     <t>Amphipsylla kuznetzovi transcaucasica Goncharov, 1973 (junior homonym)</t>
   </si>
   <si>
-    <t>Lewis2805</t>
+    <t>Lewis2797</t>
   </si>
   <si>
     <t>Lewis156</t>
@@ -388,7 +388,7 @@
     <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
   </si>
   <si>
-    <t>Lewis2822</t>
+    <t>Lewis2814</t>
   </si>
   <si>
     <t>Lewis338</t>
@@ -418,7 +418,7 @@
     <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
   </si>
   <si>
-    <t>Lewis2849</t>
+    <t>Lewis2841</t>
   </si>
   <si>
     <t>Lewis517</t>
@@ -454,7 +454,7 @@
     <t>Ectinorus onychius angularis Smit &amp; Rosicky, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
   </si>
   <si>
-    <t>Lewis2865</t>
+    <t>Lewis2857</t>
   </si>
   <si>
     <t>Lewis947</t>
@@ -487,7 +487,7 @@
     <t>Ectinorus onychius deplexus Smit, 1987 (elevated to specific status by Hastriter &amp; Sage 2011)</t>
   </si>
   <si>
-    <t>Lewis2867</t>
+    <t>Lewis2859</t>
   </si>
   <si>
     <t>Lewis954</t>
@@ -511,7 +511,7 @@
     <t>Ectinorus onychius fueginus Jordan, 1942 (placed as synonym by Hastriter and Sage 2011)</t>
   </si>
   <si>
-    <t>Lewis2868</t>
+    <t>Lewis2860</t>
   </si>
   <si>
     <t>Lewis973</t>
@@ -547,7 +547,7 @@
     <t>Frontopsylla tuoli Yu &amp; Zhang, 1981 (misapplication of F. tuoliensis)</t>
   </si>
   <si>
-    <t>Lewis2880</t>
+    <t>Lewis2872</t>
   </si>
   <si>
     <t>Lewis1078</t>
@@ -580,7 +580,7 @@
     <t>Pulex talpae Bouche, 1835 (junior homonym of Pulex fasciatus Bosc, 1800); Pulex furoris Dale, 1878; Ceratophyllus canadensis Baker, 1904; Ceratophyllus californicus Baker, 1904; Ceratophyllus endymionis Rothschild, 1904; Ceratophyllus oculatus Baker, 1904; Nosopsyllus paganus Peus, 1949</t>
   </si>
   <si>
-    <t>Lewis2937</t>
+    <t>Lewis2929</t>
   </si>
   <si>
     <t>Lewis1702</t>
@@ -616,7 +616,7 @@
     <t>Opisodasys jellisoni I. Fox, 1941 [female Opisodasys vesperalis (Jordan, 1929)]</t>
   </si>
   <si>
-    <t>Lewis2950</t>
+    <t>Lewis2942</t>
   </si>
   <si>
     <t>Lewis1829</t>
@@ -649,7 +649,7 @@
     <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
   </si>
   <si>
-    <t>Lewis2962</t>
+    <t>Lewis2954</t>
   </si>
   <si>
     <t>Lewis1882</t>
@@ -682,7 +682,7 @@
     <t>Paradoxopsyllus cruvispinus (sic) Miyajima &amp; Koidzumi, 1909; Ceratophyllus subcaecatus Rothschild, 1912</t>
   </si>
   <si>
-    <t>Lewis2969</t>
+    <t>Lewis2961</t>
   </si>
   <si>
     <t>Lewis2001</t>
@@ -718,7 +718,7 @@
     <t>Polygenis platensis cisandinus (Jordan, 1939)</t>
   </si>
   <si>
-    <t>Lewis2985</t>
+    <t>Lewis2977</t>
   </si>
   <si>
     <t>Lewis2218</t>
@@ -748,7 +748,7 @@
     <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
   </si>
   <si>
-    <t>Lewis2994</t>
+    <t>Lewis2986</t>
   </si>
   <si>
     <t>Lewis2257</t>
@@ -781,7 +781,7 @@
     <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
   </si>
   <si>
-    <t>Lewis2995</t>
+    <t>Lewis2987</t>
   </si>
   <si>
     <t>Lewis2260</t>
@@ -808,7 +808,7 @@
     <t>Stenoponia tripectinata ssp. barcana, blanda, irakana, medialis, separata spinellosa Jordan, 1958 (see Beaucournu, 2013)</t>
   </si>
   <si>
-    <t>Lewis3017</t>
+    <t>Lewis3009</t>
   </si>
   <si>
     <t>Lewis2452</t>
@@ -841,7 +841,7 @@
     <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
   </si>
   <si>
-    <t>Lewis3023</t>
+    <t>Lewis3015</t>
   </si>
   <si>
     <t>Lewis2533</t>
@@ -868,7 +868,7 @@
     <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
   </si>
   <si>
-    <t>Lewis3042</t>
+    <t>Lewis3034</t>
   </si>
   <si>
     <t>Lewis2710</t>
@@ -898,7 +898,7 @@
     <t>Ceratophyllus mustelae Wagner, 1898 (junior homonym)</t>
   </si>
   <si>
-    <t>Lewis3052</t>
+    <t>Lewis3044</t>
   </si>
   <si>
     <t>Lewis84</t>
@@ -931,7 +931,7 @@
     <t>Typhlopsylla sibirica Wagner, 1901 (junior homonym); Ceratophyllus thoracicus Rothschild, 1911</t>
   </si>
   <si>
-    <t>Lewis3058</t>
+    <t>Lewis3050</t>
   </si>
   <si>
     <t>Lewis153</t>
@@ -961,7 +961,7 @@
     <t>Ceratophyllus chaoi Wang, 1957 (junior homonym)</t>
   </si>
   <si>
-    <t>Lewis3068</t>
+    <t>Lewis3060</t>
   </si>
   <si>
     <t>Lewis328</t>
@@ -991,7 +991,7 @@
     <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
   </si>
   <si>
-    <t>Lewis3083</t>
+    <t>Lewis3075</t>
   </si>
   <si>
     <t>Lewis549</t>
@@ -1027,7 +1027,7 @@
     <t>Palaeopsylla makaluensis Brelih, 1975 (Male)</t>
   </si>
   <si>
-    <t>Lewis3144</t>
+    <t>Lewis3136</t>
   </si>
   <si>
     <t>Lewis1941</t>
@@ -1051,834 +1051,834 @@
     <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946 (suppressed by ICZN)</t>
   </si>
   <si>
+    <t>Lewis3147</t>
+  </si>
+  <si>
+    <t>Lewis2314</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla li transbaikalica Ioff &amp; Tiflov, 1947</t>
+  </si>
+  <si>
+    <t>acuminata</t>
+  </si>
+  <si>
+    <t>Ioff &amp; Tiflov, 1946</t>
+  </si>
+  <si>
+    <t>suppressed by ICZN</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla acuminata</t>
+  </si>
+  <si>
+    <t>Monopsyllus</t>
+  </si>
+  <si>
+    <t>thamba</t>
+  </si>
+  <si>
+    <t>Ceratophyllus bakeri Wagner, 1933; Monopsyllus enderleini Wagner, 1933 (?)</t>
+  </si>
+  <si>
+    <t>Lewis3169</t>
+  </si>
+  <si>
+    <t>Lewis43</t>
+  </si>
+  <si>
+    <t>Monopsyllus enderleini Wagner, 1933</t>
+  </si>
+  <si>
+    <t>Aetheca thamba (Jordan, 1929)</t>
+  </si>
+  <si>
+    <t>enderleini</t>
+  </si>
+  <si>
+    <t>Wagner, 1933</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Monopsyllus enderleini</t>
+  </si>
+  <si>
+    <t>Lewis3178</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis Chao, 1947</t>
+  </si>
+  <si>
+    <t>Chao, 1947</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
+    <t>Lewis3186</t>
+  </si>
+  <si>
+    <t>Pulex canis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus</t>
+  </si>
+  <si>
+    <t>intermedius</t>
+  </si>
+  <si>
+    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
+  </si>
+  <si>
+    <t>Lewis3196</t>
+  </si>
+  <si>
+    <t>Lewis1215</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
+  </si>
+  <si>
+    <t>schmitzi</t>
+  </si>
+  <si>
+    <t>Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>female Ischnopsyllus intermedius</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi</t>
+  </si>
+  <si>
+    <t>needhami</t>
+  </si>
+  <si>
+    <t>Hsu</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus wassilii Scalon 1935; Ischnopsyllus vasilii Skalon (in Argyropulo, 1948)</t>
+  </si>
+  <si>
+    <t>Lewis3197</t>
+  </si>
+  <si>
+    <t>Lewis1220</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus vasilii Skalon</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus needhami Hsu, 1935</t>
+  </si>
+  <si>
+    <t>vasilii</t>
+  </si>
+  <si>
+    <t>Skalon</t>
+  </si>
+  <si>
+    <t>in Argyropulo, 1948</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus vasilii</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>Lewis3199</t>
+  </si>
+  <si>
+    <t>Lewis1328</t>
+  </si>
+  <si>
+    <t>Pulex musculi Bouché, 1835</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Bouché, 1835</t>
+  </si>
+  <si>
+    <t>junior homonym of Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
+    <t>Oropsylla</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>(Baker)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Lewis3218</t>
+  </si>
+  <si>
+    <t>Lewis1859</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina</t>
+  </si>
+  <si>
+    <t>Oropsylla montana (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>mandarina</t>
+  </si>
+  <si>
+    <t>isacantha</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla isacantha continentalis Smit, 1957; Rhadinopsylla pitymydis (Zavattari, 1914)</t>
+  </si>
+  <si>
+    <t>Lewis3232</t>
+  </si>
+  <si>
+    <t>Lewis2307</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla pitymydis</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla isacantha (Rothschild, 1907)</t>
+  </si>
+  <si>
+    <t>pitymydis</t>
+  </si>
+  <si>
+    <t>sectilis</t>
+  </si>
+  <si>
+    <t>Micropsylla peromyscus Dunn, 1923; Rhadinopsylla sectilis goodi (Hubbard, 1941)</t>
+  </si>
+  <si>
+    <t>Lewis3233</t>
+  </si>
+  <si>
+    <t>Lewis2332</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla sectilis goodi</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla sectilis Jordan &amp; Rothschild, 1923</t>
+  </si>
+  <si>
+    <t>goodi</t>
+  </si>
+  <si>
+    <t>pallidus</t>
+  </si>
+  <si>
+    <t>(Taschenberg)</t>
+  </si>
+  <si>
+    <t>Synosternus pallidus infestus Wagner, 1933; Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
+  </si>
+  <si>
+    <t>Lewis3238</t>
+  </si>
+  <si>
+    <t>Lewis2511</t>
+  </si>
+  <si>
+    <t>Pulex witherbyi Rothschild</t>
+  </si>
+  <si>
+    <t>Synosternus pallidus (Taschenberg, 1880)</t>
+  </si>
+  <si>
+    <t>witherbyi</t>
+  </si>
+  <si>
+    <t>Rothschild</t>
+  </si>
+  <si>
+    <t>in: Witherby, 1902</t>
+  </si>
+  <si>
+    <t>Pulex witherbyi</t>
+  </si>
+  <si>
+    <t>Glauertidos</t>
+  </si>
+  <si>
+    <t>scintilla scintilla</t>
+  </si>
+  <si>
+    <t>(M. Rothschild)</t>
+  </si>
+  <si>
+    <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
+  </si>
+  <si>
+    <t>Lewis3250</t>
+  </si>
+  <si>
+    <t>Lewis19</t>
+  </si>
+  <si>
+    <t>Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllidae</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllinae</t>
+  </si>
+  <si>
+    <t>Atyphoceras</t>
+  </si>
+  <si>
+    <t>multidentatus multidentatus</t>
+  </si>
+  <si>
+    <t>(C. Fox)</t>
+  </si>
+  <si>
+    <t>Atyphloceras artius Jordan 1933; Atyphoceras (sic) Atyphloceras felix Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Lewis3257</t>
+  </si>
+  <si>
+    <t>Lewis213</t>
+  </si>
+  <si>
+    <t>Atyphoceras  Atyphloceras felix Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Atyphloceras multidentatus multidentatus (C. Fox, 1909)</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
+    <t>Atyphloceras Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Atyphoceras felix</t>
+  </si>
+  <si>
+    <t>Lewis3266</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>orphilus</t>
+  </si>
+  <si>
+    <t>tatricus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus</t>
+  </si>
+  <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis3314</t>
+  </si>
+  <si>
+    <t>Lewis1728</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>octodecimdentata</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus uralensis Wagner, 1898; Ctenonotus octodecimdentata octodecimdentata Kolenati 1863; Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
+  </si>
+  <si>
+    <t>Lewis3320</t>
+  </si>
+  <si>
+    <t>Lewis2515</t>
+  </si>
+  <si>
+    <t>Opisodasys jellisoni I. Fox, 1941</t>
+  </si>
+  <si>
+    <t>Tarsopsylla octodecimdentata (Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>I. Fox, 1941</t>
+  </si>
+  <si>
+    <t>male Tarsopsylla octodecimdentata</t>
+  </si>
+  <si>
+    <t>Opisodasys jellisoni</t>
+  </si>
+  <si>
+    <t>simplex simplex</t>
+  </si>
+  <si>
+    <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
+  </si>
+  <si>
+    <t>Lewis3330</t>
+  </si>
+  <si>
+    <t>Lewis444</t>
+  </si>
+  <si>
+    <t>Citellophilus simplex simplex (Wagner, 1902)</t>
+  </si>
+  <si>
+    <t>male of Ischnopsyllus simplex simplex</t>
+  </si>
+  <si>
+    <t>agyrtes agyrtes</t>
+  </si>
+  <si>
+    <t>(Heller)</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
+  </si>
+  <si>
+    <t>Lewis3332</t>
+  </si>
+  <si>
+    <t>Lewis538</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
+  </si>
+  <si>
+    <t>Lewis3359</t>
+  </si>
+  <si>
+    <t>Doratopsyllinae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spalacopsylla </t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis2735</t>
+  </si>
+  <si>
+    <t>Lewis41</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930</t>
+  </si>
+  <si>
+    <t>Adoratopsylla Ewing, 1925</t>
+  </si>
+  <si>
+    <t>Pinto, 1930</t>
+  </si>
+  <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
+    <t>Vermipsyllidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncopsylla </t>
+  </si>
+  <si>
+    <t>Kohaut</t>
+  </si>
+  <si>
+    <t>Oncopsylla Wahlgren, 1903 (junior synonym); Achaetopsylla Argyropulo, 1948</t>
+  </si>
+  <si>
+    <t>Lewis2740</t>
+  </si>
+  <si>
+    <t>Lewis401</t>
+  </si>
+  <si>
+    <t>Oncopsylla Wahlgren, 1903</t>
+  </si>
+  <si>
+    <t>Chaetopsylla Kohaut, 1903</t>
+  </si>
+  <si>
+    <t>Wahlgren, 1903</t>
+  </si>
+  <si>
+    <t>Coptopsyllidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracoptopsylla </t>
+  </si>
+  <si>
+    <t>Paracoptopsylla Argyropulo, 1938 (subgenus of Coptopsylla); Macocoptopsylla Ioff, 1953; Neocoptopsylla Wagner, 1932</t>
+  </si>
+  <si>
+    <t>Lewis2741</t>
+  </si>
+  <si>
+    <t>Lewis489</t>
+  </si>
+  <si>
+    <t>Paracoptopsylla Argyropulo, 1938</t>
+  </si>
+  <si>
+    <t>Coptopsylla Jordan &amp; Rothschild, 1908</t>
+  </si>
+  <si>
+    <t>Argyropulo, 1938</t>
+  </si>
+  <si>
+    <t>subgenus of Coptopsylla</t>
+  </si>
+  <si>
+    <t>Kolenati</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Kolenati, 1856 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis2744</t>
+  </si>
+  <si>
+    <t>Lewis828</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Kolenati, 1856</t>
+  </si>
+  <si>
+    <t>Stivaliidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrastivalius </t>
+  </si>
+  <si>
+    <t>Traub</t>
+  </si>
+  <si>
+    <t>Migrastivalius Traub, 1980 (subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis2750</t>
+  </si>
+  <si>
+    <t>Lewis1120</t>
+  </si>
+  <si>
+    <t>Migrastivalius Traub, 1980</t>
+  </si>
+  <si>
+    <t>Gryphopsylla Traub, 1957</t>
+  </si>
+  <si>
+    <t>Traub, 1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hystroceras </t>
+  </si>
+  <si>
+    <t>Taschenberg</t>
+  </si>
+  <si>
+    <t>Hystroceras Ioff &amp; Scalon, 1950 (unrecognized subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis2752</t>
+  </si>
+  <si>
+    <t>Lewis1198</t>
+  </si>
+  <si>
+    <t>Hystroceras Ioff &amp; Scalon, 1950</t>
+  </si>
+  <si>
+    <t>Hystrichopsylla Taschenberg, 1880</t>
+  </si>
+  <si>
+    <t>Ioff &amp; Scalon, 1950</t>
+  </si>
+  <si>
+    <t>unrecognized subgenus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleochaetoides </t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis2754</t>
+  </si>
+  <si>
+    <t>Lewis1252</t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944</t>
+  </si>
+  <si>
+    <t>Jellisonia Traub, 1944</t>
+  </si>
+  <si>
+    <t>Augustson, 1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myodopsylloides </t>
+  </si>
+  <si>
+    <t>Myodopsylloides Augustson, 1941 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis2760</t>
+  </si>
+  <si>
+    <t>Lewis1574</t>
+  </si>
+  <si>
+    <t>Myodopsylloides Augustson, 1941</t>
+  </si>
+  <si>
+    <t>Myodopsylla Jordan &amp; Rothschild, 1911</t>
+  </si>
+  <si>
+    <t>Augustson, 1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goniopsyllus </t>
+  </si>
+  <si>
+    <t>Goniopsyllus Baker, 1906 (preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus)</t>
+  </si>
+  <si>
+    <t>Lewis2762</t>
+  </si>
+  <si>
+    <t>Lewis1763</t>
+  </si>
+  <si>
+    <t>Goniopsyllus Baker, 1906</t>
+  </si>
+  <si>
+    <t>Notiopsylla Jordan &amp; Rothschild, 1914</t>
+  </si>
+  <si>
+    <t>Baker, 1906</t>
+  </si>
+  <si>
+    <t>preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectofrontia </t>
+  </si>
+  <si>
+    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus); Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
+  </si>
+  <si>
+    <t>Lewis2766</t>
+  </si>
+  <si>
+    <t>Lewis2344</t>
+  </si>
+  <si>
+    <t>Rectofrontia Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla Jordan &amp; Rothschild, 1912</t>
+  </si>
+  <si>
+    <t>Wagner, 1930</t>
+  </si>
+  <si>
+    <t>synonym of subgenus Actenophthalmus</t>
+  </si>
+  <si>
+    <t>Anomiopsyllinae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miochaeta </t>
+  </si>
+  <si>
+    <t>Miochaeta Good, 1942 (sunken subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis2768</t>
+  </si>
+  <si>
+    <t>Lewis2427</t>
+  </si>
+  <si>
+    <t>Miochaeta Good, 1942</t>
+  </si>
+  <si>
+    <t>Stenistomera Rothschild, 1915</t>
+  </si>
+  <si>
+    <t>Good, 1942</t>
+  </si>
+  <si>
+    <t>sunken subgenus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomadopsylla </t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis); Pandoropsylla Stark, 1970 (junior synonym of Thrassis); Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
+  </si>
+  <si>
+    <t>Lewis2771</t>
+  </si>
+  <si>
+    <t>Lewis2544</t>
+  </si>
+  <si>
+    <t>Nomadopsylla Stark, 1970</t>
+  </si>
+  <si>
+    <t>Thrassis Jordan, 1933</t>
+  </si>
+  <si>
+    <t>Stark, 1970</t>
+  </si>
+  <si>
+    <t>junior synonym of Thrassis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichopsylla </t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
     <t>Lewis3155</t>
   </si>
   <si>
-    <t>Lewis2314</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla acuminata Ioff &amp; Tiflov, 1946</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla li transbaikalica Ioff &amp; Tiflov, 1947</t>
-  </si>
-  <si>
-    <t>acuminata</t>
-  </si>
-  <si>
-    <t>Ioff &amp; Tiflov, 1946</t>
-  </si>
-  <si>
-    <t>suppressed by ICZN</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla acuminata</t>
-  </si>
-  <si>
-    <t>Monopsyllus</t>
-  </si>
-  <si>
-    <t>thamba</t>
-  </si>
-  <si>
-    <t>Ceratophyllus bakeri Wagner, 1933; Monopsyllus enderleini Wagner, 1933 (?)</t>
-  </si>
-  <si>
-    <t>Lewis3177</t>
-  </si>
-  <si>
-    <t>Lewis43</t>
-  </si>
-  <si>
-    <t>Monopsyllus enderleini Wagner, 1933</t>
-  </si>
-  <si>
-    <t>Aetheca thamba (Jordan, 1929)</t>
-  </si>
-  <si>
-    <t>enderleini</t>
-  </si>
-  <si>
-    <t>Wagner, 1933</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Monopsyllus enderleini</t>
-  </si>
-  <si>
-    <t>Lewis3186</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis Chao, 1947</t>
-  </si>
-  <si>
-    <t>Chao, 1947</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis</t>
-  </si>
-  <si>
-    <t>Lewis3194</t>
-  </si>
-  <si>
-    <t>Pulex canis Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Ischnopsyllidae</t>
-  </si>
-  <si>
-    <t>Ischnopsyllinae</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus</t>
-  </si>
-  <si>
-    <t>intermedius</t>
-  </si>
-  <si>
-    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
-  </si>
-  <si>
-    <t>Lewis3204</t>
-  </si>
-  <si>
-    <t>Lewis1215</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
-  </si>
-  <si>
-    <t>schmitzi</t>
-  </si>
-  <si>
-    <t>Oudemans, 1909</t>
-  </si>
-  <si>
-    <t>female Ischnopsyllus intermedius</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus schmitzi</t>
-  </si>
-  <si>
-    <t>needhami</t>
-  </si>
-  <si>
-    <t>Hsu</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus wassilii Scalon 1935; Ischnopsyllus vasilii Skalon (in Argyropulo, 1948)</t>
-  </si>
-  <si>
-    <t>Lewis3205</t>
-  </si>
-  <si>
-    <t>Lewis1220</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus vasilii Skalon</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus needhami Hsu, 1935</t>
-  </si>
-  <si>
-    <t>vasilii</t>
-  </si>
-  <si>
-    <t>Skalon</t>
-  </si>
-  <si>
-    <t>in Argyropulo, 1948</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus vasilii</t>
-  </si>
-  <si>
-    <t>Leptopsyllinae</t>
-  </si>
-  <si>
-    <t>segnis</t>
-  </si>
-  <si>
-    <t>(Schönherr)</t>
-  </si>
-  <si>
-    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
-  </si>
-  <si>
-    <t>Lewis3207</t>
-  </si>
-  <si>
-    <t>Lewis1328</t>
-  </si>
-  <si>
-    <t>Pulex musculi Bouché, 1835</t>
-  </si>
-  <si>
-    <t>Leptopsylla segnis (Schönherr, 1811)</t>
-  </si>
-  <si>
-    <t>musculi</t>
-  </si>
-  <si>
-    <t>Bouché, 1835</t>
-  </si>
-  <si>
-    <t>junior homonym of Pulex musculi Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Pulex musculi</t>
-  </si>
-  <si>
-    <t>Oropsylla</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>(Baker)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
-  </si>
-  <si>
-    <t>Lewis3226</t>
-  </si>
-  <si>
-    <t>Lewis1859</t>
-  </si>
-  <si>
-    <t>Oropsylla montana mandarina</t>
-  </si>
-  <si>
-    <t>Oropsylla montana (Baker, 1895)</t>
-  </si>
-  <si>
-    <t>mandarina</t>
-  </si>
-  <si>
-    <t>isacantha</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla isacantha continentalis Smit, 1957; Rhadinopsylla pitymydis (Zavattari, 1914)</t>
-  </si>
-  <si>
-    <t>Lewis3240</t>
-  </si>
-  <si>
-    <t>Lewis2307</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla pitymydis</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla isacantha (Rothschild, 1907)</t>
-  </si>
-  <si>
-    <t>pitymydis</t>
-  </si>
-  <si>
-    <t>sectilis</t>
-  </si>
-  <si>
-    <t>Micropsylla peromyscus Dunn, 1923; Rhadinopsylla sectilis goodi (Hubbard, 1941)</t>
-  </si>
-  <si>
-    <t>Lewis3241</t>
-  </si>
-  <si>
-    <t>Lewis2332</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla sectilis goodi</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla sectilis Jordan &amp; Rothschild, 1923</t>
-  </si>
-  <si>
-    <t>goodi</t>
-  </si>
-  <si>
-    <t>pallidus</t>
-  </si>
-  <si>
-    <t>(Taschenberg)</t>
-  </si>
-  <si>
-    <t>Synosternus pallidus infestus Wagner, 1933; Pulex witherbyi Rothschild (in: Witherby, 1902)</t>
-  </si>
-  <si>
-    <t>Lewis3246</t>
-  </si>
-  <si>
-    <t>Lewis2511</t>
-  </si>
-  <si>
-    <t>Pulex witherbyi Rothschild</t>
-  </si>
-  <si>
-    <t>Synosternus pallidus (Taschenberg, 1880)</t>
-  </si>
-  <si>
-    <t>witherbyi</t>
-  </si>
-  <si>
-    <t>Rothschild</t>
-  </si>
-  <si>
-    <t>in: Witherby, 1902</t>
-  </si>
-  <si>
-    <t>Pulex witherbyi</t>
-  </si>
-  <si>
-    <t>Glauertidos</t>
-  </si>
-  <si>
-    <t>scintilla scintilla</t>
-  </si>
-  <si>
-    <t>(M. Rothschild)</t>
-  </si>
-  <si>
-    <t>Glauertia scintilla M. Rothschild, 1936; Glauertidos M. Rothschild, 1937 (nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922)</t>
-  </si>
-  <si>
-    <t>Lewis3258</t>
-  </si>
-  <si>
-    <t>Lewis19</t>
-  </si>
-  <si>
-    <t>Glauertidos M. Rothschild, 1937</t>
-  </si>
-  <si>
-    <t>Acanthopsylla scintilla scintilla (M. Rothschild, 1936)</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>M. Rothschild, 1937</t>
-  </si>
-  <si>
-    <t>nomen novum for Glauertia = Acanthopsylla Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllidae</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllinae</t>
-  </si>
-  <si>
-    <t>Atyphoceras</t>
-  </si>
-  <si>
-    <t>multidentatus multidentatus</t>
-  </si>
-  <si>
-    <t>(C. Fox)</t>
-  </si>
-  <si>
-    <t>Atyphloceras artius Jordan 1933; Atyphoceras (sic) Atyphloceras felix Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Lewis3265</t>
-  </si>
-  <si>
-    <t>Lewis213</t>
-  </si>
-  <si>
-    <t>Atyphoceras  Atyphloceras felix Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Atyphloceras multidentatus multidentatus (C. Fox, 1909)</t>
-  </si>
-  <si>
-    <t>felix</t>
-  </si>
-  <si>
-    <t>Atyphloceras Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Atyphoceras felix</t>
-  </si>
-  <si>
-    <t>Lewis3274</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
-  </si>
-  <si>
-    <t>orphilus</t>
-  </si>
-  <si>
-    <t>tatricus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus orphilus tatricus</t>
-  </si>
-  <si>
-    <t>mokrzeckyi</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
-  </si>
-  <si>
-    <t>Lewis3322</t>
-  </si>
-  <si>
-    <t>Lewis1728</t>
-  </si>
-  <si>
-    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
-  </si>
-  <si>
-    <t>octodecimdentata</t>
-  </si>
-  <si>
-    <t>(Kolenati)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus uralensis Wagner, 1898; Ctenonotus octodecimdentata octodecimdentata Kolenati 1863; Opisodasys jellisoni I. Fox, 1941 (male Tarsopsylla octodecimdentata)</t>
-  </si>
-  <si>
-    <t>Lewis3328</t>
-  </si>
-  <si>
-    <t>Lewis2515</t>
-  </si>
-  <si>
-    <t>Opisodasys jellisoni I. Fox, 1941</t>
-  </si>
-  <si>
-    <t>Tarsopsylla octodecimdentata (Kolenati, 1863)</t>
-  </si>
-  <si>
-    <t>I. Fox, 1941</t>
-  </si>
-  <si>
-    <t>male Tarsopsylla octodecimdentata</t>
-  </si>
-  <si>
-    <t>Opisodasys jellisoni</t>
-  </si>
-  <si>
-    <t>simplex simplex</t>
-  </si>
-  <si>
-    <t>Ceratophyllus danubianus Rothschild, 1909; Citellophilus simplex domicae Rosicky, 1956; Ischnopsyllus schmitzi Oudemans, 1909 (male of Ischnopsyllus simplex simplex)</t>
-  </si>
-  <si>
-    <t>Lewis3338</t>
-  </si>
-  <si>
-    <t>Lewis444</t>
-  </si>
-  <si>
-    <t>Citellophilus simplex simplex (Wagner, 1902)</t>
-  </si>
-  <si>
-    <t>male of Ischnopsyllus simplex simplex</t>
-  </si>
-  <si>
-    <t>agyrtes agyrtes</t>
-  </si>
-  <si>
-    <t>(Heller)</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtoides Wahlgren, 1911; Ctenophthalmus agyrtes hanzaki Rosicky, 1951; Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim)</t>
-  </si>
-  <si>
-    <t>Lewis3340</t>
-  </si>
-  <si>
-    <t>Lewis538</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus agyrtes agyrtes (Heller, 1896)</t>
-  </si>
-  <si>
-    <t>Lewis3367</t>
-  </si>
-  <si>
-    <t>Doratopsyllinae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spalacopsylla </t>
-  </si>
-  <si>
-    <t>Ewing</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
-  </si>
-  <si>
-    <t>Lewis2743</t>
-  </si>
-  <si>
-    <t>Lewis41</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Pinto, 1930</t>
-  </si>
-  <si>
-    <t>Adoratopsylla Ewing, 1925</t>
-  </si>
-  <si>
-    <t>Pinto, 1930</t>
-  </si>
-  <si>
-    <t>junior synonym</t>
-  </si>
-  <si>
-    <t>Vermipsyllidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncopsylla </t>
-  </si>
-  <si>
-    <t>Kohaut</t>
-  </si>
-  <si>
-    <t>Oncopsylla Wahlgren, 1903 (junior synonym); Achaetopsylla Argyropulo, 1948</t>
-  </si>
-  <si>
-    <t>Lewis2748</t>
-  </si>
-  <si>
-    <t>Lewis401</t>
-  </si>
-  <si>
-    <t>Oncopsylla Wahlgren, 1903</t>
-  </si>
-  <si>
-    <t>Chaetopsylla Kohaut, 1903</t>
-  </si>
-  <si>
-    <t>Wahlgren, 1903</t>
-  </si>
-  <si>
-    <t>Coptopsyllidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracoptopsylla </t>
-  </si>
-  <si>
-    <t>Paracoptopsylla Argyropulo, 1938 (subgenus of Coptopsylla); Macocoptopsylla Ioff, 1953; Neocoptopsylla Wagner, 1932</t>
-  </si>
-  <si>
-    <t>Lewis2749</t>
-  </si>
-  <si>
-    <t>Lewis489</t>
-  </si>
-  <si>
-    <t>Paracoptopsylla Argyropulo, 1938</t>
-  </si>
-  <si>
-    <t>Coptopsylla Jordan &amp; Rothschild, 1908</t>
-  </si>
-  <si>
-    <t>Argyropulo, 1938</t>
-  </si>
-  <si>
-    <t>subgenus of Coptopsylla</t>
-  </si>
-  <si>
-    <t>Kolenati</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Kolenati, 1856 (junior synonym)</t>
-  </si>
-  <si>
-    <t>Lewis2752</t>
-  </si>
-  <si>
-    <t>Lewis828</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Kolenati, 1856</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus Kolenati, 1856</t>
-  </si>
-  <si>
-    <t>Kolenati, 1856</t>
-  </si>
-  <si>
-    <t>Stivaliidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrastivalius </t>
-  </si>
-  <si>
-    <t>Traub</t>
-  </si>
-  <si>
-    <t>Migrastivalius Traub, 1980 (subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis2758</t>
-  </si>
-  <si>
-    <t>Lewis1120</t>
-  </si>
-  <si>
-    <t>Migrastivalius Traub, 1980</t>
-  </si>
-  <si>
-    <t>Gryphopsylla Traub, 1957</t>
-  </si>
-  <si>
-    <t>Traub, 1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hystroceras </t>
-  </si>
-  <si>
-    <t>Taschenberg</t>
-  </si>
-  <si>
-    <t>Hystroceras Ioff &amp; Scalon, 1950 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis2760</t>
-  </si>
-  <si>
-    <t>Lewis1198</t>
-  </si>
-  <si>
-    <t>Hystroceras Ioff &amp; Scalon, 1950</t>
-  </si>
-  <si>
-    <t>Hystrichopsylla Taschenberg, 1880</t>
-  </si>
-  <si>
-    <t>Ioff &amp; Scalon, 1950</t>
-  </si>
-  <si>
-    <t>unrecognized subgenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleochaetoides </t>
-  </si>
-  <si>
-    <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis2762</t>
-  </si>
-  <si>
-    <t>Lewis1252</t>
-  </si>
-  <si>
-    <t>Pleochaetoides Augustson, 1944</t>
-  </si>
-  <si>
-    <t>Jellisonia Traub, 1944</t>
-  </si>
-  <si>
-    <t>Augustson, 1944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myodopsylloides </t>
-  </si>
-  <si>
-    <t>Myodopsylloides Augustson, 1941 (junior synonym)</t>
-  </si>
-  <si>
-    <t>Lewis2768</t>
-  </si>
-  <si>
-    <t>Lewis1574</t>
-  </si>
-  <si>
-    <t>Myodopsylloides Augustson, 1941</t>
-  </si>
-  <si>
-    <t>Myodopsylla Jordan &amp; Rothschild, 1911</t>
-  </si>
-  <si>
-    <t>Augustson, 1941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goniopsyllus </t>
-  </si>
-  <si>
-    <t>Goniopsyllus Baker, 1906 (preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus)</t>
-  </si>
-  <si>
-    <t>Lewis2770</t>
-  </si>
-  <si>
-    <t>Lewis1763</t>
-  </si>
-  <si>
-    <t>Goniopsyllus Baker, 1906</t>
-  </si>
-  <si>
-    <t>Notiopsylla Jordan &amp; Rothschild, 1914</t>
-  </si>
-  <si>
-    <t>Baker, 1906</t>
-  </si>
-  <si>
-    <t>preoccupied as genus of Crestacea, Jordan &amp; Rothschild, 1914 proposed Notiopsylla as nomen novum for Goniopsyllus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectofrontia </t>
-  </si>
-  <si>
-    <t>Rectofrontia Wagner, 1930 (synonym of subgenus Actenophthalmus); Rangulpsylla Darskaya, 1949 (synonym of subgenus Actenophthalmus)</t>
-  </si>
-  <si>
-    <t>Lewis2774</t>
-  </si>
-  <si>
-    <t>Lewis2344</t>
-  </si>
-  <si>
-    <t>Rectofrontia Wagner, 1930</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla Jordan &amp; Rothschild, 1912</t>
-  </si>
-  <si>
-    <t>Wagner, 1930</t>
-  </si>
-  <si>
-    <t>synonym of subgenus Actenophthalmus</t>
-  </si>
-  <si>
-    <t>Anomiopsyllinae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miochaeta </t>
-  </si>
-  <si>
-    <t>Miochaeta Good, 1942 (sunken subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis2776</t>
-  </si>
-  <si>
-    <t>Lewis2427</t>
-  </si>
-  <si>
-    <t>Miochaeta Good, 1942</t>
-  </si>
-  <si>
-    <t>Stenistomera Rothschild, 1915</t>
-  </si>
-  <si>
-    <t>Good, 1942</t>
-  </si>
-  <si>
-    <t>sunken subgenus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomadopsylla </t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Nomadopsylla Stark, 1970 (junior synonym of Thrassis); Pandoropsylla Stark, 1970 (junior synonym of Thrassis); Thrassoides Stark, 1970 (junior synonym of Thrassis)</t>
-  </si>
-  <si>
-    <t>Lewis2779</t>
-  </si>
-  <si>
-    <t>Lewis2544</t>
-  </si>
-  <si>
-    <t>Nomadopsylla Stark, 1970</t>
-  </si>
-  <si>
-    <t>Thrassis Jordan, 1933</t>
-  </si>
-  <si>
-    <t>Stark, 1970</t>
-  </si>
-  <si>
-    <t>junior synonym of Thrassis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichopsylla </t>
-  </si>
-  <si>
-    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+    <t>Lewis91</t>
+  </si>
+  <si>
+    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1920</t>
+  </si>
+  <si>
+    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
+    <t>Ceratopsylla Wagner, 1988??; Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis3160</t>
+  </si>
+  <si>
+    <t>Lewis1234</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus Westwood, 1833</t>
+  </si>
+  <si>
+    <t>Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jellisonia </t>
+  </si>
+  <si>
+    <t>Lewis3161</t>
+  </si>
+  <si>
+    <t>Traub, 1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aneptescopsylla </t>
+  </si>
+  <si>
+    <t>Oudemans</t>
+  </si>
+  <si>
+    <t>Eptescopsylla I. Fox, 1940; Aneptescopsylla Ioff, 1953 (unrecognized subgenus); Dinycteridopsylla Ioff, 1953 (unrecognized subgenus); Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
   </si>
   <si>
     <t>Lewis3163</t>
   </si>
   <si>
-    <t>Lewis91</t>
-  </si>
-  <si>
-    <t>Trichopsylla Jordan &amp; Rothschild, 1920</t>
-  </si>
-  <si>
-    <t>Amalaraeus Ioff, 1936</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1920</t>
-  </si>
-  <si>
-    <t>junior homonym of Trichopsylla Kolenati, 1863</t>
-  </si>
-  <si>
-    <t>Westwood</t>
-  </si>
-  <si>
-    <t>Ceratopsylla Wagner, 1988??; Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis3168</t>
-  </si>
-  <si>
-    <t>Lewis1234</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
-  </si>
-  <si>
-    <t>Ischnopsyllus Westwood, 1833</t>
-  </si>
-  <si>
-    <t>Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jellisonia </t>
-  </si>
-  <si>
-    <t>Lewis3169</t>
-  </si>
-  <si>
-    <t>Traub, 1944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aneptescopsylla </t>
-  </si>
-  <si>
-    <t>Oudemans</t>
-  </si>
-  <si>
-    <t>Eptescopsylla I. Fox, 1940; Aneptescopsylla Ioff, 1953 (unrecognized subgenus); Dinycteridopsylla Ioff, 1953 (unrecognized subgenus); Hexanycteropsylla Ioff, 1953 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis3171</t>
-  </si>
-  <si>
     <t>Lewis1785</t>
   </si>
   <si>
@@ -1894,7 +1894,7 @@
     <t xml:space="preserve">Rangulpsylla </t>
   </si>
   <si>
-    <t>Lewis3172</t>
+    <t>Lewis3164</t>
   </si>
   <si>
     <t>Rangulpsylla Darskaya, 1949</t>
@@ -1906,13 +1906,13 @@
     <t xml:space="preserve">Pandoropsylla </t>
   </si>
   <si>
-    <t>Lewis3173</t>
+    <t>Lewis3165</t>
   </si>
   <si>
     <t>Pandoropsylla Stark, 1970</t>
   </si>
   <si>
-    <t>Lewis3293</t>
+    <t>Lewis3285</t>
   </si>
   <si>
     <t>Trichopsylla Ewing &amp; Fox, 1943</t>
@@ -1924,7 +1924,7 @@
     <t xml:space="preserve">Dinycteridopsylla </t>
   </si>
   <si>
-    <t>Lewis3297</t>
+    <t>Lewis3289</t>
   </si>
   <si>
     <t>Dinycteridopsylla Ioff, 1953</t>
@@ -1933,7 +1933,7 @@
     <t xml:space="preserve">Thrassoides </t>
   </si>
   <si>
-    <t>Lewis3298</t>
+    <t>Lewis3290</t>
   </si>
   <si>
     <t>Thrassoides Stark, 1970</t>
@@ -1951,7 +1951,7 @@
     <t>Dermatophilus Guérin, 1840; Dermatophylus Lucas, 1839; Psammodes Gistel 1850 (1847?); Rhynchoprion Karsten, 1864; Sarcophaga Westwood, 1840</t>
   </si>
   <si>
-    <t>Lewis3299</t>
+    <t>Lewis3291</t>
   </si>
   <si>
     <t>Lewis2592</t>
@@ -1972,7 +1972,7 @@
     <t xml:space="preserve">Hirtopsylla </t>
   </si>
   <si>
-    <t>Lewis3349</t>
+    <t>Lewis3341</t>
   </si>
   <si>
     <t>Hirtopsylla Argyropulo, 1948</t>
@@ -1984,7 +1984,7 @@
     <t xml:space="preserve">Hexanycteropsylla </t>
   </si>
   <si>
-    <t>Lewis3350</t>
+    <t>Lewis3342</t>
   </si>
   <si>
     <t>Hexanycteropsylla Ioff, 1953</t>
@@ -3024,7 +3024,7 @@
         <v>43</v>
       </c>
       <c r="I2">
-        <v>3177</v>
+        <v>3169</v>
       </c>
       <c r="J2" t="s">
         <v>354</v>
@@ -3146,7 +3146,7 @@
         <v>43</v>
       </c>
       <c r="I3">
-        <v>3299</v>
+        <v>3291</v>
       </c>
       <c r="J3" t="s">
         <v>643</v>
@@ -3268,7 +3268,7 @@
         <v>43</v>
       </c>
       <c r="I4">
-        <v>2785</v>
+        <v>2777</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="I5">
-        <v>2865</v>
+        <v>2857</v>
       </c>
       <c r="J5" t="s">
         <v>144</v>
@@ -3512,7 +3512,7 @@
         <v>43</v>
       </c>
       <c r="I6">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="J6" t="s">
         <v>155</v>
@@ -3634,7 +3634,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2962</v>
+        <v>2954</v>
       </c>
       <c r="J7" t="s">
         <v>209</v>
@@ -3756,7 +3756,7 @@
         <v>43</v>
       </c>
       <c r="I8">
-        <v>2994</v>
+        <v>2986</v>
       </c>
       <c r="J8" t="s">
         <v>242</v>
@@ -3878,7 +3878,7 @@
         <v>43</v>
       </c>
       <c r="I9">
-        <v>3204</v>
+        <v>3196</v>
       </c>
       <c r="J9" t="s">
         <v>374</v>
@@ -4000,7 +4000,7 @@
         <v>43</v>
       </c>
       <c r="I10">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="J10" t="s">
         <v>198</v>
@@ -4122,7 +4122,7 @@
         <v>43</v>
       </c>
       <c r="I11">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="J11" t="s">
         <v>385</v>
@@ -4244,7 +4244,7 @@
         <v>43</v>
       </c>
       <c r="I12">
-        <v>3246</v>
+        <v>3238</v>
       </c>
       <c r="J12" t="s">
         <v>431</v>
@@ -4366,7 +4366,7 @@
         <v>43</v>
       </c>
       <c r="I13">
-        <v>2937</v>
+        <v>2929</v>
       </c>
       <c r="J13" t="s">
         <v>186</v>
@@ -4488,7 +4488,7 @@
         <v>43</v>
       </c>
       <c r="I14">
-        <v>3207</v>
+        <v>3199</v>
       </c>
       <c r="J14" t="s">
         <v>397</v>
@@ -4610,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="I15">
-        <v>3163</v>
+        <v>3155</v>
       </c>
       <c r="J15" t="s">
         <v>599</v>
@@ -4732,7 +4732,7 @@
         <v>43</v>
       </c>
       <c r="I16">
-        <v>3293</v>
+        <v>3285</v>
       </c>
       <c r="J16" t="s">
         <v>630</v>
@@ -4854,7 +4854,7 @@
         <v>43</v>
       </c>
       <c r="I17">
-        <v>2779</v>
+        <v>2771</v>
       </c>
       <c r="J17" t="s">
         <v>591</v>
@@ -4976,7 +4976,7 @@
         <v>43</v>
       </c>
       <c r="I18">
-        <v>3173</v>
+        <v>3165</v>
       </c>
       <c r="J18" t="s">
         <v>628</v>
@@ -5098,7 +5098,7 @@
         <v>43</v>
       </c>
       <c r="I19">
-        <v>3298</v>
+        <v>3290</v>
       </c>
       <c r="J19" t="s">
         <v>637</v>
@@ -5220,7 +5220,7 @@
         <v>43</v>
       </c>
       <c r="I20">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="J20" t="s">
         <v>82</v>
@@ -5342,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="I21">
-        <v>2995</v>
+        <v>2987</v>
       </c>
       <c r="J21" t="s">
         <v>253</v>
@@ -5464,7 +5464,7 @@
         <v>43</v>
       </c>
       <c r="I22">
-        <v>3144</v>
+        <v>3136</v>
       </c>
       <c r="J22" t="s">
         <v>335</v>
@@ -5586,7 +5586,7 @@
         <v>43</v>
       </c>
       <c r="I23">
-        <v>3338</v>
+        <v>3330</v>
       </c>
       <c r="J23" t="s">
         <v>485</v>
@@ -5708,7 +5708,7 @@
         <v>43</v>
       </c>
       <c r="I24">
-        <v>3328</v>
+        <v>3320</v>
       </c>
       <c r="J24" t="s">
         <v>476</v>
@@ -5830,7 +5830,7 @@
         <v>43</v>
       </c>
       <c r="I25">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="J25" t="s">
         <v>175</v>
@@ -5952,7 +5952,7 @@
         <v>43</v>
       </c>
       <c r="I26">
-        <v>3258</v>
+        <v>3250</v>
       </c>
       <c r="J26" t="s">
         <v>443</v>
@@ -6074,7 +6074,7 @@
         <v>43</v>
       </c>
       <c r="I27">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
@@ -6196,7 +6196,7 @@
         <v>43</v>
       </c>
       <c r="I28">
-        <v>2784</v>
+        <v>2776</v>
       </c>
       <c r="J28" t="s">
         <v>56</v>
@@ -6318,7 +6318,7 @@
         <v>43</v>
       </c>
       <c r="I29">
-        <v>2786</v>
+        <v>2778</v>
       </c>
       <c r="J29" t="s">
         <v>70</v>
@@ -6440,7 +6440,7 @@
         <v>43</v>
       </c>
       <c r="I30">
-        <v>2787</v>
+        <v>2779</v>
       </c>
       <c r="J30" t="s">
         <v>76</v>
@@ -6562,7 +6562,7 @@
         <v>43</v>
       </c>
       <c r="I31">
-        <v>2790</v>
+        <v>2782</v>
       </c>
       <c r="J31" t="s">
         <v>96</v>
@@ -6684,7 +6684,7 @@
         <v>43</v>
       </c>
       <c r="I32">
-        <v>2789</v>
+        <v>2781</v>
       </c>
       <c r="J32" t="s">
         <v>89</v>
@@ -6806,7 +6806,7 @@
         <v>43</v>
       </c>
       <c r="I33">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="J33" t="s">
         <v>282</v>
@@ -6928,7 +6928,7 @@
         <v>43</v>
       </c>
       <c r="I34">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="J34" t="s">
         <v>323</v>
@@ -7050,7 +7050,7 @@
         <v>43</v>
       </c>
       <c r="I35">
-        <v>3274</v>
+        <v>3266</v>
       </c>
       <c r="J35" t="s">
         <v>463</v>
@@ -7172,7 +7172,7 @@
         <v>43</v>
       </c>
       <c r="I36">
-        <v>3340</v>
+        <v>3332</v>
       </c>
       <c r="J36" t="s">
         <v>492</v>
@@ -7294,7 +7294,7 @@
         <v>43</v>
       </c>
       <c r="I37">
-        <v>3367</v>
+        <v>3359</v>
       </c>
       <c r="J37" t="s">
         <v>495</v>
@@ -7416,7 +7416,7 @@
         <v>43</v>
       </c>
       <c r="I38">
-        <v>2868</v>
+        <v>2860</v>
       </c>
       <c r="J38" t="s">
         <v>163</v>
@@ -7538,7 +7538,7 @@
         <v>43</v>
       </c>
       <c r="I39">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="J39" t="s">
         <v>565</v>
@@ -7660,7 +7660,7 @@
         <v>43</v>
       </c>
       <c r="I40">
-        <v>3017</v>
+        <v>3009</v>
       </c>
       <c r="J40" t="s">
         <v>262</v>
@@ -7782,7 +7782,7 @@
         <v>43</v>
       </c>
       <c r="I41">
-        <v>2969</v>
+        <v>2961</v>
       </c>
       <c r="J41" t="s">
         <v>220</v>
@@ -7904,7 +7904,7 @@
         <v>43</v>
       </c>
       <c r="I42">
-        <v>3265</v>
+        <v>3257</v>
       </c>
       <c r="J42" t="s">
         <v>456</v>
@@ -8026,7 +8026,7 @@
         <v>43</v>
       </c>
       <c r="I43">
-        <v>2749</v>
+        <v>2741</v>
       </c>
       <c r="J43" t="s">
         <v>518</v>
@@ -8148,7 +8148,7 @@
         <v>43</v>
       </c>
       <c r="I44">
-        <v>2776</v>
+        <v>2768</v>
       </c>
       <c r="J44" t="s">
         <v>582</v>
@@ -8270,7 +8270,7 @@
         <v>43</v>
       </c>
       <c r="I45">
-        <v>3155</v>
+        <v>3147</v>
       </c>
       <c r="J45" t="s">
         <v>343</v>
@@ -8392,7 +8392,7 @@
         <v>43</v>
       </c>
       <c r="I46">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="J46" t="s">
         <v>573</v>
@@ -8514,7 +8514,7 @@
         <v>43</v>
       </c>
       <c r="I47">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="J47" t="s">
         <v>624</v>
@@ -8636,7 +8636,7 @@
         <v>43</v>
       </c>
       <c r="I48">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="J48" t="s">
         <v>543</v>
@@ -8758,7 +8758,7 @@
         <v>43</v>
       </c>
       <c r="I49">
-        <v>3171</v>
+        <v>3163</v>
       </c>
       <c r="J49" t="s">
         <v>618</v>
@@ -8880,7 +8880,7 @@
         <v>43</v>
       </c>
       <c r="I50">
-        <v>3297</v>
+        <v>3289</v>
       </c>
       <c r="J50" t="s">
         <v>634</v>
@@ -9002,7 +9002,7 @@
         <v>43</v>
       </c>
       <c r="I51">
-        <v>3349</v>
+        <v>3341</v>
       </c>
       <c r="J51" t="s">
         <v>650</v>
@@ -9124,7 +9124,7 @@
         <v>43</v>
       </c>
       <c r="I52">
-        <v>3350</v>
+        <v>3342</v>
       </c>
       <c r="J52" t="s">
         <v>654</v>
@@ -9246,7 +9246,7 @@
         <v>43</v>
       </c>
       <c r="I53">
-        <v>3241</v>
+        <v>3233</v>
       </c>
       <c r="J53" t="s">
         <v>423</v>
@@ -9368,7 +9368,7 @@
         <v>43</v>
       </c>
       <c r="I54">
-        <v>3226</v>
+        <v>3218</v>
       </c>
       <c r="J54" t="s">
         <v>409</v>
@@ -9490,7 +9490,7 @@
         <v>43</v>
       </c>
       <c r="I55">
-        <v>3322</v>
+        <v>3314</v>
       </c>
       <c r="J55" t="s">
         <v>470</v>
@@ -9612,7 +9612,7 @@
         <v>43</v>
       </c>
       <c r="I56">
-        <v>3023</v>
+        <v>3015</v>
       </c>
       <c r="J56" t="s">
         <v>273</v>
@@ -9734,7 +9734,7 @@
         <v>43</v>
       </c>
       <c r="I57">
-        <v>2985</v>
+        <v>2977</v>
       </c>
       <c r="J57" t="s">
         <v>232</v>
@@ -9856,7 +9856,7 @@
         <v>43</v>
       </c>
       <c r="I58">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="J58" t="s">
         <v>109</v>
@@ -9978,7 +9978,7 @@
         <v>43</v>
       </c>
       <c r="I59">
-        <v>2822</v>
+        <v>2814</v>
       </c>
       <c r="J59" t="s">
         <v>122</v>
@@ -10100,7 +10100,7 @@
         <v>43</v>
       </c>
       <c r="I60">
-        <v>2849</v>
+        <v>2841</v>
       </c>
       <c r="J60" t="s">
         <v>132</v>
@@ -10222,7 +10222,7 @@
         <v>43</v>
       </c>
       <c r="I61">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="J61" t="s">
         <v>292</v>
@@ -10344,7 +10344,7 @@
         <v>43</v>
       </c>
       <c r="I62">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="J62" t="s">
         <v>303</v>
@@ -10466,7 +10466,7 @@
         <v>43</v>
       </c>
       <c r="I63">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="J63" t="s">
         <v>313</v>
@@ -10588,7 +10588,7 @@
         <v>43</v>
       </c>
       <c r="I64">
-        <v>3186</v>
+        <v>3178</v>
       </c>
       <c r="J64" t="s">
         <v>362</v>
@@ -10710,7 +10710,7 @@
         <v>43</v>
       </c>
       <c r="I65">
-        <v>3194</v>
+        <v>3186</v>
       </c>
       <c r="J65" t="s">
         <v>366</v>
@@ -10832,7 +10832,7 @@
         <v>43</v>
       </c>
       <c r="I66">
-        <v>2743</v>
+        <v>2735</v>
       </c>
       <c r="J66" t="s">
         <v>500</v>
@@ -10954,7 +10954,7 @@
         <v>43</v>
       </c>
       <c r="I67">
-        <v>2748</v>
+        <v>2740</v>
       </c>
       <c r="J67" t="s">
         <v>510</v>
@@ -11076,7 +11076,7 @@
         <v>43</v>
       </c>
       <c r="I68">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="J68" t="s">
         <v>526</v>
@@ -11198,7 +11198,7 @@
         <v>43</v>
       </c>
       <c r="I69">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="J69" t="s">
         <v>558</v>
@@ -11320,7 +11320,7 @@
         <v>43</v>
       </c>
       <c r="I70">
-        <v>3168</v>
+        <v>3160</v>
       </c>
       <c r="J70" t="s">
         <v>607</v>
@@ -11442,7 +11442,7 @@
         <v>43</v>
       </c>
       <c r="I71">
-        <v>2758</v>
+        <v>2750</v>
       </c>
       <c r="J71" t="s">
         <v>535</v>
@@ -11564,7 +11564,7 @@
         <v>43</v>
       </c>
       <c r="I72">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="J72" t="s">
         <v>551</v>
@@ -11686,7 +11686,7 @@
         <v>43</v>
       </c>
       <c r="I73">
-        <v>3169</v>
+        <v>3161</v>
       </c>
       <c r="J73" t="s">
         <v>613</v>
@@ -11808,7 +11808,7 @@
         <v>43</v>
       </c>
       <c r="I74">
-        <v>3240</v>
+        <v>3232</v>
       </c>
       <c r="J74" t="s">
         <v>416</v>
@@ -11905,7 +11905,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO75">
     <sortCondition ref="AM2:AM75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F75D67-B369-474C-8314-79A143C3CF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A0F75D67-B369-474C-8314-79A143C3CF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B187695-B0A6-4635-8D33-AAD77B18E154}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_name review" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="90">
   <si>
     <t>family</t>
   </si>
@@ -278,12 +278,24 @@
   </si>
   <si>
     <t>terrestris</t>
+  </si>
+  <si>
+    <t>Amalaraeus</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>Pulex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1117,12 +1129,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1253,7 +1263,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1372,7 +1382,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -1491,7 +1501,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -1610,7 +1620,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1729,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -1848,7 +1858,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -1967,7 +1977,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -2086,7 +2096,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>

--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A0F75D67-B369-474C-8314-79A143C3CF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B187695-B0A6-4635-8D33-AAD77B18E154}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09163CA4-535E-4E18-9C9E-16381580637C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_name review" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
   <si>
     <t>family</t>
   </si>
@@ -208,6 +208,69 @@
     <t>Pulex terrestris ferox Alpinus, 1874</t>
   </si>
   <si>
+    <t>Amalaraeus</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>fossoris</t>
+  </si>
+  <si>
+    <t>sugitanii</t>
+  </si>
+  <si>
+    <t>sterni</t>
+  </si>
+  <si>
+    <t>flavus</t>
+  </si>
+  <si>
+    <t>nepalensis</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>imperator</t>
+  </si>
+  <si>
+    <t>terrestris ferox</t>
+  </si>
+  <si>
+    <t>ferox</t>
+  </si>
+  <si>
+    <t>terrestris</t>
+  </si>
+  <si>
+    <t>Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Curt., [1829]</t>
+  </si>
+  <si>
+    <t>Suteminn, 1969</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Westwood, 1858</t>
+  </si>
+  <si>
+    <t>Alpinus, 1874</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
     <t>Amalaraeus fossoris</t>
   </si>
   <si>
@@ -232,70 +295,19 @@
     <t>Pulex terrestris ferox</t>
   </si>
   <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>Sutemin, 1969</t>
-  </si>
-  <si>
-    <t>Curt., [1829]</t>
-  </si>
-  <si>
-    <t>Suteminn, 1969</t>
-  </si>
-  <si>
-    <t>Kirby, 1837</t>
-  </si>
-  <si>
-    <t>Westwood, 1858</t>
-  </si>
-  <si>
-    <t>Alpinus, 1874</t>
-  </si>
-  <si>
-    <t>fossoris</t>
-  </si>
-  <si>
-    <t>sugitanii</t>
-  </si>
-  <si>
-    <t>sterni</t>
-  </si>
-  <si>
-    <t>flavus</t>
-  </si>
-  <si>
-    <t>nepalensis</t>
-  </si>
-  <si>
-    <t>gigas</t>
-  </si>
-  <si>
-    <t>imperator</t>
-  </si>
-  <si>
-    <t>ferox</t>
-  </si>
-  <si>
-    <t>terrestris</t>
-  </si>
-  <si>
-    <t>Amalaraeus</t>
-  </si>
-  <si>
-    <t>Ceratophyllus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus</t>
-  </si>
-  <si>
-    <t>Pulex</t>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllidae</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,10 +1141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1257,16 +1271,16 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1341,7 +1355,7 @@
         <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AD2" t="s">
         <v>39</v>
@@ -1353,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
         <v>39</v>
@@ -1371,21 +1385,21 @@
         <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -1460,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="s">
         <v>39</v>
@@ -1472,7 +1486,7 @@
         <v>39</v>
       </c>
       <c r="AG3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
         <v>39</v>
@@ -1490,21 +1504,21 @@
         <v>39</v>
       </c>
       <c r="AM3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1579,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AD4" t="s">
         <v>39</v>
@@ -1591,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="AG4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s">
         <v>39</v>
@@ -1609,21 +1623,21 @@
         <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1698,7 +1712,7 @@
         <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s">
         <v>39</v>
@@ -1710,7 +1724,7 @@
         <v>39</v>
       </c>
       <c r="AG5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s">
         <v>39</v>
@@ -1728,21 +1742,21 @@
         <v>39</v>
       </c>
       <c r="AM5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1817,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s">
         <v>39</v>
@@ -1829,7 +1843,7 @@
         <v>39</v>
       </c>
       <c r="AG6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1847,21 +1861,21 @@
         <v>39</v>
       </c>
       <c r="AM6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1936,7 +1950,7 @@
         <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
@@ -1948,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="AG7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s">
         <v>39</v>
@@ -1966,21 +1980,21 @@
         <v>39</v>
       </c>
       <c r="AM7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -2055,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="AC8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s">
         <v>39</v>
@@ -2067,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="AG8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s">
         <v>39</v>
@@ -2085,21 +2099,21 @@
         <v>39</v>
       </c>
       <c r="AM8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -2174,19 +2188,19 @@
         <v>39</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s">
         <v>39</v>
       </c>
       <c r="AG9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s">
         <v>39</v>
@@ -2204,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="AM9" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09163CA4-535E-4E18-9C9E-16381580637C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31C7A931-B157-4804-B304-F5192564DA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -208,6 +208,78 @@
     <t>Pulex terrestris ferox Alpinus, 1874</t>
   </si>
   <si>
+    <t>Sutemin, 1969</t>
+  </si>
+  <si>
+    <t>Curt., [1829]</t>
+  </si>
+  <si>
+    <t>Suteminn, 1969</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Westwood, 1858</t>
+  </si>
+  <si>
+    <t>Alpinus, 1874</t>
+  </si>
+  <si>
+    <t>Amalaraeus fossoris</t>
+  </si>
+  <si>
+    <t>Amalaraeus sugitanii</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus flavus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus nepalensis</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>Pulex imperator</t>
+  </si>
+  <si>
+    <t>Pulex terrestris ferox</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>ferox</t>
+  </si>
+  <si>
+    <t>fossoris</t>
+  </si>
+  <si>
+    <t>sugitanii</t>
+  </si>
+  <si>
+    <t>sterni</t>
+  </si>
+  <si>
+    <t>flavus</t>
+  </si>
+  <si>
+    <t>nepalensis</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>imperator</t>
+  </si>
+  <si>
+    <t>terrestris</t>
+  </si>
+  <si>
     <t>Amalaraeus</t>
   </si>
   <si>
@@ -220,88 +292,16 @@
     <t>Pulex</t>
   </si>
   <si>
-    <t>fossoris</t>
-  </si>
-  <si>
-    <t>sugitanii</t>
-  </si>
-  <si>
-    <t>sterni</t>
-  </si>
-  <si>
-    <t>flavus</t>
-  </si>
-  <si>
-    <t>nepalensis</t>
-  </si>
-  <si>
-    <t>gigas</t>
-  </si>
-  <si>
-    <t>imperator</t>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Hystrichopsyllidae</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
   </si>
   <si>
     <t>terrestris ferox</t>
-  </si>
-  <si>
-    <t>ferox</t>
-  </si>
-  <si>
-    <t>terrestris</t>
-  </si>
-  <si>
-    <t>Sutemin, 1969</t>
-  </si>
-  <si>
-    <t>Curt., [1829]</t>
-  </si>
-  <si>
-    <t>Suteminn, 1969</t>
-  </si>
-  <si>
-    <t>Kirby, 1837</t>
-  </si>
-  <si>
-    <t>Westwood, 1858</t>
-  </si>
-  <si>
-    <t>Alpinus, 1874</t>
-  </si>
-  <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>Amalaraeus fossoris</t>
-  </si>
-  <si>
-    <t>Amalaraeus sugitanii</t>
-  </si>
-  <si>
-    <t>Ceratophyllus sterni</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus flavus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus nepalensis</t>
-  </si>
-  <si>
-    <t>Pulex gigas</t>
-  </si>
-  <si>
-    <t>Pulex imperator</t>
-  </si>
-  <si>
-    <t>Pulex terrestris ferox</t>
-  </si>
-  <si>
-    <t>Ceratophyllidae</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllidae</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1355,7 +1355,7 @@
         <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s">
         <v>39</v>
@@ -1367,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="s">
         <v>39</v>
@@ -1385,24 +1385,24 @@
         <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1474,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s">
         <v>39</v>
@@ -1486,7 +1486,7 @@
         <v>39</v>
       </c>
       <c r="AG3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AH3" t="s">
         <v>39</v>
@@ -1504,24 +1504,24 @@
         <v>39</v>
       </c>
       <c r="AM3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1593,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s">
         <v>39</v>
@@ -1605,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="AG4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AH4" t="s">
         <v>39</v>
@@ -1623,24 +1623,24 @@
         <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1712,7 +1712,7 @@
         <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s">
         <v>39</v>
@@ -1724,7 +1724,7 @@
         <v>39</v>
       </c>
       <c r="AG5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="AH5" t="s">
         <v>39</v>
@@ -1742,24 +1742,24 @@
         <v>39</v>
       </c>
       <c r="AM5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -1831,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s">
         <v>39</v>
@@ -1843,7 +1843,7 @@
         <v>39</v>
       </c>
       <c r="AG6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1861,24 +1861,24 @@
         <v>39</v>
       </c>
       <c r="AM6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1950,7 +1950,7 @@
         <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
@@ -1962,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="AG7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="AH7" t="s">
         <v>39</v>
@@ -1980,24 +1980,24 @@
         <v>39</v>
       </c>
       <c r="AM7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -2069,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AD8" t="s">
         <v>39</v>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s">
         <v>39</v>
@@ -2099,24 +2099,24 @@
         <v>39</v>
       </c>
       <c r="AM8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -2188,19 +2188,19 @@
         <v>39</v>
       </c>
       <c r="AC9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AD9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s">
         <v>39</v>
       </c>
       <c r="AG9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH9" t="s">
         <v>39</v>
@@ -2218,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="AM9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/input/Lewis_reviewed.xlsx
+++ b/input/Lewis_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31C7A931-B157-4804-B304-F5192564DA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF9FDE5-0393-46CD-BFA4-71C8DAA69DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="86">
   <si>
     <t>family</t>
   </si>
@@ -208,6 +208,60 @@
     <t>Pulex terrestris ferox Alpinus, 1874</t>
   </si>
   <si>
+    <t>Amalaraeus fossoris</t>
+  </si>
+  <si>
+    <t>Amalaraeus sugitanii</t>
+  </si>
+  <si>
+    <t>Ceratophyllus sterni</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus flavus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus nepalensis</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>Pulex imperator</t>
+  </si>
+  <si>
+    <t>Pulex terrestris ferox</t>
+  </si>
+  <si>
+    <t>fossoris</t>
+  </si>
+  <si>
+    <t>sugitanii</t>
+  </si>
+  <si>
+    <t>sterni</t>
+  </si>
+  <si>
+    <t>flavus</t>
+  </si>
+  <si>
+    <t>nepalensis</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>imperator</t>
+  </si>
+  <si>
+    <t>ferox</t>
+  </si>
+  <si>
+    <t>terrestris</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
     <t>Sutemin, 1969</t>
   </si>
   <si>
@@ -224,84 +278,6 @@
   </si>
   <si>
     <t>Alpinus, 1874</t>
-  </si>
-  <si>
-    <t>Amalaraeus fossoris</t>
-  </si>
-  <si>
-    <t>Amalaraeus sugitanii</t>
-  </si>
-  <si>
-    <t>Ceratophyllus sterni</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus flavus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus nepalensis</t>
-  </si>
-  <si>
-    <t>Pulex gigas</t>
-  </si>
-  <si>
-    <t>Pulex imperator</t>
-  </si>
-  <si>
-    <t>Pulex terrestris ferox</t>
-  </si>
-  <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>ferox</t>
-  </si>
-  <si>
-    <t>fossoris</t>
-  </si>
-  <si>
-    <t>sugitanii</t>
-  </si>
-  <si>
-    <t>sterni</t>
-  </si>
-  <si>
-    <t>flavus</t>
-  </si>
-  <si>
-    <t>nepalensis</t>
-  </si>
-  <si>
-    <t>gigas</t>
-  </si>
-  <si>
-    <t>imperator</t>
-  </si>
-  <si>
-    <t>terrestris</t>
-  </si>
-  <si>
-    <t>Amalaraeus</t>
-  </si>
-  <si>
-    <t>Ceratophyllus</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus</t>
-  </si>
-  <si>
-    <t>Pulex</t>
-  </si>
-  <si>
-    <t>Ceratophyllidae</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllidae</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
-  </si>
-  <si>
-    <t>terrestris ferox</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,19 +1247,19 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1355,7 +1331,7 @@
         <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
         <v>39</v>
@@ -1367,7 +1343,7 @@
         <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s">
         <v>39</v>
@@ -1385,24 +1361,24 @@
         <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1474,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s">
         <v>39</v>
@@ -1486,7 +1462,7 @@
         <v>39</v>
       </c>
       <c r="AG3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s">
         <v>39</v>
@@ -1504,24 +1480,24 @@
         <v>39</v>
       </c>
       <c r="AM3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1593,7 +1569,7 @@
         <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s">
         <v>39</v>
@@ -1605,7 +1581,7 @@
         <v>39</v>
       </c>
       <c r="AG4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s">
         <v>39</v>
@@ -1623,24 +1599,24 @@
         <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1712,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s">
         <v>39</v>
@@ -1724,7 +1700,7 @@
         <v>39</v>
       </c>
       <c r="AG5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s">
         <v>39</v>
@@ -1742,24 +1718,24 @@
         <v>39</v>
       </c>
       <c r="AM5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -1831,7 +1807,7 @@
         <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s">
         <v>39</v>
@@ -1843,7 +1819,7 @@
         <v>39</v>
       </c>
       <c r="AG6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1861,24 +1837,24 @@
         <v>39</v>
       </c>
       <c r="AM6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1950,7 +1926,7 @@
         <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
@@ -1962,7 +1938,7 @@
         <v>39</v>
       </c>
       <c r="AG7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s">
         <v>39</v>
@@ -1980,24 +1956,24 @@
         <v>39</v>
       </c>
       <c r="AM7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -2069,7 +2045,7 @@
         <v>39</v>
       </c>
       <c r="AC8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s">
         <v>39</v>
@@ -2081,7 +2057,7 @@
         <v>39</v>
       </c>
       <c r="AG8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s">
         <v>39</v>
@@ -2099,24 +2075,24 @@
         <v>39</v>
       </c>
       <c r="AM8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -2188,19 +2164,19 @@
         <v>39</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
         <v>77</v>
       </c>
       <c r="AE9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s">
         <v>39</v>
       </c>
       <c r="AG9" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s">
         <v>39</v>
@@ -2218,7 +2194,7 @@
         <v>39</v>
       </c>
       <c r="AM9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
